--- a/Översikt KARLSKRONA.xlsx
+++ b/Översikt KARLSKRONA.xlsx
@@ -575,7 +575,7 @@
         <v>45923</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -672,7 +672,7 @@
         <v>45832</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -762,7 +762,7 @@
         <v>45911</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -851,7 +851,7 @@
         <v>45999</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -944,7 +944,7 @@
         <v>45999</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1036,7 +1036,7 @@
         <v>44509</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1123,7 +1123,7 @@
         <v>45918</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1210,7 +1210,7 @@
         <v>45905</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1302,7 +1302,7 @@
         <v>44960</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1389,7 +1389,7 @@
         <v>45826.50638888889</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1475,7 +1475,7 @@
         <v>45924.48732638889</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1561,7 +1561,7 @@
         <v>45901</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1652,7 +1652,7 @@
         <v>45037</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1743,7 +1743,7 @@
         <v>45603.46306712963</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1829,7 +1829,7 @@
         <v>44531</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1914,7 +1914,7 @@
         <v>44467</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1999,7 +1999,7 @@
         <v>45002.64284722223</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2084,7 +2084,7 @@
         <v>44237</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2169,7 +2169,7 @@
         <v>45050</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2254,7 +2254,7 @@
         <v>45826.49623842593</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2339,7 +2339,7 @@
         <v>45809</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2424,7 +2424,7 @@
         <v>44445</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2509,7 +2509,7 @@
         <v>45110.59303240741</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2594,7 +2594,7 @@
         <v>45337</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2679,7 +2679,7 @@
         <v>46055</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2768,7 +2768,7 @@
         <v>45579.41793981481</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2853,7 +2853,7 @@
         <v>44279.88631944444</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2910,7 +2910,7 @@
         <v>44245.49747685185</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2967,7 +2967,7 @@
         <v>44242.35074074074</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3024,7 +3024,7 @@
         <v>44249.57096064815</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3081,7 +3081,7 @@
         <v>44356</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3138,7 +3138,7 @@
         <v>44273</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3195,7 +3195,7 @@
         <v>44279</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3252,7 +3252,7 @@
         <v>44574.53206018519</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3309,7 +3309,7 @@
         <v>44368.68505787037</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3366,7 +3366,7 @@
         <v>44572</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3423,7 +3423,7 @@
         <v>44551</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3480,7 +3480,7 @@
         <v>44869.37805555556</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3537,7 +3537,7 @@
         <v>44432.52225694444</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3594,7 +3594,7 @@
         <v>44342</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3651,7 +3651,7 @@
         <v>44342</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3708,7 +3708,7 @@
         <v>44285</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3765,7 +3765,7 @@
         <v>44284</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3822,7 +3822,7 @@
         <v>44585</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3879,7 +3879,7 @@
         <v>44600</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3936,7 +3936,7 @@
         <v>44468</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3993,7 +3993,7 @@
         <v>44585</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4050,7 +4050,7 @@
         <v>44687</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4107,7 +4107,7 @@
         <v>44273.4187962963</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4164,7 +4164,7 @@
         <v>44670</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4221,7 +4221,7 @@
         <v>44830.46083333333</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4278,7 +4278,7 @@
         <v>44875.43988425926</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4335,7 +4335,7 @@
         <v>44875.4530787037</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4392,7 +4392,7 @@
         <v>44458</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4449,7 +4449,7 @@
         <v>44483.831875</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4506,7 +4506,7 @@
         <v>44325</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4563,7 +4563,7 @@
         <v>44350.5575925926</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4620,7 +4620,7 @@
         <v>44559.5102662037</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4677,7 +4677,7 @@
         <v>44501</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4734,7 +4734,7 @@
         <v>44421</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4791,7 +4791,7 @@
         <v>44691.62895833333</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4848,7 +4848,7 @@
         <v>44368</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4905,7 +4905,7 @@
         <v>44406</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4962,7 +4962,7 @@
         <v>44449</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5019,7 +5019,7 @@
         <v>44526.64325231482</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5076,7 +5076,7 @@
         <v>44411.27403935185</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5133,7 +5133,7 @@
         <v>44441</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5190,7 +5190,7 @@
         <v>44462.38528935185</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5247,7 +5247,7 @@
         <v>44406.65106481482</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5304,7 +5304,7 @@
         <v>44659.49101851852</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5361,7 +5361,7 @@
         <v>44314.85686342593</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5418,7 +5418,7 @@
         <v>44384</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5475,7 +5475,7 @@
         <v>44676.45043981481</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5532,7 +5532,7 @@
         <v>44502</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5589,7 +5589,7 @@
         <v>44629.93263888889</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5646,7 +5646,7 @@
         <v>44285.43686342592</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5703,7 +5703,7 @@
         <v>44361.36178240741</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5760,7 +5760,7 @@
         <v>44375</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5817,7 +5817,7 @@
         <v>44435</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5874,7 +5874,7 @@
         <v>44705</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5931,7 +5931,7 @@
         <v>44365</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5988,7 +5988,7 @@
         <v>44399</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6045,7 +6045,7 @@
         <v>44241</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6102,7 +6102,7 @@
         <v>44719.61128472222</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6159,7 +6159,7 @@
         <v>44503</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6216,7 +6216,7 @@
         <v>44462</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6273,7 +6273,7 @@
         <v>44498</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6330,7 +6330,7 @@
         <v>44447.68054398148</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6387,7 +6387,7 @@
         <v>44497.92861111111</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6444,7 +6444,7 @@
         <v>44497</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6501,7 +6501,7 @@
         <v>44806</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6558,7 +6558,7 @@
         <v>44361.59884259259</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6615,7 +6615,7 @@
         <v>44343</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6672,7 +6672,7 @@
         <v>44424</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6729,7 +6729,7 @@
         <v>44256</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6786,7 +6786,7 @@
         <v>44442</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6843,7 +6843,7 @@
         <v>44624</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6900,7 +6900,7 @@
         <v>44742</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6957,7 +6957,7 @@
         <v>44259</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7014,7 +7014,7 @@
         <v>44629</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7071,7 +7071,7 @@
         <v>44364</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7128,7 +7128,7 @@
         <v>44267</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7185,7 +7185,7 @@
         <v>44441.76258101852</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7242,7 +7242,7 @@
         <v>44305.43628472222</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7299,7 +7299,7 @@
         <v>44350</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7356,7 +7356,7 @@
         <v>44874</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7413,7 +7413,7 @@
         <v>44441</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7470,7 +7470,7 @@
         <v>44374.73391203704</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7527,7 +7527,7 @@
         <v>44501.61</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7584,7 +7584,7 @@
         <v>44434.60960648148</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7641,7 +7641,7 @@
         <v>44572</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7698,7 +7698,7 @@
         <v>44420</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7755,7 +7755,7 @@
         <v>44446.44287037037</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7812,7 +7812,7 @@
         <v>44571.43729166667</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7869,7 +7869,7 @@
         <v>44599</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7926,7 +7926,7 @@
         <v>44300</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7988,7 +7988,7 @@
         <v>44491</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8045,7 +8045,7 @@
         <v>44270</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8102,7 +8102,7 @@
         <v>44266.84585648148</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8159,7 +8159,7 @@
         <v>44267</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8216,7 +8216,7 @@
         <v>44433.9015162037</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8273,7 +8273,7 @@
         <v>44452</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8330,7 +8330,7 @@
         <v>44314.85135416667</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8387,7 +8387,7 @@
         <v>44588.36425925926</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8444,7 +8444,7 @@
         <v>44476</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8501,7 +8501,7 @@
         <v>44377.74945601852</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8558,7 +8558,7 @@
         <v>44516.53758101852</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8615,7 +8615,7 @@
         <v>44623</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8672,7 +8672,7 @@
         <v>44270.41763888889</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8729,7 +8729,7 @@
         <v>44302.44891203703</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8786,7 +8786,7 @@
         <v>44440</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8848,7 +8848,7 @@
         <v>44460.67511574074</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8905,7 +8905,7 @@
         <v>44484.50790509259</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8962,7 +8962,7 @@
         <v>44322</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9019,7 +9019,7 @@
         <v>44719.63167824074</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9076,7 +9076,7 @@
         <v>44295.57456018519</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9133,7 +9133,7 @@
         <v>44634.57651620371</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9190,7 +9190,7 @@
         <v>44627.93427083334</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9247,7 +9247,7 @@
         <v>44825.96707175926</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9304,7 +9304,7 @@
         <v>44847</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9361,7 +9361,7 @@
         <v>44259</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9418,7 +9418,7 @@
         <v>44540.59521990741</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9475,7 +9475,7 @@
         <v>44475.35071759259</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9532,7 +9532,7 @@
         <v>44809.58320601852</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9594,7 +9594,7 @@
         <v>44524.55496527778</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9651,7 +9651,7 @@
         <v>44302</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9708,7 +9708,7 @@
         <v>44284</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9765,7 +9765,7 @@
         <v>44698</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9822,7 +9822,7 @@
         <v>44543.56502314815</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9879,7 +9879,7 @@
         <v>44621</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9936,7 +9936,7 @@
         <v>44859.4846412037</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9993,7 +9993,7 @@
         <v>44333</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10050,7 +10050,7 @@
         <v>44742</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10107,7 +10107,7 @@
         <v>44743.61866898148</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10164,7 +10164,7 @@
         <v>44480.49596064815</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10221,7 +10221,7 @@
         <v>44285.50226851852</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10278,7 +10278,7 @@
         <v>44440</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10335,7 +10335,7 @@
         <v>44425</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10392,7 +10392,7 @@
         <v>44466</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10449,7 +10449,7 @@
         <v>44837.44972222222</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10506,7 +10506,7 @@
         <v>44706</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10563,7 +10563,7 @@
         <v>44579</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10620,7 +10620,7 @@
         <v>44608</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10677,7 +10677,7 @@
         <v>44365</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10734,7 +10734,7 @@
         <v>44295.56783564815</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10791,7 +10791,7 @@
         <v>44305</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10848,7 +10848,7 @@
         <v>44687</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10905,7 +10905,7 @@
         <v>44494.57087962963</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10962,7 +10962,7 @@
         <v>44466.88909722222</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11019,7 +11019,7 @@
         <v>44320.52675925926</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11076,7 +11076,7 @@
         <v>44306</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11133,7 +11133,7 @@
         <v>44300</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11190,7 +11190,7 @@
         <v>44286.89717592593</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11247,7 +11247,7 @@
         <v>44596</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11304,7 +11304,7 @@
         <v>44439.56229166667</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11361,7 +11361,7 @@
         <v>44356.48402777778</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11418,7 +11418,7 @@
         <v>44399.59900462963</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11475,7 +11475,7 @@
         <v>44467.70932870371</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11532,7 +11532,7 @@
         <v>44592.6608912037</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11594,7 +11594,7 @@
         <v>44608.61462962963</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11651,7 +11651,7 @@
         <v>44286</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11708,7 +11708,7 @@
         <v>44503.58373842593</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11765,7 +11765,7 @@
         <v>44711</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11822,7 +11822,7 @@
         <v>44272.41576388889</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11879,7 +11879,7 @@
         <v>44342</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11936,7 +11936,7 @@
         <v>44804.88839120371</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11993,7 +11993,7 @@
         <v>44614.48950231481</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12050,7 +12050,7 @@
         <v>44657</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12107,7 +12107,7 @@
         <v>44858</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12164,7 +12164,7 @@
         <v>44875.45777777778</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12221,7 +12221,7 @@
         <v>45400.9021412037</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12278,7 +12278,7 @@
         <v>45674.37481481482</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12335,7 +12335,7 @@
         <v>45035</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12392,7 +12392,7 @@
         <v>45315.89215277778</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12449,7 +12449,7 @@
         <v>45456.68532407407</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12506,7 +12506,7 @@
         <v>45615.4612037037</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12563,7 +12563,7 @@
         <v>45004</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12620,7 +12620,7 @@
         <v>45180.4958449074</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12677,7 +12677,7 @@
         <v>45387.38211805555</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12734,7 +12734,7 @@
         <v>44998</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12791,7 +12791,7 @@
         <v>45079</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12848,7 +12848,7 @@
         <v>45664.61196759259</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12905,7 +12905,7 @@
         <v>45393.36715277778</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12962,7 +12962,7 @@
         <v>45257.79081018519</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13019,7 +13019,7 @@
         <v>45108</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13076,7 +13076,7 @@
         <v>44886.58100694444</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13133,7 +13133,7 @@
         <v>45196.41784722222</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13190,7 +13190,7 @@
         <v>44491.33081018519</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13247,7 +13247,7 @@
         <v>44967</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13304,7 +13304,7 @@
         <v>45531.50513888889</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13361,7 +13361,7 @@
         <v>45643</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13418,7 +13418,7 @@
         <v>45373.49626157407</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13475,7 +13475,7 @@
         <v>44747</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13532,7 +13532,7 @@
         <v>45107</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13589,7 +13589,7 @@
         <v>44860</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13646,7 +13646,7 @@
         <v>44875</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13703,7 +13703,7 @@
         <v>45458.75857638889</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13760,7 +13760,7 @@
         <v>44890</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13817,7 +13817,7 @@
         <v>45215.35577546297</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13874,7 +13874,7 @@
         <v>44741</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13931,7 +13931,7 @@
         <v>44946.48041666667</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13988,7 +13988,7 @@
         <v>44672.62571759259</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14045,7 +14045,7 @@
         <v>44939.68818287037</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14102,7 +14102,7 @@
         <v>44937.66680555556</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14159,7 +14159,7 @@
         <v>45019</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14216,7 +14216,7 @@
         <v>45051.33702546296</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14273,7 +14273,7 @@
         <v>45034</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14330,7 +14330,7 @@
         <v>45685</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14387,7 +14387,7 @@
         <v>44553</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14444,7 +14444,7 @@
         <v>45362</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14501,7 +14501,7 @@
         <v>45166</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14558,7 +14558,7 @@
         <v>45578.38111111111</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14615,7 +14615,7 @@
         <v>45142</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14672,7 +14672,7 @@
         <v>45159.43704861111</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14729,7 +14729,7 @@
         <v>45198.56633101852</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14786,7 +14786,7 @@
         <v>44986.33892361111</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14843,7 +14843,7 @@
         <v>44692.459375</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14900,7 +14900,7 @@
         <v>44305</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14957,7 +14957,7 @@
         <v>44847.67832175926</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15014,7 +15014,7 @@
         <v>45001.50576388889</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15071,7 +15071,7 @@
         <v>44847</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15128,7 +15128,7 @@
         <v>44592.63900462963</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15190,7 +15190,7 @@
         <v>45002.62616898148</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15247,7 +15247,7 @@
         <v>44967</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15304,7 +15304,7 @@
         <v>45028.55498842592</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15361,7 +15361,7 @@
         <v>45075.43525462963</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15418,7 +15418,7 @@
         <v>45266.39518518518</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15475,7 +15475,7 @@
         <v>44323</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15532,7 +15532,7 @@
         <v>44545.34950231481</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15589,7 +15589,7 @@
         <v>45020</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15646,7 +15646,7 @@
         <v>45315</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15703,7 +15703,7 @@
         <v>45028.55811342593</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15760,7 +15760,7 @@
         <v>45162</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15817,7 +15817,7 @@
         <v>44879</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15874,7 +15874,7 @@
         <v>44691.63315972222</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15931,7 +15931,7 @@
         <v>45586.77130787037</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15988,7 +15988,7 @@
         <v>45328</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16045,7 +16045,7 @@
         <v>45015</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16102,7 +16102,7 @@
         <v>45743.55949074074</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16159,7 +16159,7 @@
         <v>44706</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16216,7 +16216,7 @@
         <v>45715.38768518518</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16273,7 +16273,7 @@
         <v>45483</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16330,7 +16330,7 @@
         <v>45727.46905092592</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16387,7 +16387,7 @@
         <v>45335</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16444,7 +16444,7 @@
         <v>44757</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16501,7 +16501,7 @@
         <v>45324</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16558,7 +16558,7 @@
         <v>45707</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16615,7 +16615,7 @@
         <v>44930.83994212963</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16672,7 +16672,7 @@
         <v>44851.64682870371</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16729,7 +16729,7 @@
         <v>44593.45266203704</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16786,7 +16786,7 @@
         <v>45328</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16843,7 +16843,7 @@
         <v>45107</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16900,7 +16900,7 @@
         <v>45103</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16957,7 +16957,7 @@
         <v>45693.46003472222</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17014,7 +17014,7 @@
         <v>45581.36192129629</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17071,7 +17071,7 @@
         <v>44350</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17128,7 +17128,7 @@
         <v>45770</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17185,7 +17185,7 @@
         <v>45799.63540509259</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17242,7 +17242,7 @@
         <v>45632.59701388889</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17299,7 +17299,7 @@
         <v>45234</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17356,7 +17356,7 @@
         <v>45737.66008101852</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17413,7 +17413,7 @@
         <v>44837</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17470,7 +17470,7 @@
         <v>45541.33905092593</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17527,7 +17527,7 @@
         <v>45887.49454861111</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17584,7 +17584,7 @@
         <v>44636</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17641,7 +17641,7 @@
         <v>45568</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17698,7 +17698,7 @@
         <v>44619</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17755,7 +17755,7 @@
         <v>45028.54530092593</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17812,7 +17812,7 @@
         <v>45028.55927083334</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17869,7 +17869,7 @@
         <v>45887.44629629629</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17926,7 +17926,7 @@
         <v>45887.44987268518</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17983,7 +17983,7 @@
         <v>44988</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18040,7 +18040,7 @@
         <v>45012</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18097,7 +18097,7 @@
         <v>44584</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18154,7 +18154,7 @@
         <v>45334</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18211,7 +18211,7 @@
         <v>45393.93069444445</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18268,7 +18268,7 @@
         <v>45168.8937962963</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18325,7 +18325,7 @@
         <v>45884.3334837963</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18382,7 +18382,7 @@
         <v>44592</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18439,7 +18439,7 @@
         <v>45772.43194444444</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18496,7 +18496,7 @@
         <v>45365.30353009259</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18553,7 +18553,7 @@
         <v>45303</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18610,7 +18610,7 @@
         <v>45537.49834490741</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18667,7 +18667,7 @@
         <v>44512</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18724,7 +18724,7 @@
         <v>45085.57921296296</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18781,7 +18781,7 @@
         <v>45809.60372685185</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18838,7 +18838,7 @@
         <v>45443</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18895,7 +18895,7 @@
         <v>45891.58806712963</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18952,7 +18952,7 @@
         <v>45475</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19009,7 +19009,7 @@
         <v>45001.70106481481</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19066,7 +19066,7 @@
         <v>45278.56393518519</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19123,7 +19123,7 @@
         <v>45890</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19180,7 +19180,7 @@
         <v>44587.5346412037</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19237,7 +19237,7 @@
         <v>45783</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19294,7 +19294,7 @@
         <v>45817.63003472222</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19351,7 +19351,7 @@
         <v>45553.63233796296</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19408,7 +19408,7 @@
         <v>45610.89532407407</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19465,7 +19465,7 @@
         <v>45742</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19522,7 +19522,7 @@
         <v>45894.39850694445</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19579,7 +19579,7 @@
         <v>45896.55240740741</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19636,7 +19636,7 @@
         <v>45897.45144675926</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19693,7 +19693,7 @@
         <v>45069</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19750,7 +19750,7 @@
         <v>45898.32637731481</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19807,7 +19807,7 @@
         <v>45532.43672453704</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19864,7 +19864,7 @@
         <v>45532.43798611111</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19921,7 +19921,7 @@
         <v>45537.50579861111</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -19978,7 +19978,7 @@
         <v>45218.40603009259</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20035,7 +20035,7 @@
         <v>45681.87600694445</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20092,7 +20092,7 @@
         <v>45733</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20149,7 +20149,7 @@
         <v>44974.82748842592</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20206,7 +20206,7 @@
         <v>45600</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20263,7 +20263,7 @@
         <v>45245.655</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20320,7 +20320,7 @@
         <v>45204</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20377,7 +20377,7 @@
         <v>45747.84215277778</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20434,7 +20434,7 @@
         <v>45573</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20491,7 +20491,7 @@
         <v>45905.46513888889</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20548,7 +20548,7 @@
         <v>45905</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20605,7 +20605,7 @@
         <v>45903.83215277778</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20662,7 +20662,7 @@
         <v>45905</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20719,7 +20719,7 @@
         <v>45532</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20776,7 +20776,7 @@
         <v>45846</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20833,7 +20833,7 @@
         <v>45714</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -20890,7 +20890,7 @@
         <v>45908.49148148148</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -20947,7 +20947,7 @@
         <v>45635</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21004,7 +21004,7 @@
         <v>45218.4927662037</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21061,7 +21061,7 @@
         <v>45821.57865740741</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21118,7 +21118,7 @@
         <v>44747</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21175,7 +21175,7 @@
         <v>45254</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21232,7 +21232,7 @@
         <v>45908.58891203703</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21289,7 +21289,7 @@
         <v>45537.4990625</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21346,7 +21346,7 @@
         <v>45013.65112268519</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21403,7 +21403,7 @@
         <v>45911.66232638889</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21460,7 +21460,7 @@
         <v>45910.43229166666</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21517,7 +21517,7 @@
         <v>45827.41166666667</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21574,7 +21574,7 @@
         <v>45826.44643518519</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21631,7 +21631,7 @@
         <v>45827.41407407408</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21688,7 +21688,7 @@
         <v>45561</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21745,7 +21745,7 @@
         <v>45411.41958333334</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21802,7 +21802,7 @@
         <v>45826.44898148148</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -21859,7 +21859,7 @@
         <v>45697</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -21916,7 +21916,7 @@
         <v>45915.60363425926</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -21973,7 +21973,7 @@
         <v>45827.45453703704</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22030,7 +22030,7 @@
         <v>45048</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22087,7 +22087,7 @@
         <v>44609.5427199074</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22149,7 +22149,7 @@
         <v>44609.55334490741</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22211,7 +22211,7 @@
         <v>44825</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22268,7 +22268,7 @@
         <v>45085</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22325,7 +22325,7 @@
         <v>45085</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22382,7 +22382,7 @@
         <v>45915.60884259259</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22439,7 +22439,7 @@
         <v>44586</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22496,7 +22496,7 @@
         <v>45917.4018287037</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22553,7 +22553,7 @@
         <v>45917.40012731482</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22610,7 +22610,7 @@
         <v>45827.41239583334</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22667,7 +22667,7 @@
         <v>45826.49226851852</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22724,7 +22724,7 @@
         <v>45917.40362268518</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -22781,7 +22781,7 @@
         <v>45917.40538194445</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -22838,7 +22838,7 @@
         <v>44820</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -22895,7 +22895,7 @@
         <v>45917.45751157407</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -22952,7 +22952,7 @@
         <v>45919.34627314815</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23009,7 +23009,7 @@
         <v>45918</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23066,7 +23066,7 @@
         <v>45812.6565625</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23123,7 +23123,7 @@
         <v>44725</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23180,7 +23180,7 @@
         <v>45225.77278935185</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23237,7 +23237,7 @@
         <v>45919.34983796296</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23294,7 +23294,7 @@
         <v>45309.69809027778</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23351,7 +23351,7 @@
         <v>44516</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23408,7 +23408,7 @@
         <v>45832.43682870371</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23465,7 +23465,7 @@
         <v>45917.33334490741</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23522,7 +23522,7 @@
         <v>45923.53277777778</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23579,7 +23579,7 @@
         <v>45922</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23636,7 +23636,7 @@
         <v>45922.39582175926</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -23693,7 +23693,7 @@
         <v>45832.87938657407</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -23750,7 +23750,7 @@
         <v>45922</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -23807,7 +23807,7 @@
         <v>45629.63384259259</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -23864,7 +23864,7 @@
         <v>45923.44908564815</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -23921,7 +23921,7 @@
         <v>45923.43107638889</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -23978,7 +23978,7 @@
         <v>45923.37813657407</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24035,7 +24035,7 @@
         <v>45923.37575231482</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24092,7 +24092,7 @@
         <v>45923.44246527777</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24149,7 +24149,7 @@
         <v>45923.52947916667</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -24206,7 +24206,7 @@
         <v>45832.58216435185</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24263,7 +24263,7 @@
         <v>45308.40855324074</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24320,7 +24320,7 @@
         <v>45832</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24377,7 +24377,7 @@
         <v>45174</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24434,7 +24434,7 @@
         <v>45512.47371527777</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24491,7 +24491,7 @@
         <v>45443</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -24548,7 +24548,7 @@
         <v>45887.44877314815</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -24605,7 +24605,7 @@
         <v>45747.85570601852</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -24662,7 +24662,7 @@
         <v>45925</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -24719,7 +24719,7 @@
         <v>44523</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -24776,7 +24776,7 @@
         <v>45928</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -24833,7 +24833,7 @@
         <v>45929.38549768519</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -24890,7 +24890,7 @@
         <v>45929.73125</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -24947,7 +24947,7 @@
         <v>44638.56855324074</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25004,7 +25004,7 @@
         <v>45929.73858796297</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25061,7 +25061,7 @@
         <v>45929.74033564814</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25118,7 +25118,7 @@
         <v>45929.38221064815</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -25175,7 +25175,7 @@
         <v>45013.43306712963</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -25232,7 +25232,7 @@
         <v>45013.43763888889</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -25289,7 +25289,7 @@
         <v>45841</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25346,7 +25346,7 @@
         <v>45929.67434027778</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -25403,7 +25403,7 @@
         <v>45835.58707175926</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -25460,7 +25460,7 @@
         <v>45126</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -25517,7 +25517,7 @@
         <v>45361.81741898148</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -25574,7 +25574,7 @@
         <v>45576.86913194445</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -25631,7 +25631,7 @@
         <v>45930</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -25688,7 +25688,7 @@
         <v>45558</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -25745,7 +25745,7 @@
         <v>45839.70422453704</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -25802,7 +25802,7 @@
         <v>45839.706875</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -25859,7 +25859,7 @@
         <v>45930</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -25916,7 +25916,7 @@
         <v>45839</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -25978,7 +25978,7 @@
         <v>45838</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -26035,7 +26035,7 @@
         <v>45931</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -26092,7 +26092,7 @@
         <v>45931</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -26149,7 +26149,7 @@
         <v>45711</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -26206,7 +26206,7 @@
         <v>45162.56537037037</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -26263,7 +26263,7 @@
         <v>45256</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -26320,7 +26320,7 @@
         <v>44636</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -26377,7 +26377,7 @@
         <v>45342</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -26434,7 +26434,7 @@
         <v>44309</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -26491,7 +26491,7 @@
         <v>45707</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -26548,7 +26548,7 @@
         <v>45095.39417824074</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -26605,7 +26605,7 @@
         <v>45937</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -26662,7 +26662,7 @@
         <v>45526.70548611111</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -26719,7 +26719,7 @@
         <v>44860</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -26776,7 +26776,7 @@
         <v>45937</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -26833,7 +26833,7 @@
         <v>45937</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -26890,7 +26890,7 @@
         <v>45050</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -26947,7 +26947,7 @@
         <v>45104</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -27004,7 +27004,7 @@
         <v>45251.80711805556</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -27061,7 +27061,7 @@
         <v>45251</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -27118,7 +27118,7 @@
         <v>45316</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -27175,7 +27175,7 @@
         <v>45715.39251157407</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -27232,7 +27232,7 @@
         <v>45250.37905092593</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -27289,7 +27289,7 @@
         <v>45812.65798611111</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -27346,7 +27346,7 @@
         <v>45695.37408564815</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -27403,7 +27403,7 @@
         <v>45945.59504629629</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -27460,7 +27460,7 @@
         <v>45945.61509259259</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -27517,7 +27517,7 @@
         <v>45084</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -27574,7 +27574,7 @@
         <v>45945.60642361111</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -27631,7 +27631,7 @@
         <v>44474.8949537037</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -27688,7 +27688,7 @@
         <v>45645.3549537037</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -27745,7 +27745,7 @@
         <v>44461</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -27802,7 +27802,7 @@
         <v>45335</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -27859,7 +27859,7 @@
         <v>45847.65952546296</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -27916,7 +27916,7 @@
         <v>45847.5694212963</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -27973,7 +27973,7 @@
         <v>45947.5568287037</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -28030,7 +28030,7 @@
         <v>45334.6330787037</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -28087,7 +28087,7 @@
         <v>44354</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -28144,7 +28144,7 @@
         <v>45135.61125</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -28201,7 +28201,7 @@
         <v>45370.63612268519</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -28258,7 +28258,7 @@
         <v>45169.45913194444</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -28315,7 +28315,7 @@
         <v>45093.50841435185</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -28372,7 +28372,7 @@
         <v>45772</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -28429,7 +28429,7 @@
         <v>45133</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -28486,7 +28486,7 @@
         <v>45251.80934027778</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -28543,7 +28543,7 @@
         <v>45602.58842592593</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -28600,7 +28600,7 @@
         <v>45602.61121527778</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -28657,7 +28657,7 @@
         <v>45735.96366898148</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -28714,7 +28714,7 @@
         <v>44551.40351851852</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -28771,7 +28771,7 @@
         <v>45789.45869212963</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -28828,7 +28828,7 @@
         <v>45631</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -28885,7 +28885,7 @@
         <v>45334.63445601852</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -28942,7 +28942,7 @@
         <v>45358.64158564815</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -28999,7 +28999,7 @@
         <v>45133</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -29056,7 +29056,7 @@
         <v>45092.64113425926</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -29113,7 +29113,7 @@
         <v>44874</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -29170,7 +29170,7 @@
         <v>45957</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -29227,7 +29227,7 @@
         <v>45954.66997685185</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -29284,7 +29284,7 @@
         <v>45703.81983796296</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -29341,7 +29341,7 @@
         <v>45749</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -29398,7 +29398,7 @@
         <v>45873.57835648148</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -29455,7 +29455,7 @@
         <v>45957</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -29512,7 +29512,7 @@
         <v>45180.62233796297</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -29569,7 +29569,7 @@
         <v>45166</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -29626,7 +29626,7 @@
         <v>45166.49883101852</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -29683,7 +29683,7 @@
         <v>45958.46466435185</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -29740,7 +29740,7 @@
         <v>45958.481875</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -29797,7 +29797,7 @@
         <v>45210.40899305556</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -29854,7 +29854,7 @@
         <v>45958.47736111111</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -29911,7 +29911,7 @@
         <v>45958</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -29968,7 +29968,7 @@
         <v>45958</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -30025,7 +30025,7 @@
         <v>45647.38805555556</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -30082,7 +30082,7 @@
         <v>45958.47434027777</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -30139,7 +30139,7 @@
         <v>45415</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -30196,7 +30196,7 @@
         <v>45091</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -30253,7 +30253,7 @@
         <v>45875.60252314815</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -30310,7 +30310,7 @@
         <v>45156.6415162037</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -30367,7 +30367,7 @@
         <v>45875.66709490741</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -30424,7 +30424,7 @@
         <v>45875.61711805555</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -30481,7 +30481,7 @@
         <v>45875.60789351852</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -30538,7 +30538,7 @@
         <v>45958.42738425926</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -30595,7 +30595,7 @@
         <v>45012</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -30652,7 +30652,7 @@
         <v>45961</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -30709,7 +30709,7 @@
         <v>45159</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -30766,7 +30766,7 @@
         <v>45728.69217592593</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -30823,7 +30823,7 @@
         <v>45880</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -30880,7 +30880,7 @@
         <v>45961</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -30937,7 +30937,7 @@
         <v>45961</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -30994,7 +30994,7 @@
         <v>45961</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -31051,7 +31051,7 @@
         <v>45880</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -31108,7 +31108,7 @@
         <v>45350.39834490741</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -31165,7 +31165,7 @@
         <v>45035.43935185186</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -31222,7 +31222,7 @@
         <v>45035.44078703703</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -31279,7 +31279,7 @@
         <v>44742</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -31336,7 +31336,7 @@
         <v>45880</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -31393,7 +31393,7 @@
         <v>45967.6153587963</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -31450,7 +31450,7 @@
         <v>45343.56496527778</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -31507,7 +31507,7 @@
         <v>45938</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -31564,7 +31564,7 @@
         <v>45106.36304398148</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -31621,7 +31621,7 @@
         <v>44628</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -31678,7 +31678,7 @@
         <v>45092.68969907407</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -31735,7 +31735,7 @@
         <v>45089.43696759259</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -31792,7 +31792,7 @@
         <v>45089</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -31849,7 +31849,7 @@
         <v>45883.50537037037</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -31906,7 +31906,7 @@
         <v>45883.50228009259</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -31963,7 +31963,7 @@
         <v>45968.38364583333</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -32020,7 +32020,7 @@
         <v>45715.38833333334</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -32077,7 +32077,7 @@
         <v>44636.83194444444</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -32134,7 +32134,7 @@
         <v>45148</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -32191,7 +32191,7 @@
         <v>45972.83649305555</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -32248,7 +32248,7 @@
         <v>45971.94402777778</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -32305,7 +32305,7 @@
         <v>45971.94936342593</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -32362,7 +32362,7 @@
         <v>45973.66715277778</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -32419,7 +32419,7 @@
         <v>45245.50461805556</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -32476,7 +32476,7 @@
         <v>45106</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -32533,7 +32533,7 @@
         <v>45645.87954861111</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -32590,7 +32590,7 @@
         <v>45749.69665509259</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -32647,7 +32647,7 @@
         <v>45932</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -32704,7 +32704,7 @@
         <v>45932</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -32761,7 +32761,7 @@
         <v>45978.37158564815</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -32818,7 +32818,7 @@
         <v>45978.46636574074</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -32875,7 +32875,7 @@
         <v>45580.72222222222</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -32932,7 +32932,7 @@
         <v>45217</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -32989,7 +32989,7 @@
         <v>45713</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -33046,7 +33046,7 @@
         <v>45978.6052662037</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -33103,7 +33103,7 @@
         <v>45212</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -33160,7 +33160,7 @@
         <v>45631</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -33217,7 +33217,7 @@
         <v>45645.35019675926</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -33274,7 +33274,7 @@
         <v>45173.44273148148</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -33331,7 +33331,7 @@
         <v>45978</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -33388,7 +33388,7 @@
         <v>45579</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -33445,7 +33445,7 @@
         <v>45340</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -33502,7 +33502,7 @@
         <v>45981.5834375</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -33559,7 +33559,7 @@
         <v>45980.62664351852</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -33616,7 +33616,7 @@
         <v>44911</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -33673,7 +33673,7 @@
         <v>45981.59913194444</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -33730,7 +33730,7 @@
         <v>44285.43282407407</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -33787,7 +33787,7 @@
         <v>45013.44094907407</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -33844,7 +33844,7 @@
         <v>45981.47199074074</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -33901,7 +33901,7 @@
         <v>45538</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -33958,7 +33958,7 @@
         <v>45980.59621527778</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -34015,7 +34015,7 @@
         <v>45980.62510416667</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -34072,7 +34072,7 @@
         <v>45012</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -34129,7 +34129,7 @@
         <v>45727.53451388889</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -34186,7 +34186,7 @@
         <v>45407.61273148148</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -34243,7 +34243,7 @@
         <v>45735.7075462963</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -34300,7 +34300,7 @@
         <v>45982.47952546296</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -34357,7 +34357,7 @@
         <v>46027.61513888889</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -34414,7 +34414,7 @@
         <v>45985.56918981481</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -34471,7 +34471,7 @@
         <v>45985.56715277778</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -34528,7 +34528,7 @@
         <v>45495.63521990741</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -34585,7 +34585,7 @@
         <v>45982.4753125</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -34642,7 +34642,7 @@
         <v>44433</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -34699,7 +34699,7 @@
         <v>45118</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -34756,7 +34756,7 @@
         <v>45106.36086805556</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -34813,7 +34813,7 @@
         <v>46029.3747337963</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -34870,7 +34870,7 @@
         <v>45002.57140046296</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -34927,7 +34927,7 @@
         <v>44302</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -34984,7 +34984,7 @@
         <v>44936</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -35041,7 +35041,7 @@
         <v>44753</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -35098,7 +35098,7 @@
         <v>45194.39523148148</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -35155,7 +35155,7 @@
         <v>44862</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -35212,7 +35212,7 @@
         <v>45106.43407407407</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -35269,7 +35269,7 @@
         <v>45630.58119212963</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -35326,7 +35326,7 @@
         <v>46031.40931712963</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -35383,7 +35383,7 @@
         <v>46030</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -35440,7 +35440,7 @@
         <v>45587</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -35497,7 +35497,7 @@
         <v>45551.91032407407</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -35554,7 +35554,7 @@
         <v>45988.49774305556</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -35611,7 +35611,7 @@
         <v>45117</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -35668,7 +35668,7 @@
         <v>45168.89541666667</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -35725,7 +35725,7 @@
         <v>45351.67325231482</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -35782,7 +35782,7 @@
         <v>45846</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -35844,7 +35844,7 @@
         <v>45905</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -35906,7 +35906,7 @@
         <v>45903</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -35968,7 +35968,7 @@
         <v>45619.67202546296</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -36025,7 +36025,7 @@
         <v>45154.93615740741</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -36082,7 +36082,7 @@
         <v>44930</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -36139,7 +36139,7 @@
         <v>45910</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -36196,7 +36196,7 @@
         <v>45993.32045138889</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -36253,7 +36253,7 @@
         <v>44530.55888888889</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -36310,7 +36310,7 @@
         <v>45693</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -36367,7 +36367,7 @@
         <v>44473</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -36424,7 +36424,7 @@
         <v>45846</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -36486,7 +36486,7 @@
         <v>44295.58509259259</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -36543,7 +36543,7 @@
         <v>45993.32222222222</v>
       </c>
       <c r="C618" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -36600,7 +36600,7 @@
         <v>45994.6533912037</v>
       </c>
       <c r="C619" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -36657,7 +36657,7 @@
         <v>45537.91339120371</v>
       </c>
       <c r="C620" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -36714,7 +36714,7 @@
         <v>45012.60288194445</v>
       </c>
       <c r="C621" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -36771,7 +36771,7 @@
         <v>45995</v>
       </c>
       <c r="C622" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -36828,7 +36828,7 @@
         <v>44809.41969907407</v>
       </c>
       <c r="C623" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -36885,7 +36885,7 @@
         <v>45995</v>
       </c>
       <c r="C624" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -36942,7 +36942,7 @@
         <v>44756.55196759259</v>
       </c>
       <c r="C625" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -36999,7 +36999,7 @@
         <v>45077</v>
       </c>
       <c r="C626" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -37056,7 +37056,7 @@
         <v>44942</v>
       </c>
       <c r="C627" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -37113,7 +37113,7 @@
         <v>45604.4915625</v>
       </c>
       <c r="C628" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -37170,7 +37170,7 @@
         <v>45107.6715625</v>
       </c>
       <c r="C629" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -37227,7 +37227,7 @@
         <v>44728.67653935185</v>
       </c>
       <c r="C630" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -37284,7 +37284,7 @@
         <v>45695.37572916667</v>
       </c>
       <c r="C631" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -37341,7 +37341,7 @@
         <v>45469.37361111111</v>
       </c>
       <c r="C632" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -37398,7 +37398,7 @@
         <v>44323</v>
       </c>
       <c r="C633" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -37455,7 +37455,7 @@
         <v>45554</v>
       </c>
       <c r="C634" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -37512,7 +37512,7 @@
         <v>46037.80730324074</v>
       </c>
       <c r="C635" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D635" t="inlineStr">
         <is>
@@ -37569,7 +37569,7 @@
         <v>44981</v>
       </c>
       <c r="C636" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -37626,7 +37626,7 @@
         <v>45610.38868055555</v>
       </c>
       <c r="C637" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D637" t="inlineStr">
         <is>
@@ -37683,7 +37683,7 @@
         <v>46042</v>
       </c>
       <c r="C638" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D638" t="inlineStr">
         <is>
@@ -37740,7 +37740,7 @@
         <v>44596</v>
       </c>
       <c r="C639" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D639" t="inlineStr">
         <is>
@@ -37802,7 +37802,7 @@
         <v>46042.49659722222</v>
       </c>
       <c r="C640" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D640" t="inlineStr">
         <is>
@@ -37859,7 +37859,7 @@
         <v>46042</v>
       </c>
       <c r="C641" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D641" t="inlineStr">
         <is>
@@ -37916,7 +37916,7 @@
         <v>45610</v>
       </c>
       <c r="C642" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D642" t="inlineStr">
         <is>
@@ -37973,7 +37973,7 @@
         <v>44876.36309027778</v>
       </c>
       <c r="C643" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D643" t="inlineStr">
         <is>
@@ -38030,7 +38030,7 @@
         <v>45551</v>
       </c>
       <c r="C644" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D644" t="inlineStr">
         <is>
@@ -38087,7 +38087,7 @@
         <v>46000.59715277778</v>
       </c>
       <c r="C645" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D645" t="inlineStr">
         <is>
@@ -38144,7 +38144,7 @@
         <v>46002.35725694444</v>
       </c>
       <c r="C646" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D646" t="inlineStr">
         <is>
@@ -38201,7 +38201,7 @@
         <v>45127</v>
       </c>
       <c r="C647" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D647" t="inlineStr">
         <is>
@@ -38258,7 +38258,7 @@
         <v>45512</v>
       </c>
       <c r="C648" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D648" t="inlineStr">
         <is>
@@ -38315,7 +38315,7 @@
         <v>45166.6434375</v>
       </c>
       <c r="C649" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D649" t="inlineStr">
         <is>
@@ -38372,7 +38372,7 @@
         <v>44543</v>
       </c>
       <c r="C650" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D650" t="inlineStr">
         <is>
@@ -38429,7 +38429,7 @@
         <v>46002.36429398148</v>
       </c>
       <c r="C651" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D651" t="inlineStr">
         <is>
@@ -38486,7 +38486,7 @@
         <v>45261.4658449074</v>
       </c>
       <c r="C652" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D652" t="inlineStr">
         <is>
@@ -38543,7 +38543,7 @@
         <v>46002.36811342592</v>
       </c>
       <c r="C653" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D653" t="inlineStr">
         <is>
@@ -38600,7 +38600,7 @@
         <v>45366.65268518519</v>
       </c>
       <c r="C654" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D654" t="inlineStr">
         <is>
@@ -38657,7 +38657,7 @@
         <v>46042.54811342592</v>
       </c>
       <c r="C655" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D655" t="inlineStr">
         <is>
@@ -38714,7 +38714,7 @@
         <v>45202.53679398148</v>
       </c>
       <c r="C656" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D656" t="inlineStr">
         <is>
@@ -38771,7 +38771,7 @@
         <v>46048.60737268518</v>
       </c>
       <c r="C657" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D657" t="inlineStr">
         <is>
@@ -38828,7 +38828,7 @@
         <v>46048.64427083333</v>
       </c>
       <c r="C658" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D658" t="inlineStr">
         <is>
@@ -38885,7 +38885,7 @@
         <v>46049.59381944445</v>
       </c>
       <c r="C659" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D659" t="inlineStr">
         <is>
@@ -38942,7 +38942,7 @@
         <v>45075.52633101852</v>
       </c>
       <c r="C660" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D660" t="inlineStr">
         <is>
@@ -38999,7 +38999,7 @@
         <v>46048.64267361111</v>
       </c>
       <c r="C661" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D661" t="inlineStr">
         <is>
@@ -39056,7 +39056,7 @@
         <v>44930</v>
       </c>
       <c r="C662" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D662" t="inlineStr">
         <is>
@@ -39113,7 +39113,7 @@
         <v>46048.6109375</v>
       </c>
       <c r="C663" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D663" t="inlineStr">
         <is>
@@ -39170,7 +39170,7 @@
         <v>45013.82003472222</v>
       </c>
       <c r="C664" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D664" t="inlineStr">
         <is>
@@ -39227,7 +39227,7 @@
         <v>45720.43899305556</v>
       </c>
       <c r="C665" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D665" t="inlineStr">
         <is>
@@ -39284,7 +39284,7 @@
         <v>46007.87877314815</v>
       </c>
       <c r="C666" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D666" t="inlineStr">
         <is>
@@ -39341,7 +39341,7 @@
         <v>45082</v>
       </c>
       <c r="C667" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D667" t="inlineStr">
         <is>
@@ -39398,7 +39398,7 @@
         <v>45712.92822916667</v>
       </c>
       <c r="C668" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D668" t="inlineStr">
         <is>
@@ -39455,7 +39455,7 @@
         <v>45014.91954861111</v>
       </c>
       <c r="C669" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D669" t="inlineStr">
         <is>
@@ -39512,7 +39512,7 @@
         <v>45085</v>
       </c>
       <c r="C670" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D670" t="inlineStr">
         <is>
@@ -39569,7 +39569,7 @@
         <v>46007.89254629629</v>
       </c>
       <c r="C671" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D671" t="inlineStr">
         <is>
@@ -39626,7 +39626,7 @@
         <v>46007.88675925926</v>
       </c>
       <c r="C672" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D672" t="inlineStr">
         <is>
@@ -39683,7 +39683,7 @@
         <v>45107.66918981481</v>
       </c>
       <c r="C673" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D673" t="inlineStr">
         <is>
@@ -39740,7 +39740,7 @@
         <v>44614</v>
       </c>
       <c r="C674" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D674" t="inlineStr">
         <is>
@@ -39797,7 +39797,7 @@
         <v>45007.47481481481</v>
       </c>
       <c r="C675" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D675" t="inlineStr">
         <is>
@@ -39854,7 +39854,7 @@
         <v>45007.48090277778</v>
       </c>
       <c r="C676" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D676" t="inlineStr">
         <is>
@@ -39911,7 +39911,7 @@
         <v>45215.46303240741</v>
       </c>
       <c r="C677" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D677" t="inlineStr">
         <is>
@@ -39968,7 +39968,7 @@
         <v>46051</v>
       </c>
       <c r="C678" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D678" t="inlineStr">
         <is>
@@ -40025,7 +40025,7 @@
         <v>46051</v>
       </c>
       <c r="C679" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D679" t="inlineStr">
         <is>
@@ -40082,7 +40082,7 @@
         <v>45551</v>
       </c>
       <c r="C680" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D680" t="inlineStr">
         <is>
@@ -40139,7 +40139,7 @@
         <v>44691.62384259259</v>
       </c>
       <c r="C681" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D681" t="inlineStr">
         <is>
@@ -40196,7 +40196,7 @@
         <v>46051</v>
       </c>
       <c r="C682" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D682" t="inlineStr">
         <is>
@@ -40253,7 +40253,7 @@
         <v>45085</v>
       </c>
       <c r="C683" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D683" t="inlineStr">
         <is>
@@ -40310,7 +40310,7 @@
         <v>44799</v>
       </c>
       <c r="C684" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D684" t="inlineStr">
         <is>
@@ -40367,7 +40367,7 @@
         <v>46052.84638888889</v>
       </c>
       <c r="C685" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D685" t="inlineStr">
         <is>
@@ -40424,7 +40424,7 @@
         <v>44641.60950231482</v>
       </c>
       <c r="C686" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D686" t="inlineStr">
         <is>
@@ -40481,7 +40481,7 @@
         <v>44302</v>
       </c>
       <c r="C687" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D687" t="inlineStr">
         <is>
@@ -40538,7 +40538,7 @@
         <v>45077.43820601852</v>
       </c>
       <c r="C688" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D688" t="inlineStr">
         <is>
@@ -40595,7 +40595,7 @@
         <v>45537.91421296296</v>
       </c>
       <c r="C689" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D689" t="inlineStr">
         <is>
@@ -40652,7 +40652,7 @@
         <v>45538</v>
       </c>
       <c r="C690" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D690" t="inlineStr">
         <is>
@@ -40709,7 +40709,7 @@
         <v>45393.30091435185</v>
       </c>
       <c r="C691" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D691" t="inlineStr">
         <is>
@@ -40766,7 +40766,7 @@
         <v>45170.64689814814</v>
       </c>
       <c r="C692" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D692" t="inlineStr">
         <is>
@@ -40823,7 +40823,7 @@
         <v>44349</v>
       </c>
       <c r="C693" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D693" t="inlineStr">
         <is>
@@ -40880,7 +40880,7 @@
         <v>45166.65524305555</v>
       </c>
       <c r="C694" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D694" t="inlineStr">
         <is>
@@ -40937,7 +40937,7 @@
         <v>45251.55815972222</v>
       </c>
       <c r="C695" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D695" t="inlineStr">
         <is>
@@ -40994,7 +40994,7 @@
         <v>44631.65131944444</v>
       </c>
       <c r="C696" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D696" t="inlineStr">
         <is>
@@ -41051,7 +41051,7 @@
         <v>45463.42392361111</v>
       </c>
       <c r="C697" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D697" t="inlineStr">
         <is>
@@ -41108,7 +41108,7 @@
         <v>45463.42876157408</v>
       </c>
       <c r="C698" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D698" t="inlineStr">
         <is>
@@ -41165,7 +41165,7 @@
         <v>45766</v>
       </c>
       <c r="C699" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D699" t="inlineStr">
         <is>
@@ -41222,7 +41222,7 @@
         <v>45057</v>
       </c>
       <c r="C700" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D700" t="inlineStr">
         <is>
@@ -41279,7 +41279,7 @@
         <v>46056.46877314815</v>
       </c>
       <c r="C701" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D701" t="inlineStr">
         <is>
@@ -41336,7 +41336,7 @@
         <v>44754</v>
       </c>
       <c r="C702" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D702" t="inlineStr">
         <is>
@@ -41393,7 +41393,7 @@
         <v>45092</v>
       </c>
       <c r="C703" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D703" t="inlineStr">
         <is>
@@ -41450,7 +41450,7 @@
         <v>45009.46116898148</v>
       </c>
       <c r="C704" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D704" t="inlineStr">
         <is>
@@ -41507,7 +41507,7 @@
         <v>46058.50160879629</v>
       </c>
       <c r="C705" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D705" t="inlineStr">
         <is>
@@ -41564,7 +41564,7 @@
         <v>46056</v>
       </c>
       <c r="C706" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D706" t="inlineStr">
         <is>
@@ -41621,7 +41621,7 @@
         <v>45455.45792824074</v>
       </c>
       <c r="C707" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D707" t="inlineStr">
         <is>
@@ -41678,7 +41678,7 @@
         <v>45238</v>
       </c>
       <c r="C708" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D708" t="inlineStr">
         <is>
@@ -41735,7 +41735,7 @@
         <v>44511.57038194445</v>
       </c>
       <c r="C709" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D709" t="inlineStr">
         <is>
@@ -41792,7 +41792,7 @@
         <v>45775.63248842592</v>
       </c>
       <c r="C710" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D710" t="inlineStr">
         <is>
@@ -41849,7 +41849,7 @@
         <v>46059.78087962963</v>
       </c>
       <c r="C711" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D711" t="inlineStr">
         <is>
@@ -41906,7 +41906,7 @@
         <v>44580</v>
       </c>
       <c r="C712" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D712" t="inlineStr">
         <is>
@@ -41963,7 +41963,7 @@
         <v>45315.87924768519</v>
       </c>
       <c r="C713" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D713" t="inlineStr">
         <is>
@@ -42020,7 +42020,7 @@
         <v>45043.65984953703</v>
       </c>
       <c r="C714" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D714" t="inlineStr">
         <is>
@@ -42077,7 +42077,7 @@
         <v>45050</v>
       </c>
       <c r="C715" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D715" t="inlineStr">
         <is>
@@ -42134,7 +42134,7 @@
         <v>44284</v>
       </c>
       <c r="C716" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D716" t="inlineStr">
         <is>
@@ -42191,7 +42191,7 @@
         <v>45266.39803240741</v>
       </c>
       <c r="C717" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D717" t="inlineStr">
         <is>
@@ -42248,7 +42248,7 @@
         <v>45113.47337962963</v>
       </c>
       <c r="C718" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D718" t="inlineStr">
         <is>
@@ -42305,7 +42305,7 @@
         <v>44881</v>
       </c>
       <c r="C719" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D719" t="inlineStr">
         <is>
@@ -42362,7 +42362,7 @@
         <v>44920</v>
       </c>
       <c r="C720" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D720" t="inlineStr">
         <is>
@@ -42419,7 +42419,7 @@
         <v>45756.60348379629</v>
       </c>
       <c r="C721" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D721" t="inlineStr">
         <is>
@@ -42476,7 +42476,7 @@
         <v>45756.60971064815</v>
       </c>
       <c r="C722" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D722" t="inlineStr">
         <is>
@@ -42533,7 +42533,7 @@
         <v>45055</v>
       </c>
       <c r="C723" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D723" t="inlineStr">
         <is>
@@ -42590,7 +42590,7 @@
         <v>44545.89236111111</v>
       </c>
       <c r="C724" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D724" t="inlineStr">
         <is>
@@ -42647,7 +42647,7 @@
         <v>44988</v>
       </c>
       <c r="C725" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D725" t="inlineStr">
         <is>
@@ -42704,7 +42704,7 @@
         <v>44960.28089120371</v>
       </c>
       <c r="C726" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D726" t="inlineStr">
         <is>
@@ -42761,7 +42761,7 @@
         <v>45722</v>
       </c>
       <c r="C727" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D727" t="inlineStr">
         <is>
@@ -42818,7 +42818,7 @@
         <v>44441</v>
       </c>
       <c r="C728" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D728" t="inlineStr">
         <is>
@@ -42875,7 +42875,7 @@
         <v>45279.34813657407</v>
       </c>
       <c r="C729" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D729" t="inlineStr">
         <is>
@@ -42932,7 +42932,7 @@
         <v>45387.88914351852</v>
       </c>
       <c r="C730" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D730" t="inlineStr">
         <is>
@@ -42989,7 +42989,7 @@
         <v>45387.37787037037</v>
       </c>
       <c r="C731" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D731" t="inlineStr">
         <is>
@@ -43046,7 +43046,7 @@
         <v>45080</v>
       </c>
       <c r="C732" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D732" t="inlineStr">
         <is>
@@ -43103,7 +43103,7 @@
         <v>45238.3500462963</v>
       </c>
       <c r="C733" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D733" t="inlineStr">
         <is>
@@ -43160,7 +43160,7 @@
         <v>45247</v>
       </c>
       <c r="C734" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D734" t="inlineStr">
         <is>
@@ -43217,7 +43217,7 @@
         <v>45243.34587962963</v>
       </c>
       <c r="C735" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D735" t="inlineStr">
         <is>
@@ -43274,7 +43274,7 @@
         <v>44435</v>
       </c>
       <c r="C736" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D736" t="inlineStr">
         <is>
@@ -43331,7 +43331,7 @@
         <v>45105.41936342593</v>
       </c>
       <c r="C737" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D737" t="inlineStr">
         <is>
@@ -43388,7 +43388,7 @@
         <v>45106.3509837963</v>
       </c>
       <c r="C738" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D738" t="inlineStr">
         <is>
@@ -43445,7 +43445,7 @@
         <v>45499</v>
       </c>
       <c r="C739" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D739" t="inlineStr">
         <is>
@@ -43502,7 +43502,7 @@
         <v>45165.53146990741</v>
       </c>
       <c r="C740" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D740" t="inlineStr">
         <is>
@@ -43559,7 +43559,7 @@
         <v>45524</v>
       </c>
       <c r="C741" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D741" t="inlineStr">
         <is>
@@ -43616,7 +43616,7 @@
         <v>45218.41484953704</v>
       </c>
       <c r="C742" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D742" t="inlineStr">
         <is>
@@ -43673,7 +43673,7 @@
         <v>44866</v>
       </c>
       <c r="C743" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D743" t="inlineStr">
         <is>
@@ -43730,7 +43730,7 @@
         <v>44305</v>
       </c>
       <c r="C744" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D744" t="inlineStr">
         <is>
@@ -43787,7 +43787,7 @@
         <v>45264</v>
       </c>
       <c r="C745" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D745" t="inlineStr">
         <is>
@@ -43844,7 +43844,7 @@
         <v>45188.45027777777</v>
       </c>
       <c r="C746" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D746" t="inlineStr">
         <is>
@@ -43901,7 +43901,7 @@
         <v>45093</v>
       </c>
       <c r="C747" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D747" t="inlineStr">
         <is>
@@ -43958,7 +43958,7 @@
         <v>45664.61273148148</v>
       </c>
       <c r="C748" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D748" t="inlineStr">
         <is>
@@ -44015,7 +44015,7 @@
         <v>44235</v>
       </c>
       <c r="C749" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D749" t="inlineStr">
         <is>
@@ -44072,7 +44072,7 @@
         <v>45113.47484953704</v>
       </c>
       <c r="C750" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D750" t="inlineStr">
         <is>
@@ -44129,7 +44129,7 @@
         <v>44914.59365740741</v>
       </c>
       <c r="C751" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D751" t="inlineStr">
         <is>
@@ -44186,7 +44186,7 @@
         <v>45321.65413194444</v>
       </c>
       <c r="C752" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D752" t="inlineStr">
         <is>
@@ -44243,7 +44243,7 @@
         <v>45127.48940972222</v>
       </c>
       <c r="C753" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D753" t="inlineStr">
         <is>
@@ -44300,7 +44300,7 @@
         <v>45238</v>
       </c>
       <c r="C754" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D754" t="inlineStr">
         <is>
@@ -44357,7 +44357,7 @@
         <v>45334.4565162037</v>
       </c>
       <c r="C755" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D755" t="inlineStr">
         <is>
@@ -44414,7 +44414,7 @@
         <v>45699.59120370371</v>
       </c>
       <c r="C756" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D756" t="inlineStr">
         <is>
@@ -44471,7 +44471,7 @@
         <v>45662</v>
       </c>
       <c r="C757" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D757" t="inlineStr">
         <is>
@@ -44528,7 +44528,7 @@
         <v>45631</v>
       </c>
       <c r="C758" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D758" t="inlineStr">
         <is>
@@ -44585,7 +44585,7 @@
         <v>45531.4630787037</v>
       </c>
       <c r="C759" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D759" t="inlineStr">
         <is>
@@ -44642,7 +44642,7 @@
         <v>44991.60873842592</v>
       </c>
       <c r="C760" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D760" t="inlineStr">
         <is>
@@ -44699,7 +44699,7 @@
         <v>44624</v>
       </c>
       <c r="C761" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D761" t="inlineStr">
         <is>
@@ -44756,7 +44756,7 @@
         <v>44939</v>
       </c>
       <c r="C762" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D762" t="inlineStr">
         <is>
@@ -44813,7 +44813,7 @@
         <v>44939.68549768518</v>
       </c>
       <c r="C763" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D763" t="inlineStr">
         <is>
@@ -44870,7 +44870,7 @@
         <v>45393.86842592592</v>
       </c>
       <c r="C764" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D764" t="inlineStr">
         <is>
@@ -44927,7 +44927,7 @@
         <v>45278.72490740741</v>
       </c>
       <c r="C765" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D765" t="inlineStr">
         <is>
@@ -44984,7 +44984,7 @@
         <v>45204.62678240741</v>
       </c>
       <c r="C766" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D766" t="inlineStr">
         <is>
@@ -45041,7 +45041,7 @@
         <v>45698.47751157408</v>
       </c>
       <c r="C767" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D767" t="inlineStr">
         <is>
@@ -45098,7 +45098,7 @@
         <v>45178</v>
       </c>
       <c r="C768" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D768" t="inlineStr">
         <is>
@@ -45155,7 +45155,7 @@
         <v>44585.33765046296</v>
       </c>
       <c r="C769" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D769" t="inlineStr">
         <is>
@@ -45212,7 +45212,7 @@
         <v>45062.38054398148</v>
       </c>
       <c r="C770" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D770" t="inlineStr">
         <is>
@@ -45269,7 +45269,7 @@
         <v>44893</v>
       </c>
       <c r="C771" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D771" t="inlineStr">
         <is>
@@ -45326,7 +45326,7 @@
         <v>45394.58707175926</v>
       </c>
       <c r="C772" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D772" t="inlineStr">
         <is>
@@ -45383,7 +45383,7 @@
         <v>45344.35084490741</v>
       </c>
       <c r="C773" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D773" t="inlineStr">
         <is>
@@ -45440,7 +45440,7 @@
         <v>44973.29771990741</v>
       </c>
       <c r="C774" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D774" t="inlineStr">
         <is>
@@ -45497,7 +45497,7 @@
         <v>44820</v>
       </c>
       <c r="C775" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D775" t="inlineStr">
         <is>
@@ -45554,7 +45554,7 @@
         <v>45673.28958333333</v>
       </c>
       <c r="C776" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D776" t="inlineStr">
         <is>
@@ -45611,7 +45611,7 @@
         <v>45309.44398148148</v>
       </c>
       <c r="C777" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D777" t="inlineStr">
         <is>
@@ -45668,7 +45668,7 @@
         <v>45142</v>
       </c>
       <c r="C778" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D778" t="inlineStr">
         <is>
@@ -45725,7 +45725,7 @@
         <v>44840.58092592593</v>
       </c>
       <c r="C779" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D779" t="inlineStr">
         <is>
@@ -45782,7 +45782,7 @@
         <v>45577.29355324074</v>
       </c>
       <c r="C780" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D780" t="inlineStr">
         <is>
@@ -45839,7 +45839,7 @@
         <v>45094</v>
       </c>
       <c r="C781" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D781" t="inlineStr">
         <is>
@@ -45896,7 +45896,7 @@
         <v>45208.83212962963</v>
       </c>
       <c r="C782" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D782" t="inlineStr">
         <is>
@@ -45953,7 +45953,7 @@
         <v>45393.30375</v>
       </c>
       <c r="C783" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D783" t="inlineStr">
         <is>
@@ -46010,7 +46010,7 @@
         <v>45161.47722222222</v>
       </c>
       <c r="C784" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D784" t="inlineStr">
         <is>
@@ -46067,7 +46067,7 @@
         <v>45531.94460648148</v>
       </c>
       <c r="C785" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D785" t="inlineStr">
         <is>
@@ -46124,7 +46124,7 @@
         <v>45140</v>
       </c>
       <c r="C786" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D786" t="inlineStr">
         <is>
@@ -46181,7 +46181,7 @@
         <v>45344.29208333333</v>
       </c>
       <c r="C787" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D787" t="inlineStr">
         <is>
@@ -46238,7 +46238,7 @@
         <v>45524.35208333333</v>
       </c>
       <c r="C788" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D788" t="inlineStr">
         <is>
@@ -46295,7 +46295,7 @@
         <v>45218.49332175926</v>
       </c>
       <c r="C789" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D789" t="inlineStr">
         <is>
@@ -46352,7 +46352,7 @@
         <v>44757.34600694444</v>
       </c>
       <c r="C790" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D790" t="inlineStr">
         <is>
@@ -46409,7 +46409,7 @@
         <v>44619</v>
       </c>
       <c r="C791" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D791" t="inlineStr">
         <is>
@@ -46466,7 +46466,7 @@
         <v>45195.77855324074</v>
       </c>
       <c r="C792" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D792" t="inlineStr">
         <is>
@@ -46523,7 +46523,7 @@
         <v>45180</v>
       </c>
       <c r="C793" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D793" t="inlineStr">
         <is>
@@ -46580,7 +46580,7 @@
         <v>45736.44543981482</v>
       </c>
       <c r="C794" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D794" t="inlineStr">
         <is>
@@ -46637,7 +46637,7 @@
         <v>45637.38047453704</v>
       </c>
       <c r="C795" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D795" t="inlineStr">
         <is>
@@ -46694,7 +46694,7 @@
         <v>45181</v>
       </c>
       <c r="C796" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D796" t="inlineStr">
         <is>
@@ -46751,7 +46751,7 @@
         <v>44825.97048611111</v>
       </c>
       <c r="C797" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D797" t="inlineStr">
         <is>
@@ -46808,7 +46808,7 @@
         <v>44445.65237268519</v>
       </c>
       <c r="C798" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D798" t="inlineStr">
         <is>
@@ -46865,7 +46865,7 @@
         <v>45309.69259259259</v>
       </c>
       <c r="C799" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D799" t="inlineStr">
         <is>
@@ -46922,7 +46922,7 @@
         <v>45182.43038194445</v>
       </c>
       <c r="C800" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D800" t="inlineStr">
         <is>
@@ -46979,7 +46979,7 @@
         <v>45747.50460648148</v>
       </c>
       <c r="C801" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D801" t="inlineStr">
         <is>
@@ -47036,7 +47036,7 @@
         <v>45090.87483796296</v>
       </c>
       <c r="C802" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D802" t="inlineStr">
         <is>
@@ -47093,7 +47093,7 @@
         <v>45324</v>
       </c>
       <c r="C803" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D803" t="inlineStr">
         <is>
@@ -47150,7 +47150,7 @@
         <v>45223.50019675926</v>
       </c>
       <c r="C804" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D804" t="inlineStr">
         <is>
@@ -47207,7 +47207,7 @@
         <v>45170</v>
       </c>
       <c r="C805" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D805" t="inlineStr">
         <is>
@@ -47264,7 +47264,7 @@
         <v>45042</v>
       </c>
       <c r="C806" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D806" t="inlineStr">
         <is>
@@ -47321,7 +47321,7 @@
         <v>45406.73519675926</v>
       </c>
       <c r="C807" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D807" t="inlineStr">
         <is>
@@ -47378,7 +47378,7 @@
         <v>45162</v>
       </c>
       <c r="C808" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D808" t="inlineStr">
         <is>
@@ -47435,7 +47435,7 @@
         <v>44893.475</v>
       </c>
       <c r="C809" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D809" t="inlineStr">
         <is>
@@ -47492,7 +47492,7 @@
         <v>45602</v>
       </c>
       <c r="C810" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D810" t="inlineStr">
         <is>
@@ -47549,7 +47549,7 @@
         <v>45092</v>
       </c>
       <c r="C811" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D811" t="inlineStr">
         <is>
@@ -47606,7 +47606,7 @@
         <v>45085</v>
       </c>
       <c r="C812" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D812" t="inlineStr">
         <is>
@@ -47663,7 +47663,7 @@
         <v>44930.78150462963</v>
       </c>
       <c r="C813" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D813" t="inlineStr">
         <is>
@@ -47720,7 +47720,7 @@
         <v>45624.45537037037</v>
       </c>
       <c r="C814" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D814" t="inlineStr">
         <is>
@@ -47777,7 +47777,7 @@
         <v>44461</v>
       </c>
       <c r="C815" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D815" t="inlineStr">
         <is>
@@ -47834,7 +47834,7 @@
         <v>45092</v>
       </c>
       <c r="C816" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D816" t="inlineStr">
         <is>
@@ -47891,7 +47891,7 @@
         <v>45454.72009259259</v>
       </c>
       <c r="C817" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D817" t="inlineStr">
         <is>
@@ -47948,7 +47948,7 @@
         <v>45169.6147337963</v>
       </c>
       <c r="C818" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D818" t="inlineStr">
         <is>
@@ -48005,7 +48005,7 @@
         <v>45573.72731481482</v>
       </c>
       <c r="C819" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D819" t="inlineStr">
         <is>
@@ -48062,7 +48062,7 @@
         <v>45761</v>
       </c>
       <c r="C820" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D820" t="inlineStr">
         <is>
@@ -48119,7 +48119,7 @@
         <v>44517</v>
       </c>
       <c r="C821" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D821" t="inlineStr">
         <is>
@@ -48176,7 +48176,7 @@
         <v>45027</v>
       </c>
       <c r="C822" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D822" t="inlineStr">
         <is>
@@ -48233,7 +48233,7 @@
         <v>45194.60591435185</v>
       </c>
       <c r="C823" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D823" t="inlineStr">
         <is>
@@ -48290,7 +48290,7 @@
         <v>44235</v>
       </c>
       <c r="C824" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D824" t="inlineStr">
         <is>
@@ -48347,7 +48347,7 @@
         <v>45309.69599537037</v>
       </c>
       <c r="C825" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D825" t="inlineStr">
         <is>
@@ -48404,7 +48404,7 @@
         <v>44700</v>
       </c>
       <c r="C826" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D826" t="inlineStr">
         <is>
@@ -48461,7 +48461,7 @@
         <v>45674.37722222223</v>
       </c>
       <c r="C827" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D827" t="inlineStr">
         <is>
@@ -48518,7 +48518,7 @@
         <v>45744</v>
       </c>
       <c r="C828" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D828" t="inlineStr">
         <is>
@@ -48575,7 +48575,7 @@
         <v>45183</v>
       </c>
       <c r="C829" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D829" t="inlineStr">
         <is>
@@ -48632,7 +48632,7 @@
         <v>44603.56049768518</v>
       </c>
       <c r="C830" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D830" t="inlineStr">
         <is>
@@ -48689,7 +48689,7 @@
         <v>45225.8025</v>
       </c>
       <c r="C831" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D831" t="inlineStr">
         <is>
@@ -48746,7 +48746,7 @@
         <v>45393.66436342592</v>
       </c>
       <c r="C832" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D832" t="inlineStr">
         <is>
@@ -48803,7 +48803,7 @@
         <v>44616</v>
       </c>
       <c r="C833" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D833" t="inlineStr">
         <is>
@@ -48860,7 +48860,7 @@
         <v>45174.49248842592</v>
       </c>
       <c r="C834" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D834" t="inlineStr">
         <is>
@@ -48917,7 +48917,7 @@
         <v>45070</v>
       </c>
       <c r="C835" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D835" t="inlineStr">
         <is>
@@ -48974,7 +48974,7 @@
         <v>45037</v>
       </c>
       <c r="C836" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D836" t="inlineStr">
         <is>
@@ -49031,7 +49031,7 @@
         <v>45092</v>
       </c>
       <c r="C837" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D837" t="inlineStr">
         <is>
@@ -49088,7 +49088,7 @@
         <v>44909</v>
       </c>
       <c r="C838" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D838" t="inlineStr">
         <is>
@@ -49145,7 +49145,7 @@
         <v>45076.50148148148</v>
       </c>
       <c r="C839" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D839" t="inlineStr">
         <is>
@@ -49202,7 +49202,7 @@
         <v>44900.59222222222</v>
       </c>
       <c r="C840" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D840" t="inlineStr">
         <is>
@@ -49259,7 +49259,7 @@
         <v>45266</v>
       </c>
       <c r="C841" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D841" t="inlineStr">
         <is>
@@ -49316,7 +49316,7 @@
         <v>45571.82802083333</v>
       </c>
       <c r="C842" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D842" t="inlineStr">
         <is>
@@ -49373,7 +49373,7 @@
         <v>45565.79476851852</v>
       </c>
       <c r="C843" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D843" t="inlineStr">
         <is>
@@ -49430,7 +49430,7 @@
         <v>44722.55038194444</v>
       </c>
       <c r="C844" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D844" t="inlineStr">
         <is>
@@ -49487,7 +49487,7 @@
         <v>44903.44068287037</v>
       </c>
       <c r="C845" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D845" t="inlineStr">
         <is>
@@ -49544,7 +49544,7 @@
         <v>45154.94172453704</v>
       </c>
       <c r="C846" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D846" t="inlineStr">
         <is>
@@ -49601,7 +49601,7 @@
         <v>44711.57103009259</v>
       </c>
       <c r="C847" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D847" t="inlineStr">
         <is>
@@ -49658,7 +49658,7 @@
         <v>44693</v>
       </c>
       <c r="C848" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D848" t="inlineStr">
         <is>
@@ -49715,7 +49715,7 @@
         <v>44581.97131944444</v>
       </c>
       <c r="C849" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D849" t="inlineStr">
         <is>
@@ -49772,7 +49772,7 @@
         <v>45075.43681712963</v>
       </c>
       <c r="C850" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D850" t="inlineStr">
         <is>
@@ -49829,7 +49829,7 @@
         <v>45616.35783564814</v>
       </c>
       <c r="C851" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D851" t="inlineStr">
         <is>
@@ -49886,7 +49886,7 @@
         <v>45062.38267361111</v>
       </c>
       <c r="C852" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D852" t="inlineStr">
         <is>
@@ -49943,7 +49943,7 @@
         <v>45113</v>
       </c>
       <c r="C853" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D853" t="inlineStr">
         <is>
@@ -50000,7 +50000,7 @@
         <v>45672.66238425926</v>
       </c>
       <c r="C854" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D854" t="inlineStr">
         <is>
@@ -50057,7 +50057,7 @@
         <v>45301</v>
       </c>
       <c r="C855" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D855" t="inlineStr">
         <is>
@@ -50114,7 +50114,7 @@
         <v>44281</v>
       </c>
       <c r="C856" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D856" t="inlineStr">
         <is>
@@ -50171,7 +50171,7 @@
         <v>45030</v>
       </c>
       <c r="C857" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D857" t="inlineStr">
         <is>
@@ -50228,7 +50228,7 @@
         <v>45348.55489583333</v>
       </c>
       <c r="C858" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D858" t="inlineStr">
         <is>
@@ -50285,7 +50285,7 @@
         <v>44748</v>
       </c>
       <c r="C859" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D859" t="inlineStr">
         <is>
@@ -50342,7 +50342,7 @@
         <v>45775.59717592593</v>
       </c>
       <c r="C860" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D860" t="inlineStr">
         <is>
@@ -50399,7 +50399,7 @@
         <v>45048</v>
       </c>
       <c r="C861" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D861" t="inlineStr">
         <is>
@@ -50456,7 +50456,7 @@
         <v>45028.56200231481</v>
       </c>
       <c r="C862" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D862" t="inlineStr">
         <is>
@@ -50513,7 +50513,7 @@
         <v>45075</v>
       </c>
       <c r="C863" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D863" t="inlineStr">
         <is>
@@ -50570,7 +50570,7 @@
         <v>45604.45568287037</v>
       </c>
       <c r="C864" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D864" t="inlineStr">
         <is>
@@ -50627,7 +50627,7 @@
         <v>45625</v>
       </c>
       <c r="C865" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D865" t="inlineStr">
         <is>
@@ -50684,7 +50684,7 @@
         <v>45495.64009259259</v>
       </c>
       <c r="C866" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D866" t="inlineStr">
         <is>
@@ -50741,7 +50741,7 @@
         <v>45075.44275462963</v>
       </c>
       <c r="C867" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D867" t="inlineStr">
         <is>
@@ -50798,7 +50798,7 @@
         <v>45538</v>
       </c>
       <c r="C868" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D868" t="inlineStr">
         <is>
@@ -50855,7 +50855,7 @@
         <v>45594</v>
       </c>
       <c r="C869" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D869" t="inlineStr">
         <is>
@@ -50912,7 +50912,7 @@
         <v>45555.36652777778</v>
       </c>
       <c r="C870" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D870" t="inlineStr">
         <is>
@@ -50969,7 +50969,7 @@
         <v>45344.695</v>
       </c>
       <c r="C871" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D871" t="inlineStr">
         <is>
@@ -51031,7 +51031,7 @@
         <v>45499</v>
       </c>
       <c r="C872" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D872" t="inlineStr">
         <is>
@@ -51088,7 +51088,7 @@
         <v>45372.46738425926</v>
       </c>
       <c r="C873" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D873" t="inlineStr">
         <is>
@@ -51145,7 +51145,7 @@
         <v>45573.91842592593</v>
       </c>
       <c r="C874" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D874" t="inlineStr">
         <is>
@@ -51202,7 +51202,7 @@
         <v>45621</v>
       </c>
       <c r="C875" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D875" t="inlineStr">
         <is>
@@ -51259,7 +51259,7 @@
         <v>44398</v>
       </c>
       <c r="C876" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D876" t="inlineStr">
         <is>
@@ -51316,7 +51316,7 @@
         <v>45782</v>
       </c>
       <c r="C877" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D877" t="inlineStr">
         <is>
@@ -51373,7 +51373,7 @@
         <v>45783.29873842592</v>
       </c>
       <c r="C878" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D878" t="inlineStr">
         <is>
@@ -51430,7 +51430,7 @@
         <v>45783.38400462963</v>
       </c>
       <c r="C879" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D879" t="inlineStr">
         <is>
@@ -51487,7 +51487,7 @@
         <v>45783.43942129629</v>
       </c>
       <c r="C880" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D880" t="inlineStr">
         <is>
@@ -51544,7 +51544,7 @@
         <v>45387.90001157407</v>
       </c>
       <c r="C881" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D881" t="inlineStr">
         <is>
@@ -51601,7 +51601,7 @@
         <v>45784.28789351852</v>
       </c>
       <c r="C882" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D882" t="inlineStr">
         <is>
@@ -51658,7 +51658,7 @@
         <v>45784.29160879629</v>
       </c>
       <c r="C883" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D883" t="inlineStr">
         <is>
@@ -51715,7 +51715,7 @@
         <v>45624.8330324074</v>
       </c>
       <c r="C884" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D884" t="inlineStr">
         <is>
@@ -51772,7 +51772,7 @@
         <v>45784.5990625</v>
       </c>
       <c r="C885" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D885" t="inlineStr">
         <is>
@@ -51829,7 +51829,7 @@
         <v>45784.60247685185</v>
       </c>
       <c r="C886" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D886" t="inlineStr">
         <is>
@@ -51886,7 +51886,7 @@
         <v>45784.28640046297</v>
       </c>
       <c r="C887" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D887" t="inlineStr">
         <is>
@@ -51943,7 +51943,7 @@
         <v>45674.37980324074</v>
       </c>
       <c r="C888" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D888" t="inlineStr">
         <is>
@@ -52000,7 +52000,7 @@
         <v>45714.8555324074</v>
       </c>
       <c r="C889" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D889" t="inlineStr">
         <is>
@@ -52057,7 +52057,7 @@
         <v>45631.39092592592</v>
       </c>
       <c r="C890" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D890" t="inlineStr">
         <is>
@@ -52114,7 +52114,7 @@
         <v>45785.77976851852</v>
       </c>
       <c r="C891" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D891" t="inlineStr">
         <is>
@@ -52171,7 +52171,7 @@
         <v>45789.66337962963</v>
       </c>
       <c r="C892" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D892" t="inlineStr">
         <is>
@@ -52228,7 +52228,7 @@
         <v>44496</v>
       </c>
       <c r="C893" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D893" t="inlineStr">
         <is>
@@ -52285,7 +52285,7 @@
         <v>45656.2784375</v>
       </c>
       <c r="C894" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D894" t="inlineStr">
         <is>
@@ -52342,7 +52342,7 @@
         <v>45453</v>
       </c>
       <c r="C895" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D895" t="inlineStr">
         <is>
@@ -52399,7 +52399,7 @@
         <v>45754.36746527778</v>
       </c>
       <c r="C896" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D896" t="inlineStr">
         <is>
@@ -52456,7 +52456,7 @@
         <v>45475</v>
       </c>
       <c r="C897" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D897" t="inlineStr">
         <is>
@@ -52513,7 +52513,7 @@
         <v>45691.70079861111</v>
       </c>
       <c r="C898" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D898" t="inlineStr">
         <is>
@@ -52570,7 +52570,7 @@
         <v>45532.43490740741</v>
       </c>
       <c r="C899" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D899" t="inlineStr">
         <is>
@@ -52627,7 +52627,7 @@
         <v>45384.68908564815</v>
       </c>
       <c r="C900" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D900" t="inlineStr">
         <is>
@@ -52684,7 +52684,7 @@
         <v>45540.63275462963</v>
       </c>
       <c r="C901" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D901" t="inlineStr">
         <is>
@@ -52741,7 +52741,7 @@
         <v>45790.36726851852</v>
       </c>
       <c r="C902" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D902" t="inlineStr">
         <is>
@@ -52798,7 +52798,7 @@
         <v>45358</v>
       </c>
       <c r="C903" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D903" t="inlineStr">
         <is>
@@ -52855,7 +52855,7 @@
         <v>44559</v>
       </c>
       <c r="C904" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D904" t="inlineStr">
         <is>
@@ -52912,7 +52912,7 @@
         <v>45796.37314814814</v>
       </c>
       <c r="C905" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D905" t="inlineStr">
         <is>
@@ -52969,7 +52969,7 @@
         <v>45797.42636574074</v>
       </c>
       <c r="C906" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D906" t="inlineStr">
         <is>
@@ -53026,7 +53026,7 @@
         <v>45797.42967592592</v>
       </c>
       <c r="C907" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D907" t="inlineStr">
         <is>
@@ -53083,7 +53083,7 @@
         <v>45796.47753472222</v>
       </c>
       <c r="C908" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D908" t="inlineStr">
         <is>
@@ -53140,7 +53140,7 @@
         <v>45797.43391203704</v>
       </c>
       <c r="C909" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D909" t="inlineStr">
         <is>

--- a/Översikt KARLSKRONA.xlsx
+++ b/Översikt KARLSKRONA.xlsx
@@ -575,7 +575,7 @@
         <v>45923</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -672,7 +672,7 @@
         <v>45832</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -762,7 +762,7 @@
         <v>45911</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -851,7 +851,7 @@
         <v>45999</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -944,7 +944,7 @@
         <v>45999</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1036,7 +1036,7 @@
         <v>44509</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1123,7 +1123,7 @@
         <v>45918</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1210,7 +1210,7 @@
         <v>45905</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1302,7 +1302,7 @@
         <v>44960</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1389,7 +1389,7 @@
         <v>45826.50638888889</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1475,7 +1475,7 @@
         <v>45924.48732638889</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1561,7 +1561,7 @@
         <v>45901</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1652,7 +1652,7 @@
         <v>45037</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1743,7 +1743,7 @@
         <v>45603.46306712963</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1829,7 +1829,7 @@
         <v>44531</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1914,7 +1914,7 @@
         <v>44467</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1999,7 +1999,7 @@
         <v>45002.64284722223</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2084,7 +2084,7 @@
         <v>44237</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2169,7 +2169,7 @@
         <v>45050</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2254,7 +2254,7 @@
         <v>45826.49623842593</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2339,7 +2339,7 @@
         <v>45809</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2424,7 +2424,7 @@
         <v>44445</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2509,7 +2509,7 @@
         <v>45110.59303240741</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2594,7 +2594,7 @@
         <v>45337</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2679,7 +2679,7 @@
         <v>46055</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2768,7 +2768,7 @@
         <v>45579.41793981481</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2853,7 +2853,7 @@
         <v>44279.88631944444</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2910,7 +2910,7 @@
         <v>44245.49747685185</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2967,7 +2967,7 @@
         <v>44242.35074074074</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3024,7 +3024,7 @@
         <v>44249.57096064815</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3081,7 +3081,7 @@
         <v>44356</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3138,7 +3138,7 @@
         <v>44273</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3195,7 +3195,7 @@
         <v>44279</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3252,7 +3252,7 @@
         <v>44574.53206018519</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3309,7 +3309,7 @@
         <v>44368.68505787037</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3366,7 +3366,7 @@
         <v>44572</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3423,7 +3423,7 @@
         <v>44551</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3480,7 +3480,7 @@
         <v>44869.37805555556</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3537,7 +3537,7 @@
         <v>44432.52225694444</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3594,7 +3594,7 @@
         <v>44342</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3651,7 +3651,7 @@
         <v>44342</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3708,7 +3708,7 @@
         <v>44285</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3765,7 +3765,7 @@
         <v>44284</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3822,7 +3822,7 @@
         <v>44585</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3879,7 +3879,7 @@
         <v>44600</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3936,7 +3936,7 @@
         <v>44468</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3993,7 +3993,7 @@
         <v>44585</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4050,7 +4050,7 @@
         <v>44687</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4107,7 +4107,7 @@
         <v>44273.4187962963</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4164,7 +4164,7 @@
         <v>44670</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4221,7 +4221,7 @@
         <v>44830.46083333333</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4278,7 +4278,7 @@
         <v>44875.43988425926</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4335,7 +4335,7 @@
         <v>44875.4530787037</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4392,7 +4392,7 @@
         <v>44458</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4449,7 +4449,7 @@
         <v>44483.831875</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4506,7 +4506,7 @@
         <v>44325</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4563,7 +4563,7 @@
         <v>44350.5575925926</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4620,7 +4620,7 @@
         <v>44559.5102662037</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4677,7 +4677,7 @@
         <v>44501</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4734,7 +4734,7 @@
         <v>44421</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4791,7 +4791,7 @@
         <v>44691.62895833333</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4848,7 +4848,7 @@
         <v>44368</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4905,7 +4905,7 @@
         <v>44406</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4962,7 +4962,7 @@
         <v>44449</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5019,7 +5019,7 @@
         <v>44526.64325231482</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5076,7 +5076,7 @@
         <v>44411.27403935185</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5133,7 +5133,7 @@
         <v>44441</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5190,7 +5190,7 @@
         <v>44462.38528935185</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5247,7 +5247,7 @@
         <v>44406.65106481482</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5304,7 +5304,7 @@
         <v>44659.49101851852</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5361,7 +5361,7 @@
         <v>44314.85686342593</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5418,7 +5418,7 @@
         <v>44384</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5475,7 +5475,7 @@
         <v>44676.45043981481</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5532,7 +5532,7 @@
         <v>44502</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5589,7 +5589,7 @@
         <v>44629.93263888889</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5646,7 +5646,7 @@
         <v>44285.43686342592</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5703,7 +5703,7 @@
         <v>44361.36178240741</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5760,7 +5760,7 @@
         <v>44375</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5817,7 +5817,7 @@
         <v>44435</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5874,7 +5874,7 @@
         <v>44705</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5931,7 +5931,7 @@
         <v>44365</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5988,7 +5988,7 @@
         <v>44399</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6045,7 +6045,7 @@
         <v>44241</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6102,7 +6102,7 @@
         <v>44719.61128472222</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6159,7 +6159,7 @@
         <v>44503</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6216,7 +6216,7 @@
         <v>44462</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6273,7 +6273,7 @@
         <v>44498</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6330,7 +6330,7 @@
         <v>44447.68054398148</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6387,7 +6387,7 @@
         <v>44497.92861111111</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6444,7 +6444,7 @@
         <v>44497</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6501,7 +6501,7 @@
         <v>44806</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6558,7 +6558,7 @@
         <v>44361.59884259259</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6615,7 +6615,7 @@
         <v>44343</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6672,7 +6672,7 @@
         <v>44424</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6729,7 +6729,7 @@
         <v>44256</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6786,7 +6786,7 @@
         <v>44442</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6843,7 +6843,7 @@
         <v>44624</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6900,7 +6900,7 @@
         <v>44742</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6957,7 +6957,7 @@
         <v>44259</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7014,7 +7014,7 @@
         <v>44629</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7071,7 +7071,7 @@
         <v>44364</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7128,7 +7128,7 @@
         <v>44267</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7185,7 +7185,7 @@
         <v>44441.76258101852</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7242,7 +7242,7 @@
         <v>44305.43628472222</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7299,7 +7299,7 @@
         <v>44350</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7356,7 +7356,7 @@
         <v>44874</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7413,7 +7413,7 @@
         <v>44441</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7470,7 +7470,7 @@
         <v>44374.73391203704</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7527,7 +7527,7 @@
         <v>44501.61</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7584,7 +7584,7 @@
         <v>44434.60960648148</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7641,7 +7641,7 @@
         <v>44572</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7698,7 +7698,7 @@
         <v>44420</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7755,7 +7755,7 @@
         <v>44446.44287037037</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7812,7 +7812,7 @@
         <v>44571.43729166667</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7869,7 +7869,7 @@
         <v>44599</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7926,7 +7926,7 @@
         <v>44300</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7988,7 +7988,7 @@
         <v>44491</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8045,7 +8045,7 @@
         <v>44270</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8102,7 +8102,7 @@
         <v>44266.84585648148</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8159,7 +8159,7 @@
         <v>44267</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8216,7 +8216,7 @@
         <v>44433.9015162037</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8273,7 +8273,7 @@
         <v>44452</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8330,7 +8330,7 @@
         <v>44314.85135416667</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8387,7 +8387,7 @@
         <v>44588.36425925926</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8444,7 +8444,7 @@
         <v>44476</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8501,7 +8501,7 @@
         <v>44377.74945601852</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8558,7 +8558,7 @@
         <v>44516.53758101852</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8615,7 +8615,7 @@
         <v>44623</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8672,7 +8672,7 @@
         <v>44270.41763888889</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8729,7 +8729,7 @@
         <v>44302.44891203703</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8786,7 +8786,7 @@
         <v>44440</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8848,7 +8848,7 @@
         <v>44460.67511574074</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8905,7 +8905,7 @@
         <v>44484.50790509259</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8962,7 +8962,7 @@
         <v>44322</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9019,7 +9019,7 @@
         <v>44719.63167824074</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9076,7 +9076,7 @@
         <v>44295.57456018519</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9133,7 +9133,7 @@
         <v>44634.57651620371</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9190,7 +9190,7 @@
         <v>44627.93427083334</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9247,7 +9247,7 @@
         <v>44825.96707175926</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9304,7 +9304,7 @@
         <v>44847</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9361,7 +9361,7 @@
         <v>44259</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9418,7 +9418,7 @@
         <v>44540.59521990741</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9475,7 +9475,7 @@
         <v>44475.35071759259</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9532,7 +9532,7 @@
         <v>44809.58320601852</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9594,7 +9594,7 @@
         <v>44524.55496527778</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9651,7 +9651,7 @@
         <v>44302</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9708,7 +9708,7 @@
         <v>44284</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9765,7 +9765,7 @@
         <v>44698</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9822,7 +9822,7 @@
         <v>44543.56502314815</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9879,7 +9879,7 @@
         <v>44621</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9936,7 +9936,7 @@
         <v>44859.4846412037</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9993,7 +9993,7 @@
         <v>44333</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10050,7 +10050,7 @@
         <v>44742</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10107,7 +10107,7 @@
         <v>44743.61866898148</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10164,7 +10164,7 @@
         <v>44480.49596064815</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10221,7 +10221,7 @@
         <v>44285.50226851852</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10278,7 +10278,7 @@
         <v>44440</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10335,7 +10335,7 @@
         <v>44425</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10392,7 +10392,7 @@
         <v>44466</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10449,7 +10449,7 @@
         <v>44837.44972222222</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10506,7 +10506,7 @@
         <v>44706</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10563,7 +10563,7 @@
         <v>44579</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10620,7 +10620,7 @@
         <v>44608</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10677,7 +10677,7 @@
         <v>44365</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10734,7 +10734,7 @@
         <v>44295.56783564815</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10791,7 +10791,7 @@
         <v>44305</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10848,7 +10848,7 @@
         <v>44687</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10905,7 +10905,7 @@
         <v>44494.57087962963</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10962,7 +10962,7 @@
         <v>44466.88909722222</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11019,7 +11019,7 @@
         <v>44320.52675925926</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11076,7 +11076,7 @@
         <v>44306</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11133,7 +11133,7 @@
         <v>44300</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11190,7 +11190,7 @@
         <v>44286.89717592593</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11247,7 +11247,7 @@
         <v>44596</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11304,7 +11304,7 @@
         <v>44439.56229166667</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11361,7 +11361,7 @@
         <v>44356.48402777778</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11418,7 +11418,7 @@
         <v>44399.59900462963</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11475,7 +11475,7 @@
         <v>44467.70932870371</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11532,7 +11532,7 @@
         <v>44592.6608912037</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11594,7 +11594,7 @@
         <v>44608.61462962963</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11651,7 +11651,7 @@
         <v>44286</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11708,7 +11708,7 @@
         <v>44503.58373842593</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11765,7 +11765,7 @@
         <v>44711</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11822,7 +11822,7 @@
         <v>44272.41576388889</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11879,7 +11879,7 @@
         <v>44342</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11936,7 +11936,7 @@
         <v>44804.88839120371</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11993,7 +11993,7 @@
         <v>44614.48950231481</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12050,7 +12050,7 @@
         <v>44657</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12107,7 +12107,7 @@
         <v>44858</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12164,7 +12164,7 @@
         <v>44875.45777777778</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12221,7 +12221,7 @@
         <v>45400.9021412037</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12278,7 +12278,7 @@
         <v>45674.37481481482</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12335,7 +12335,7 @@
         <v>45035</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12392,7 +12392,7 @@
         <v>45315.89215277778</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12449,7 +12449,7 @@
         <v>45456.68532407407</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12506,7 +12506,7 @@
         <v>45615.4612037037</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12563,7 +12563,7 @@
         <v>45004</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12620,7 +12620,7 @@
         <v>45180.4958449074</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12677,7 +12677,7 @@
         <v>45387.38211805555</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12734,7 +12734,7 @@
         <v>44998</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12791,7 +12791,7 @@
         <v>45079</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12848,7 +12848,7 @@
         <v>45664.61196759259</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12905,7 +12905,7 @@
         <v>45393.36715277778</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12962,7 +12962,7 @@
         <v>45257.79081018519</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13019,7 +13019,7 @@
         <v>45108</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13076,7 +13076,7 @@
         <v>44886.58100694444</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13133,7 +13133,7 @@
         <v>45196.41784722222</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13190,7 +13190,7 @@
         <v>44491.33081018519</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13247,7 +13247,7 @@
         <v>44967</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13304,7 +13304,7 @@
         <v>45531.50513888889</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13361,7 +13361,7 @@
         <v>45643</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13418,7 +13418,7 @@
         <v>45373.49626157407</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13475,7 +13475,7 @@
         <v>44747</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13532,7 +13532,7 @@
         <v>45107</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13589,7 +13589,7 @@
         <v>44860</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13646,7 +13646,7 @@
         <v>44875</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13703,7 +13703,7 @@
         <v>45458.75857638889</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13760,7 +13760,7 @@
         <v>44890</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13817,7 +13817,7 @@
         <v>45215.35577546297</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13874,7 +13874,7 @@
         <v>44741</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13931,7 +13931,7 @@
         <v>44946.48041666667</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13988,7 +13988,7 @@
         <v>44672.62571759259</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14045,7 +14045,7 @@
         <v>44939.68818287037</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14102,7 +14102,7 @@
         <v>44937.66680555556</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14159,7 +14159,7 @@
         <v>45019</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14216,7 +14216,7 @@
         <v>45051.33702546296</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14273,7 +14273,7 @@
         <v>45034</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14330,7 +14330,7 @@
         <v>45685</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14387,7 +14387,7 @@
         <v>44553</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14444,7 +14444,7 @@
         <v>45362</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14501,7 +14501,7 @@
         <v>45166</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14558,7 +14558,7 @@
         <v>45578.38111111111</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14615,7 +14615,7 @@
         <v>45142</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14672,7 +14672,7 @@
         <v>45159.43704861111</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14729,7 +14729,7 @@
         <v>45198.56633101852</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14786,7 +14786,7 @@
         <v>44986.33892361111</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14843,7 +14843,7 @@
         <v>44692.459375</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14900,7 +14900,7 @@
         <v>44305</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14957,7 +14957,7 @@
         <v>44847.67832175926</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15014,7 +15014,7 @@
         <v>45001.50576388889</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15071,7 +15071,7 @@
         <v>44847</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15128,7 +15128,7 @@
         <v>44592.63900462963</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15190,7 +15190,7 @@
         <v>45002.62616898148</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15247,7 +15247,7 @@
         <v>44967</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15304,7 +15304,7 @@
         <v>45028.55498842592</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15361,7 +15361,7 @@
         <v>45075.43525462963</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15418,7 +15418,7 @@
         <v>45266.39518518518</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15475,7 +15475,7 @@
         <v>44323</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15532,7 +15532,7 @@
         <v>44545.34950231481</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15589,7 +15589,7 @@
         <v>45020</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15646,7 +15646,7 @@
         <v>45315</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15703,7 +15703,7 @@
         <v>45028.55811342593</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15760,7 +15760,7 @@
         <v>45162</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15817,7 +15817,7 @@
         <v>44879</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15874,7 +15874,7 @@
         <v>44691.63315972222</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15931,7 +15931,7 @@
         <v>45586.77130787037</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15988,7 +15988,7 @@
         <v>45328</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16045,7 +16045,7 @@
         <v>45015</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16102,7 +16102,7 @@
         <v>45743.55949074074</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16159,7 +16159,7 @@
         <v>44706</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16216,7 +16216,7 @@
         <v>45715.38768518518</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16273,7 +16273,7 @@
         <v>45483</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16330,7 +16330,7 @@
         <v>45727.46905092592</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16387,7 +16387,7 @@
         <v>45335</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16444,7 +16444,7 @@
         <v>44757</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16501,7 +16501,7 @@
         <v>45324</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16558,7 +16558,7 @@
         <v>45707</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16615,7 +16615,7 @@
         <v>44930.83994212963</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16672,7 +16672,7 @@
         <v>44851.64682870371</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16729,7 +16729,7 @@
         <v>44593.45266203704</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16786,7 +16786,7 @@
         <v>45328</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16843,7 +16843,7 @@
         <v>45107</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16900,7 +16900,7 @@
         <v>45103</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16957,7 +16957,7 @@
         <v>45693.46003472222</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17014,7 +17014,7 @@
         <v>45581.36192129629</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17071,7 +17071,7 @@
         <v>44350</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17128,7 +17128,7 @@
         <v>45770</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17185,7 +17185,7 @@
         <v>45799.63540509259</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17242,7 +17242,7 @@
         <v>45632.59701388889</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17299,7 +17299,7 @@
         <v>45234</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17356,7 +17356,7 @@
         <v>45737.66008101852</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17413,7 +17413,7 @@
         <v>44837</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17470,7 +17470,7 @@
         <v>45541.33905092593</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17527,7 +17527,7 @@
         <v>45887.49454861111</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17584,7 +17584,7 @@
         <v>44636</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17641,7 +17641,7 @@
         <v>45568</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17698,7 +17698,7 @@
         <v>44619</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17755,7 +17755,7 @@
         <v>45028.54530092593</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17812,7 +17812,7 @@
         <v>45028.55927083334</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17869,7 +17869,7 @@
         <v>45887.44629629629</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17926,7 +17926,7 @@
         <v>45887.44987268518</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17983,7 +17983,7 @@
         <v>44988</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18040,7 +18040,7 @@
         <v>45012</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18097,7 +18097,7 @@
         <v>44584</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18154,7 +18154,7 @@
         <v>45334</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18211,7 +18211,7 @@
         <v>45393.93069444445</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18268,7 +18268,7 @@
         <v>45168.8937962963</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18325,7 +18325,7 @@
         <v>45884.3334837963</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18382,7 +18382,7 @@
         <v>44592</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18439,7 +18439,7 @@
         <v>45772.43194444444</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18496,7 +18496,7 @@
         <v>45365.30353009259</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18553,7 +18553,7 @@
         <v>45303</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18610,7 +18610,7 @@
         <v>45537.49834490741</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18667,7 +18667,7 @@
         <v>44512</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18724,7 +18724,7 @@
         <v>45085.57921296296</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18781,7 +18781,7 @@
         <v>45809.60372685185</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18838,7 +18838,7 @@
         <v>45443</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18895,7 +18895,7 @@
         <v>45891.58806712963</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18952,7 +18952,7 @@
         <v>45475</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19009,7 +19009,7 @@
         <v>45001.70106481481</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19066,7 +19066,7 @@
         <v>45278.56393518519</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19123,7 +19123,7 @@
         <v>45890</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19180,7 +19180,7 @@
         <v>44587.5346412037</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19237,7 +19237,7 @@
         <v>45783</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19294,7 +19294,7 @@
         <v>45817.63003472222</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19351,7 +19351,7 @@
         <v>45553.63233796296</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19408,7 +19408,7 @@
         <v>45610.89532407407</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19465,7 +19465,7 @@
         <v>45742</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19522,7 +19522,7 @@
         <v>45894.39850694445</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19579,7 +19579,7 @@
         <v>45896.55240740741</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19636,7 +19636,7 @@
         <v>45897.45144675926</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19693,7 +19693,7 @@
         <v>45069</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19750,7 +19750,7 @@
         <v>45898.32637731481</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19807,7 +19807,7 @@
         <v>45532.43672453704</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19864,7 +19864,7 @@
         <v>45532.43798611111</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19921,7 +19921,7 @@
         <v>45537.50579861111</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -19978,7 +19978,7 @@
         <v>45218.40603009259</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20035,7 +20035,7 @@
         <v>45681.87600694445</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20092,7 +20092,7 @@
         <v>45733</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20149,7 +20149,7 @@
         <v>44974.82748842592</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20206,7 +20206,7 @@
         <v>45600</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20263,7 +20263,7 @@
         <v>45245.655</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20320,7 +20320,7 @@
         <v>45204</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20377,7 +20377,7 @@
         <v>45747.84215277778</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20434,7 +20434,7 @@
         <v>45573</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20491,7 +20491,7 @@
         <v>45905.46513888889</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20548,7 +20548,7 @@
         <v>45905</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20605,7 +20605,7 @@
         <v>45903.83215277778</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20662,7 +20662,7 @@
         <v>45905</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20719,7 +20719,7 @@
         <v>45532</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20776,7 +20776,7 @@
         <v>45846</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20833,7 +20833,7 @@
         <v>45714</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -20890,7 +20890,7 @@
         <v>45908.49148148148</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -20947,7 +20947,7 @@
         <v>45635</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21004,7 +21004,7 @@
         <v>45218.4927662037</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21061,7 +21061,7 @@
         <v>45821.57865740741</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21118,7 +21118,7 @@
         <v>44747</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21175,7 +21175,7 @@
         <v>45254</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21232,7 +21232,7 @@
         <v>45908.58891203703</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21289,7 +21289,7 @@
         <v>45537.4990625</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21346,7 +21346,7 @@
         <v>45013.65112268519</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21403,7 +21403,7 @@
         <v>45911.66232638889</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21460,7 +21460,7 @@
         <v>45910.43229166666</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21517,7 +21517,7 @@
         <v>45827.41166666667</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21574,7 +21574,7 @@
         <v>45826.44643518519</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21631,7 +21631,7 @@
         <v>45827.41407407408</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21688,7 +21688,7 @@
         <v>45561</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21745,7 +21745,7 @@
         <v>45411.41958333334</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21802,7 +21802,7 @@
         <v>45826.44898148148</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -21859,7 +21859,7 @@
         <v>45697</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -21916,7 +21916,7 @@
         <v>45915.60363425926</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -21973,7 +21973,7 @@
         <v>45827.45453703704</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22030,7 +22030,7 @@
         <v>45048</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22087,7 +22087,7 @@
         <v>44609.5427199074</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22149,7 +22149,7 @@
         <v>44609.55334490741</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22211,7 +22211,7 @@
         <v>44825</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22268,7 +22268,7 @@
         <v>45085</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22325,7 +22325,7 @@
         <v>45085</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22382,7 +22382,7 @@
         <v>45915.60884259259</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22439,7 +22439,7 @@
         <v>44586</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22496,7 +22496,7 @@
         <v>45917.4018287037</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22553,7 +22553,7 @@
         <v>45917.40012731482</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22610,7 +22610,7 @@
         <v>45827.41239583334</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22667,7 +22667,7 @@
         <v>45826.49226851852</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22724,7 +22724,7 @@
         <v>45917.40362268518</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -22781,7 +22781,7 @@
         <v>45917.40538194445</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -22838,7 +22838,7 @@
         <v>44820</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -22895,7 +22895,7 @@
         <v>45917.45751157407</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -22952,7 +22952,7 @@
         <v>45919.34627314815</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23009,7 +23009,7 @@
         <v>45918</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23066,7 +23066,7 @@
         <v>45812.6565625</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23123,7 +23123,7 @@
         <v>44725</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23180,7 +23180,7 @@
         <v>45225.77278935185</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23237,7 +23237,7 @@
         <v>45919.34983796296</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23294,7 +23294,7 @@
         <v>45309.69809027778</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23351,7 +23351,7 @@
         <v>44516</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23408,7 +23408,7 @@
         <v>45832.43682870371</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23465,7 +23465,7 @@
         <v>45917.33334490741</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23522,7 +23522,7 @@
         <v>45923.53277777778</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23579,7 +23579,7 @@
         <v>45922</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23636,7 +23636,7 @@
         <v>45922.39582175926</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -23693,7 +23693,7 @@
         <v>45832.87938657407</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -23750,7 +23750,7 @@
         <v>45922</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -23807,7 +23807,7 @@
         <v>45629.63384259259</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -23864,7 +23864,7 @@
         <v>45923.44908564815</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -23921,7 +23921,7 @@
         <v>45923.43107638889</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -23978,7 +23978,7 @@
         <v>45923.37813657407</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24035,7 +24035,7 @@
         <v>45923.37575231482</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24092,7 +24092,7 @@
         <v>45923.44246527777</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24149,7 +24149,7 @@
         <v>45923.52947916667</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -24206,7 +24206,7 @@
         <v>45832.58216435185</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24263,7 +24263,7 @@
         <v>45308.40855324074</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24320,7 +24320,7 @@
         <v>45832</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24377,7 +24377,7 @@
         <v>45174</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24434,7 +24434,7 @@
         <v>45512.47371527777</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24491,7 +24491,7 @@
         <v>45443</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -24548,7 +24548,7 @@
         <v>45887.44877314815</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -24605,7 +24605,7 @@
         <v>45747.85570601852</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -24662,7 +24662,7 @@
         <v>45925</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -24719,7 +24719,7 @@
         <v>44523</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -24776,7 +24776,7 @@
         <v>45928</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -24833,7 +24833,7 @@
         <v>45929.38549768519</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -24890,7 +24890,7 @@
         <v>45929.73125</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -24947,7 +24947,7 @@
         <v>44638.56855324074</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25004,7 +25004,7 @@
         <v>45929.73858796297</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25061,7 +25061,7 @@
         <v>45929.74033564814</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25118,7 +25118,7 @@
         <v>45929.38221064815</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -25175,7 +25175,7 @@
         <v>45013.43306712963</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -25232,7 +25232,7 @@
         <v>45013.43763888889</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -25289,7 +25289,7 @@
         <v>45841</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25346,7 +25346,7 @@
         <v>45929.67434027778</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -25403,7 +25403,7 @@
         <v>45835.58707175926</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -25460,7 +25460,7 @@
         <v>45126</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -25517,7 +25517,7 @@
         <v>45361.81741898148</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -25574,7 +25574,7 @@
         <v>45576.86913194445</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -25631,7 +25631,7 @@
         <v>45930</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -25688,7 +25688,7 @@
         <v>45558</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -25745,7 +25745,7 @@
         <v>45839.70422453704</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -25802,7 +25802,7 @@
         <v>45839.706875</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -25859,7 +25859,7 @@
         <v>45930</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -25916,7 +25916,7 @@
         <v>45839</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -25978,7 +25978,7 @@
         <v>45838</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -26035,7 +26035,7 @@
         <v>45931</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -26092,7 +26092,7 @@
         <v>45931</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -26149,7 +26149,7 @@
         <v>45711</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -26206,7 +26206,7 @@
         <v>45162.56537037037</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -26263,7 +26263,7 @@
         <v>45256</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -26320,7 +26320,7 @@
         <v>44636</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -26377,7 +26377,7 @@
         <v>45342</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -26434,7 +26434,7 @@
         <v>44309</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -26491,7 +26491,7 @@
         <v>45707</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -26548,7 +26548,7 @@
         <v>45095.39417824074</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -26605,7 +26605,7 @@
         <v>45937</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -26662,7 +26662,7 @@
         <v>45526.70548611111</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -26719,7 +26719,7 @@
         <v>44860</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -26776,7 +26776,7 @@
         <v>45937</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -26833,7 +26833,7 @@
         <v>45937</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -26890,7 +26890,7 @@
         <v>45050</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -26947,7 +26947,7 @@
         <v>45104</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -27004,7 +27004,7 @@
         <v>45251.80711805556</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -27061,7 +27061,7 @@
         <v>45251</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -27118,7 +27118,7 @@
         <v>45316</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -27175,7 +27175,7 @@
         <v>45715.39251157407</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -27232,7 +27232,7 @@
         <v>45250.37905092593</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -27289,7 +27289,7 @@
         <v>45812.65798611111</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -27346,7 +27346,7 @@
         <v>45695.37408564815</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -27403,7 +27403,7 @@
         <v>45945.59504629629</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -27460,7 +27460,7 @@
         <v>45945.61509259259</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -27517,7 +27517,7 @@
         <v>45084</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -27574,7 +27574,7 @@
         <v>45945.60642361111</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -27631,7 +27631,7 @@
         <v>44474.8949537037</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -27688,7 +27688,7 @@
         <v>45645.3549537037</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -27745,7 +27745,7 @@
         <v>44461</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -27802,7 +27802,7 @@
         <v>45335</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -27859,7 +27859,7 @@
         <v>45847.65952546296</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -27916,7 +27916,7 @@
         <v>45847.5694212963</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -27973,7 +27973,7 @@
         <v>45947.5568287037</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -28030,7 +28030,7 @@
         <v>45334.6330787037</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -28087,7 +28087,7 @@
         <v>44354</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -28144,7 +28144,7 @@
         <v>45135.61125</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -28201,7 +28201,7 @@
         <v>45370.63612268519</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -28258,7 +28258,7 @@
         <v>45169.45913194444</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -28315,7 +28315,7 @@
         <v>45093.50841435185</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -28372,7 +28372,7 @@
         <v>45772</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -28429,7 +28429,7 @@
         <v>45133</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -28486,7 +28486,7 @@
         <v>45251.80934027778</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -28543,7 +28543,7 @@
         <v>45602.58842592593</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -28600,7 +28600,7 @@
         <v>45602.61121527778</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -28657,7 +28657,7 @@
         <v>45735.96366898148</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -28714,7 +28714,7 @@
         <v>44551.40351851852</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -28771,7 +28771,7 @@
         <v>45789.45869212963</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -28828,7 +28828,7 @@
         <v>45631</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -28885,7 +28885,7 @@
         <v>45334.63445601852</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -28942,7 +28942,7 @@
         <v>45358.64158564815</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -28999,7 +28999,7 @@
         <v>45133</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -29056,7 +29056,7 @@
         <v>45092.64113425926</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -29113,7 +29113,7 @@
         <v>44874</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -29170,7 +29170,7 @@
         <v>45957</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -29227,7 +29227,7 @@
         <v>45954.66997685185</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -29284,7 +29284,7 @@
         <v>45703.81983796296</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -29341,7 +29341,7 @@
         <v>45749</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -29398,7 +29398,7 @@
         <v>45873.57835648148</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -29455,7 +29455,7 @@
         <v>45957</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -29512,7 +29512,7 @@
         <v>45180.62233796297</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -29569,7 +29569,7 @@
         <v>45166</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -29626,7 +29626,7 @@
         <v>45166.49883101852</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -29683,7 +29683,7 @@
         <v>45958.46466435185</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -29740,7 +29740,7 @@
         <v>45958.481875</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -29797,7 +29797,7 @@
         <v>45210.40899305556</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -29854,7 +29854,7 @@
         <v>45958.47736111111</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -29911,7 +29911,7 @@
         <v>45958</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -29968,7 +29968,7 @@
         <v>45958</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -30025,7 +30025,7 @@
         <v>45647.38805555556</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -30082,7 +30082,7 @@
         <v>45958.47434027777</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -30139,7 +30139,7 @@
         <v>45415</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -30196,7 +30196,7 @@
         <v>45091</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -30253,7 +30253,7 @@
         <v>45875.60252314815</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -30310,7 +30310,7 @@
         <v>45156.6415162037</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -30367,7 +30367,7 @@
         <v>45875.66709490741</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -30424,7 +30424,7 @@
         <v>45875.61711805555</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -30481,7 +30481,7 @@
         <v>45875.60789351852</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -30538,7 +30538,7 @@
         <v>45958.42738425926</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -30595,7 +30595,7 @@
         <v>45012</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -30652,7 +30652,7 @@
         <v>45961</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -30709,7 +30709,7 @@
         <v>45159</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -30766,7 +30766,7 @@
         <v>45728.69217592593</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -30823,7 +30823,7 @@
         <v>45880</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -30880,7 +30880,7 @@
         <v>45961</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -30937,7 +30937,7 @@
         <v>45961</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -30994,7 +30994,7 @@
         <v>45961</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -31051,7 +31051,7 @@
         <v>45880</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -31108,7 +31108,7 @@
         <v>45350.39834490741</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -31165,7 +31165,7 @@
         <v>45035.43935185186</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -31222,7 +31222,7 @@
         <v>45035.44078703703</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -31279,7 +31279,7 @@
         <v>44742</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -31336,7 +31336,7 @@
         <v>45880</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -31393,7 +31393,7 @@
         <v>45967.6153587963</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -31450,7 +31450,7 @@
         <v>45343.56496527778</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -31507,7 +31507,7 @@
         <v>45938</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -31564,7 +31564,7 @@
         <v>45106.36304398148</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -31621,7 +31621,7 @@
         <v>44628</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -31678,7 +31678,7 @@
         <v>45092.68969907407</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -31735,7 +31735,7 @@
         <v>45089.43696759259</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -31792,7 +31792,7 @@
         <v>45089</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -31849,7 +31849,7 @@
         <v>45883.50537037037</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -31906,7 +31906,7 @@
         <v>45883.50228009259</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -31963,7 +31963,7 @@
         <v>45968.38364583333</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -32020,7 +32020,7 @@
         <v>45715.38833333334</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -32077,7 +32077,7 @@
         <v>44636.83194444444</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -32134,7 +32134,7 @@
         <v>45148</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -32191,7 +32191,7 @@
         <v>45972.83649305555</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -32248,7 +32248,7 @@
         <v>45971.94402777778</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -32305,7 +32305,7 @@
         <v>45971.94936342593</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -32362,7 +32362,7 @@
         <v>45973.66715277778</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -32419,7 +32419,7 @@
         <v>45245.50461805556</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -32476,7 +32476,7 @@
         <v>45106</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -32533,7 +32533,7 @@
         <v>45645.87954861111</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -32590,7 +32590,7 @@
         <v>45749.69665509259</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -32647,7 +32647,7 @@
         <v>45932</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -32704,7 +32704,7 @@
         <v>45932</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -32761,7 +32761,7 @@
         <v>45978.37158564815</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -32818,7 +32818,7 @@
         <v>45978.46636574074</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -32875,7 +32875,7 @@
         <v>45580.72222222222</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -32932,7 +32932,7 @@
         <v>45217</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -32989,7 +32989,7 @@
         <v>45713</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -33046,7 +33046,7 @@
         <v>45978.6052662037</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -33103,7 +33103,7 @@
         <v>45212</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -33160,7 +33160,7 @@
         <v>45631</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -33217,7 +33217,7 @@
         <v>45645.35019675926</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -33274,7 +33274,7 @@
         <v>45173.44273148148</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -33331,7 +33331,7 @@
         <v>45978</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -33388,7 +33388,7 @@
         <v>45579</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -33445,7 +33445,7 @@
         <v>45340</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -33502,7 +33502,7 @@
         <v>45981.5834375</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -33559,7 +33559,7 @@
         <v>45980.62664351852</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -33616,7 +33616,7 @@
         <v>44911</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -33673,7 +33673,7 @@
         <v>45981.59913194444</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -33730,7 +33730,7 @@
         <v>44285.43282407407</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -33787,7 +33787,7 @@
         <v>45013.44094907407</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -33844,7 +33844,7 @@
         <v>45981.47199074074</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -33901,7 +33901,7 @@
         <v>45538</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -33958,7 +33958,7 @@
         <v>45980.59621527778</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -34015,7 +34015,7 @@
         <v>45980.62510416667</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -34072,7 +34072,7 @@
         <v>45012</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -34129,7 +34129,7 @@
         <v>45727.53451388889</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -34186,7 +34186,7 @@
         <v>45407.61273148148</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -34243,7 +34243,7 @@
         <v>45735.7075462963</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -34300,7 +34300,7 @@
         <v>45982.47952546296</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -34357,7 +34357,7 @@
         <v>46027.61513888889</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -34414,7 +34414,7 @@
         <v>45985.56918981481</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -34471,7 +34471,7 @@
         <v>45985.56715277778</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -34528,7 +34528,7 @@
         <v>45495.63521990741</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -34585,7 +34585,7 @@
         <v>45982.4753125</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -34642,7 +34642,7 @@
         <v>44433</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -34699,7 +34699,7 @@
         <v>45118</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -34756,7 +34756,7 @@
         <v>45106.36086805556</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -34813,7 +34813,7 @@
         <v>46029.3747337963</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -34870,7 +34870,7 @@
         <v>45002.57140046296</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -34927,7 +34927,7 @@
         <v>44302</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -34984,7 +34984,7 @@
         <v>44936</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -35041,7 +35041,7 @@
         <v>44753</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -35098,7 +35098,7 @@
         <v>45194.39523148148</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -35155,7 +35155,7 @@
         <v>44862</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -35212,7 +35212,7 @@
         <v>45106.43407407407</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -35269,7 +35269,7 @@
         <v>45630.58119212963</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -35326,7 +35326,7 @@
         <v>46031.40931712963</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -35383,7 +35383,7 @@
         <v>46030</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -35440,7 +35440,7 @@
         <v>45587</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -35497,7 +35497,7 @@
         <v>45551.91032407407</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -35554,7 +35554,7 @@
         <v>45988.49774305556</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -35611,7 +35611,7 @@
         <v>45117</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -35668,7 +35668,7 @@
         <v>45168.89541666667</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -35725,7 +35725,7 @@
         <v>45351.67325231482</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -35782,7 +35782,7 @@
         <v>45846</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -35844,7 +35844,7 @@
         <v>45905</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -35906,7 +35906,7 @@
         <v>45903</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -35968,7 +35968,7 @@
         <v>45619.67202546296</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -36025,7 +36025,7 @@
         <v>45154.93615740741</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -36082,7 +36082,7 @@
         <v>44930</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -36139,7 +36139,7 @@
         <v>45910</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -36196,7 +36196,7 @@
         <v>45993.32045138889</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -36253,7 +36253,7 @@
         <v>44530.55888888889</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -36310,7 +36310,7 @@
         <v>45693</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -36367,7 +36367,7 @@
         <v>44473</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -36424,7 +36424,7 @@
         <v>45846</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -36486,7 +36486,7 @@
         <v>44295.58509259259</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -36543,7 +36543,7 @@
         <v>45993.32222222222</v>
       </c>
       <c r="C618" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -36600,7 +36600,7 @@
         <v>45994.6533912037</v>
       </c>
       <c r="C619" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -36657,7 +36657,7 @@
         <v>45537.91339120371</v>
       </c>
       <c r="C620" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -36714,7 +36714,7 @@
         <v>45012.60288194445</v>
       </c>
       <c r="C621" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -36771,7 +36771,7 @@
         <v>45995</v>
       </c>
       <c r="C622" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -36828,7 +36828,7 @@
         <v>44809.41969907407</v>
       </c>
       <c r="C623" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -36885,7 +36885,7 @@
         <v>45995</v>
       </c>
       <c r="C624" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -36942,7 +36942,7 @@
         <v>44756.55196759259</v>
       </c>
       <c r="C625" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -36999,7 +36999,7 @@
         <v>45077</v>
       </c>
       <c r="C626" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -37056,7 +37056,7 @@
         <v>44942</v>
       </c>
       <c r="C627" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -37113,7 +37113,7 @@
         <v>45604.4915625</v>
       </c>
       <c r="C628" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -37170,7 +37170,7 @@
         <v>45107.6715625</v>
       </c>
       <c r="C629" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -37227,7 +37227,7 @@
         <v>44728.67653935185</v>
       </c>
       <c r="C630" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -37284,7 +37284,7 @@
         <v>45695.37572916667</v>
       </c>
       <c r="C631" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -37341,7 +37341,7 @@
         <v>45469.37361111111</v>
       </c>
       <c r="C632" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -37398,7 +37398,7 @@
         <v>44323</v>
       </c>
       <c r="C633" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -37455,7 +37455,7 @@
         <v>45554</v>
       </c>
       <c r="C634" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -37512,7 +37512,7 @@
         <v>46037.80730324074</v>
       </c>
       <c r="C635" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D635" t="inlineStr">
         <is>
@@ -37569,7 +37569,7 @@
         <v>44981</v>
       </c>
       <c r="C636" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -37626,7 +37626,7 @@
         <v>45610.38868055555</v>
       </c>
       <c r="C637" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D637" t="inlineStr">
         <is>
@@ -37683,7 +37683,7 @@
         <v>46042</v>
       </c>
       <c r="C638" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D638" t="inlineStr">
         <is>
@@ -37740,7 +37740,7 @@
         <v>44596</v>
       </c>
       <c r="C639" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D639" t="inlineStr">
         <is>
@@ -37802,7 +37802,7 @@
         <v>46042.49659722222</v>
       </c>
       <c r="C640" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D640" t="inlineStr">
         <is>
@@ -37859,7 +37859,7 @@
         <v>46042</v>
       </c>
       <c r="C641" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D641" t="inlineStr">
         <is>
@@ -37916,7 +37916,7 @@
         <v>45610</v>
       </c>
       <c r="C642" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D642" t="inlineStr">
         <is>
@@ -37973,7 +37973,7 @@
         <v>44876.36309027778</v>
       </c>
       <c r="C643" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D643" t="inlineStr">
         <is>
@@ -38030,7 +38030,7 @@
         <v>45551</v>
       </c>
       <c r="C644" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D644" t="inlineStr">
         <is>
@@ -38087,7 +38087,7 @@
         <v>46000.59715277778</v>
       </c>
       <c r="C645" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D645" t="inlineStr">
         <is>
@@ -38144,7 +38144,7 @@
         <v>46002.35725694444</v>
       </c>
       <c r="C646" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D646" t="inlineStr">
         <is>
@@ -38201,7 +38201,7 @@
         <v>45127</v>
       </c>
       <c r="C647" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D647" t="inlineStr">
         <is>
@@ -38258,7 +38258,7 @@
         <v>45512</v>
       </c>
       <c r="C648" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D648" t="inlineStr">
         <is>
@@ -38315,7 +38315,7 @@
         <v>45166.6434375</v>
       </c>
       <c r="C649" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D649" t="inlineStr">
         <is>
@@ -38372,7 +38372,7 @@
         <v>44543</v>
       </c>
       <c r="C650" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D650" t="inlineStr">
         <is>
@@ -38429,7 +38429,7 @@
         <v>46002.36429398148</v>
       </c>
       <c r="C651" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D651" t="inlineStr">
         <is>
@@ -38486,7 +38486,7 @@
         <v>45261.4658449074</v>
       </c>
       <c r="C652" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D652" t="inlineStr">
         <is>
@@ -38543,7 +38543,7 @@
         <v>46002.36811342592</v>
       </c>
       <c r="C653" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D653" t="inlineStr">
         <is>
@@ -38600,7 +38600,7 @@
         <v>45366.65268518519</v>
       </c>
       <c r="C654" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D654" t="inlineStr">
         <is>
@@ -38657,7 +38657,7 @@
         <v>46042.54811342592</v>
       </c>
       <c r="C655" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D655" t="inlineStr">
         <is>
@@ -38714,7 +38714,7 @@
         <v>45202.53679398148</v>
       </c>
       <c r="C656" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D656" t="inlineStr">
         <is>
@@ -38771,7 +38771,7 @@
         <v>46048.60737268518</v>
       </c>
       <c r="C657" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D657" t="inlineStr">
         <is>
@@ -38828,7 +38828,7 @@
         <v>46048.64427083333</v>
       </c>
       <c r="C658" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D658" t="inlineStr">
         <is>
@@ -38885,7 +38885,7 @@
         <v>46049.59381944445</v>
       </c>
       <c r="C659" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D659" t="inlineStr">
         <is>
@@ -38942,7 +38942,7 @@
         <v>45075.52633101852</v>
       </c>
       <c r="C660" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D660" t="inlineStr">
         <is>
@@ -38999,7 +38999,7 @@
         <v>46048.64267361111</v>
       </c>
       <c r="C661" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D661" t="inlineStr">
         <is>
@@ -39056,7 +39056,7 @@
         <v>44930</v>
       </c>
       <c r="C662" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D662" t="inlineStr">
         <is>
@@ -39113,7 +39113,7 @@
         <v>46048.6109375</v>
       </c>
       <c r="C663" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D663" t="inlineStr">
         <is>
@@ -39170,7 +39170,7 @@
         <v>45013.82003472222</v>
       </c>
       <c r="C664" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D664" t="inlineStr">
         <is>
@@ -39227,7 +39227,7 @@
         <v>45720.43899305556</v>
       </c>
       <c r="C665" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D665" t="inlineStr">
         <is>
@@ -39284,7 +39284,7 @@
         <v>46007.87877314815</v>
       </c>
       <c r="C666" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D666" t="inlineStr">
         <is>
@@ -39341,7 +39341,7 @@
         <v>45082</v>
       </c>
       <c r="C667" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D667" t="inlineStr">
         <is>
@@ -39398,7 +39398,7 @@
         <v>45712.92822916667</v>
       </c>
       <c r="C668" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D668" t="inlineStr">
         <is>
@@ -39455,7 +39455,7 @@
         <v>45014.91954861111</v>
       </c>
       <c r="C669" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D669" t="inlineStr">
         <is>
@@ -39512,7 +39512,7 @@
         <v>45085</v>
       </c>
       <c r="C670" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D670" t="inlineStr">
         <is>
@@ -39569,7 +39569,7 @@
         <v>46007.89254629629</v>
       </c>
       <c r="C671" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D671" t="inlineStr">
         <is>
@@ -39626,7 +39626,7 @@
         <v>46007.88675925926</v>
       </c>
       <c r="C672" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D672" t="inlineStr">
         <is>
@@ -39683,7 +39683,7 @@
         <v>45107.66918981481</v>
       </c>
       <c r="C673" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D673" t="inlineStr">
         <is>
@@ -39740,7 +39740,7 @@
         <v>44614</v>
       </c>
       <c r="C674" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D674" t="inlineStr">
         <is>
@@ -39797,7 +39797,7 @@
         <v>45007.47481481481</v>
       </c>
       <c r="C675" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D675" t="inlineStr">
         <is>
@@ -39854,7 +39854,7 @@
         <v>45007.48090277778</v>
       </c>
       <c r="C676" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D676" t="inlineStr">
         <is>
@@ -39911,7 +39911,7 @@
         <v>45215.46303240741</v>
       </c>
       <c r="C677" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D677" t="inlineStr">
         <is>
@@ -39968,7 +39968,7 @@
         <v>46051</v>
       </c>
       <c r="C678" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D678" t="inlineStr">
         <is>
@@ -40025,7 +40025,7 @@
         <v>46051</v>
       </c>
       <c r="C679" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D679" t="inlineStr">
         <is>
@@ -40082,7 +40082,7 @@
         <v>45551</v>
       </c>
       <c r="C680" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D680" t="inlineStr">
         <is>
@@ -40139,7 +40139,7 @@
         <v>44691.62384259259</v>
       </c>
       <c r="C681" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D681" t="inlineStr">
         <is>
@@ -40196,7 +40196,7 @@
         <v>46051</v>
       </c>
       <c r="C682" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D682" t="inlineStr">
         <is>
@@ -40253,7 +40253,7 @@
         <v>45085</v>
       </c>
       <c r="C683" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D683" t="inlineStr">
         <is>
@@ -40310,7 +40310,7 @@
         <v>44799</v>
       </c>
       <c r="C684" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D684" t="inlineStr">
         <is>
@@ -40367,7 +40367,7 @@
         <v>46052.84638888889</v>
       </c>
       <c r="C685" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D685" t="inlineStr">
         <is>
@@ -40424,7 +40424,7 @@
         <v>44641.60950231482</v>
       </c>
       <c r="C686" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D686" t="inlineStr">
         <is>
@@ -40481,7 +40481,7 @@
         <v>44302</v>
       </c>
       <c r="C687" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D687" t="inlineStr">
         <is>
@@ -40538,7 +40538,7 @@
         <v>45077.43820601852</v>
       </c>
       <c r="C688" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D688" t="inlineStr">
         <is>
@@ -40595,7 +40595,7 @@
         <v>45537.91421296296</v>
       </c>
       <c r="C689" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D689" t="inlineStr">
         <is>
@@ -40652,7 +40652,7 @@
         <v>45538</v>
       </c>
       <c r="C690" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D690" t="inlineStr">
         <is>
@@ -40709,7 +40709,7 @@
         <v>45393.30091435185</v>
       </c>
       <c r="C691" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D691" t="inlineStr">
         <is>
@@ -40766,7 +40766,7 @@
         <v>45170.64689814814</v>
       </c>
       <c r="C692" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D692" t="inlineStr">
         <is>
@@ -40823,7 +40823,7 @@
         <v>44349</v>
       </c>
       <c r="C693" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D693" t="inlineStr">
         <is>
@@ -40880,7 +40880,7 @@
         <v>45166.65524305555</v>
       </c>
       <c r="C694" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D694" t="inlineStr">
         <is>
@@ -40937,7 +40937,7 @@
         <v>45251.55815972222</v>
       </c>
       <c r="C695" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D695" t="inlineStr">
         <is>
@@ -40994,7 +40994,7 @@
         <v>44631.65131944444</v>
       </c>
       <c r="C696" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D696" t="inlineStr">
         <is>
@@ -41051,7 +41051,7 @@
         <v>45463.42392361111</v>
       </c>
       <c r="C697" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D697" t="inlineStr">
         <is>
@@ -41108,7 +41108,7 @@
         <v>45463.42876157408</v>
       </c>
       <c r="C698" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D698" t="inlineStr">
         <is>
@@ -41165,7 +41165,7 @@
         <v>45766</v>
       </c>
       <c r="C699" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D699" t="inlineStr">
         <is>
@@ -41222,7 +41222,7 @@
         <v>45057</v>
       </c>
       <c r="C700" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D700" t="inlineStr">
         <is>
@@ -41279,7 +41279,7 @@
         <v>46056.46877314815</v>
       </c>
       <c r="C701" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D701" t="inlineStr">
         <is>
@@ -41336,7 +41336,7 @@
         <v>44754</v>
       </c>
       <c r="C702" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D702" t="inlineStr">
         <is>
@@ -41393,7 +41393,7 @@
         <v>45092</v>
       </c>
       <c r="C703" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D703" t="inlineStr">
         <is>
@@ -41450,7 +41450,7 @@
         <v>45009.46116898148</v>
       </c>
       <c r="C704" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D704" t="inlineStr">
         <is>
@@ -41507,7 +41507,7 @@
         <v>46058.50160879629</v>
       </c>
       <c r="C705" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D705" t="inlineStr">
         <is>
@@ -41564,7 +41564,7 @@
         <v>46056</v>
       </c>
       <c r="C706" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D706" t="inlineStr">
         <is>
@@ -41621,7 +41621,7 @@
         <v>45455.45792824074</v>
       </c>
       <c r="C707" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D707" t="inlineStr">
         <is>
@@ -41678,7 +41678,7 @@
         <v>45238</v>
       </c>
       <c r="C708" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D708" t="inlineStr">
         <is>
@@ -41735,7 +41735,7 @@
         <v>44511.57038194445</v>
       </c>
       <c r="C709" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D709" t="inlineStr">
         <is>
@@ -41792,7 +41792,7 @@
         <v>45775.63248842592</v>
       </c>
       <c r="C710" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D710" t="inlineStr">
         <is>
@@ -41849,7 +41849,7 @@
         <v>46059.78087962963</v>
       </c>
       <c r="C711" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D711" t="inlineStr">
         <is>
@@ -41906,7 +41906,7 @@
         <v>44580</v>
       </c>
       <c r="C712" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D712" t="inlineStr">
         <is>
@@ -41963,7 +41963,7 @@
         <v>45315.87924768519</v>
       </c>
       <c r="C713" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D713" t="inlineStr">
         <is>
@@ -42020,7 +42020,7 @@
         <v>45043.65984953703</v>
       </c>
       <c r="C714" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D714" t="inlineStr">
         <is>
@@ -42077,7 +42077,7 @@
         <v>45050</v>
       </c>
       <c r="C715" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D715" t="inlineStr">
         <is>
@@ -42134,7 +42134,7 @@
         <v>44284</v>
       </c>
       <c r="C716" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D716" t="inlineStr">
         <is>
@@ -42191,7 +42191,7 @@
         <v>45266.39803240741</v>
       </c>
       <c r="C717" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D717" t="inlineStr">
         <is>
@@ -42248,7 +42248,7 @@
         <v>45113.47337962963</v>
       </c>
       <c r="C718" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D718" t="inlineStr">
         <is>
@@ -42305,7 +42305,7 @@
         <v>44881</v>
       </c>
       <c r="C719" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D719" t="inlineStr">
         <is>
@@ -42362,7 +42362,7 @@
         <v>44920</v>
       </c>
       <c r="C720" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D720" t="inlineStr">
         <is>
@@ -42419,7 +42419,7 @@
         <v>45756.60348379629</v>
       </c>
       <c r="C721" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D721" t="inlineStr">
         <is>
@@ -42476,7 +42476,7 @@
         <v>45756.60971064815</v>
       </c>
       <c r="C722" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D722" t="inlineStr">
         <is>
@@ -42533,7 +42533,7 @@
         <v>45055</v>
       </c>
       <c r="C723" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D723" t="inlineStr">
         <is>
@@ -42590,7 +42590,7 @@
         <v>44545.89236111111</v>
       </c>
       <c r="C724" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D724" t="inlineStr">
         <is>
@@ -42647,7 +42647,7 @@
         <v>44988</v>
       </c>
       <c r="C725" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D725" t="inlineStr">
         <is>
@@ -42704,7 +42704,7 @@
         <v>44960.28089120371</v>
       </c>
       <c r="C726" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D726" t="inlineStr">
         <is>
@@ -42761,7 +42761,7 @@
         <v>45722</v>
       </c>
       <c r="C727" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D727" t="inlineStr">
         <is>
@@ -42818,7 +42818,7 @@
         <v>44441</v>
       </c>
       <c r="C728" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D728" t="inlineStr">
         <is>
@@ -42875,7 +42875,7 @@
         <v>45279.34813657407</v>
       </c>
       <c r="C729" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D729" t="inlineStr">
         <is>
@@ -42932,7 +42932,7 @@
         <v>45387.88914351852</v>
       </c>
       <c r="C730" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D730" t="inlineStr">
         <is>
@@ -42989,7 +42989,7 @@
         <v>45387.37787037037</v>
       </c>
       <c r="C731" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D731" t="inlineStr">
         <is>
@@ -43046,7 +43046,7 @@
         <v>45080</v>
       </c>
       <c r="C732" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D732" t="inlineStr">
         <is>
@@ -43103,7 +43103,7 @@
         <v>45238.3500462963</v>
       </c>
       <c r="C733" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D733" t="inlineStr">
         <is>
@@ -43160,7 +43160,7 @@
         <v>45247</v>
       </c>
       <c r="C734" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D734" t="inlineStr">
         <is>
@@ -43217,7 +43217,7 @@
         <v>45243.34587962963</v>
       </c>
       <c r="C735" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D735" t="inlineStr">
         <is>
@@ -43274,7 +43274,7 @@
         <v>44435</v>
       </c>
       <c r="C736" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D736" t="inlineStr">
         <is>
@@ -43331,7 +43331,7 @@
         <v>45105.41936342593</v>
       </c>
       <c r="C737" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D737" t="inlineStr">
         <is>
@@ -43388,7 +43388,7 @@
         <v>45106.3509837963</v>
       </c>
       <c r="C738" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D738" t="inlineStr">
         <is>
@@ -43445,7 +43445,7 @@
         <v>45499</v>
       </c>
       <c r="C739" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D739" t="inlineStr">
         <is>
@@ -43502,7 +43502,7 @@
         <v>45165.53146990741</v>
       </c>
       <c r="C740" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D740" t="inlineStr">
         <is>
@@ -43559,7 +43559,7 @@
         <v>45524</v>
       </c>
       <c r="C741" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D741" t="inlineStr">
         <is>
@@ -43616,7 +43616,7 @@
         <v>45218.41484953704</v>
       </c>
       <c r="C742" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D742" t="inlineStr">
         <is>
@@ -43673,7 +43673,7 @@
         <v>44866</v>
       </c>
       <c r="C743" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D743" t="inlineStr">
         <is>
@@ -43730,7 +43730,7 @@
         <v>44305</v>
       </c>
       <c r="C744" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D744" t="inlineStr">
         <is>
@@ -43787,7 +43787,7 @@
         <v>45264</v>
       </c>
       <c r="C745" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D745" t="inlineStr">
         <is>
@@ -43844,7 +43844,7 @@
         <v>45188.45027777777</v>
       </c>
       <c r="C746" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D746" t="inlineStr">
         <is>
@@ -43901,7 +43901,7 @@
         <v>45093</v>
       </c>
       <c r="C747" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D747" t="inlineStr">
         <is>
@@ -43958,7 +43958,7 @@
         <v>45664.61273148148</v>
       </c>
       <c r="C748" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D748" t="inlineStr">
         <is>
@@ -44015,7 +44015,7 @@
         <v>44235</v>
       </c>
       <c r="C749" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D749" t="inlineStr">
         <is>
@@ -44072,7 +44072,7 @@
         <v>45113.47484953704</v>
       </c>
       <c r="C750" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D750" t="inlineStr">
         <is>
@@ -44129,7 +44129,7 @@
         <v>44914.59365740741</v>
       </c>
       <c r="C751" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D751" t="inlineStr">
         <is>
@@ -44186,7 +44186,7 @@
         <v>45321.65413194444</v>
       </c>
       <c r="C752" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D752" t="inlineStr">
         <is>
@@ -44243,7 +44243,7 @@
         <v>45127.48940972222</v>
       </c>
       <c r="C753" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D753" t="inlineStr">
         <is>
@@ -44300,7 +44300,7 @@
         <v>45238</v>
       </c>
       <c r="C754" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D754" t="inlineStr">
         <is>
@@ -44357,7 +44357,7 @@
         <v>45334.4565162037</v>
       </c>
       <c r="C755" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D755" t="inlineStr">
         <is>
@@ -44414,7 +44414,7 @@
         <v>45699.59120370371</v>
       </c>
       <c r="C756" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D756" t="inlineStr">
         <is>
@@ -44471,7 +44471,7 @@
         <v>45662</v>
       </c>
       <c r="C757" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D757" t="inlineStr">
         <is>
@@ -44528,7 +44528,7 @@
         <v>45631</v>
       </c>
       <c r="C758" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D758" t="inlineStr">
         <is>
@@ -44585,7 +44585,7 @@
         <v>45531.4630787037</v>
       </c>
       <c r="C759" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D759" t="inlineStr">
         <is>
@@ -44642,7 +44642,7 @@
         <v>44991.60873842592</v>
       </c>
       <c r="C760" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D760" t="inlineStr">
         <is>
@@ -44699,7 +44699,7 @@
         <v>44624</v>
       </c>
       <c r="C761" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D761" t="inlineStr">
         <is>
@@ -44756,7 +44756,7 @@
         <v>44939</v>
       </c>
       <c r="C762" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D762" t="inlineStr">
         <is>
@@ -44813,7 +44813,7 @@
         <v>44939.68549768518</v>
       </c>
       <c r="C763" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D763" t="inlineStr">
         <is>
@@ -44870,7 +44870,7 @@
         <v>45393.86842592592</v>
       </c>
       <c r="C764" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D764" t="inlineStr">
         <is>
@@ -44927,7 +44927,7 @@
         <v>45278.72490740741</v>
       </c>
       <c r="C765" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D765" t="inlineStr">
         <is>
@@ -44984,7 +44984,7 @@
         <v>45204.62678240741</v>
       </c>
       <c r="C766" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D766" t="inlineStr">
         <is>
@@ -45041,7 +45041,7 @@
         <v>45698.47751157408</v>
       </c>
       <c r="C767" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D767" t="inlineStr">
         <is>
@@ -45098,7 +45098,7 @@
         <v>45178</v>
       </c>
       <c r="C768" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D768" t="inlineStr">
         <is>
@@ -45155,7 +45155,7 @@
         <v>44585.33765046296</v>
       </c>
       <c r="C769" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D769" t="inlineStr">
         <is>
@@ -45212,7 +45212,7 @@
         <v>45062.38054398148</v>
       </c>
       <c r="C770" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D770" t="inlineStr">
         <is>
@@ -45269,7 +45269,7 @@
         <v>44893</v>
       </c>
       <c r="C771" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D771" t="inlineStr">
         <is>
@@ -45326,7 +45326,7 @@
         <v>45394.58707175926</v>
       </c>
       <c r="C772" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D772" t="inlineStr">
         <is>
@@ -45383,7 +45383,7 @@
         <v>45344.35084490741</v>
       </c>
       <c r="C773" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D773" t="inlineStr">
         <is>
@@ -45440,7 +45440,7 @@
         <v>44973.29771990741</v>
       </c>
       <c r="C774" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D774" t="inlineStr">
         <is>
@@ -45497,7 +45497,7 @@
         <v>44820</v>
       </c>
       <c r="C775" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D775" t="inlineStr">
         <is>
@@ -45554,7 +45554,7 @@
         <v>45673.28958333333</v>
       </c>
       <c r="C776" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D776" t="inlineStr">
         <is>
@@ -45611,7 +45611,7 @@
         <v>45309.44398148148</v>
       </c>
       <c r="C777" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D777" t="inlineStr">
         <is>
@@ -45668,7 +45668,7 @@
         <v>45142</v>
       </c>
       <c r="C778" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D778" t="inlineStr">
         <is>
@@ -45725,7 +45725,7 @@
         <v>44840.58092592593</v>
       </c>
       <c r="C779" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D779" t="inlineStr">
         <is>
@@ -45782,7 +45782,7 @@
         <v>45577.29355324074</v>
       </c>
       <c r="C780" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D780" t="inlineStr">
         <is>
@@ -45839,7 +45839,7 @@
         <v>45094</v>
       </c>
       <c r="C781" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D781" t="inlineStr">
         <is>
@@ -45896,7 +45896,7 @@
         <v>45208.83212962963</v>
       </c>
       <c r="C782" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D782" t="inlineStr">
         <is>
@@ -45953,7 +45953,7 @@
         <v>45393.30375</v>
       </c>
       <c r="C783" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D783" t="inlineStr">
         <is>
@@ -46010,7 +46010,7 @@
         <v>45161.47722222222</v>
       </c>
       <c r="C784" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D784" t="inlineStr">
         <is>
@@ -46067,7 +46067,7 @@
         <v>45531.94460648148</v>
       </c>
       <c r="C785" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D785" t="inlineStr">
         <is>
@@ -46124,7 +46124,7 @@
         <v>45140</v>
       </c>
       <c r="C786" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D786" t="inlineStr">
         <is>
@@ -46181,7 +46181,7 @@
         <v>45344.29208333333</v>
       </c>
       <c r="C787" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D787" t="inlineStr">
         <is>
@@ -46238,7 +46238,7 @@
         <v>45524.35208333333</v>
       </c>
       <c r="C788" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D788" t="inlineStr">
         <is>
@@ -46295,7 +46295,7 @@
         <v>45218.49332175926</v>
       </c>
       <c r="C789" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D789" t="inlineStr">
         <is>
@@ -46352,7 +46352,7 @@
         <v>44757.34600694444</v>
       </c>
       <c r="C790" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D790" t="inlineStr">
         <is>
@@ -46409,7 +46409,7 @@
         <v>44619</v>
       </c>
       <c r="C791" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D791" t="inlineStr">
         <is>
@@ -46466,7 +46466,7 @@
         <v>45195.77855324074</v>
       </c>
       <c r="C792" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D792" t="inlineStr">
         <is>
@@ -46523,7 +46523,7 @@
         <v>45180</v>
       </c>
       <c r="C793" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D793" t="inlineStr">
         <is>
@@ -46580,7 +46580,7 @@
         <v>45736.44543981482</v>
       </c>
       <c r="C794" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D794" t="inlineStr">
         <is>
@@ -46637,7 +46637,7 @@
         <v>45637.38047453704</v>
       </c>
       <c r="C795" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D795" t="inlineStr">
         <is>
@@ -46694,7 +46694,7 @@
         <v>45181</v>
       </c>
       <c r="C796" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D796" t="inlineStr">
         <is>
@@ -46751,7 +46751,7 @@
         <v>44825.97048611111</v>
       </c>
       <c r="C797" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D797" t="inlineStr">
         <is>
@@ -46808,7 +46808,7 @@
         <v>44445.65237268519</v>
       </c>
       <c r="C798" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D798" t="inlineStr">
         <is>
@@ -46865,7 +46865,7 @@
         <v>45309.69259259259</v>
       </c>
       <c r="C799" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D799" t="inlineStr">
         <is>
@@ -46922,7 +46922,7 @@
         <v>45182.43038194445</v>
       </c>
       <c r="C800" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D800" t="inlineStr">
         <is>
@@ -46979,7 +46979,7 @@
         <v>45747.50460648148</v>
       </c>
       <c r="C801" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D801" t="inlineStr">
         <is>
@@ -47036,7 +47036,7 @@
         <v>45090.87483796296</v>
       </c>
       <c r="C802" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D802" t="inlineStr">
         <is>
@@ -47093,7 +47093,7 @@
         <v>45324</v>
       </c>
       <c r="C803" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D803" t="inlineStr">
         <is>
@@ -47150,7 +47150,7 @@
         <v>45223.50019675926</v>
       </c>
       <c r="C804" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D804" t="inlineStr">
         <is>
@@ -47207,7 +47207,7 @@
         <v>45170</v>
       </c>
       <c r="C805" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D805" t="inlineStr">
         <is>
@@ -47264,7 +47264,7 @@
         <v>45042</v>
       </c>
       <c r="C806" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D806" t="inlineStr">
         <is>
@@ -47321,7 +47321,7 @@
         <v>45406.73519675926</v>
       </c>
       <c r="C807" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D807" t="inlineStr">
         <is>
@@ -47378,7 +47378,7 @@
         <v>45162</v>
       </c>
       <c r="C808" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D808" t="inlineStr">
         <is>
@@ -47435,7 +47435,7 @@
         <v>44893.475</v>
       </c>
       <c r="C809" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D809" t="inlineStr">
         <is>
@@ -47492,7 +47492,7 @@
         <v>45602</v>
       </c>
       <c r="C810" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D810" t="inlineStr">
         <is>
@@ -47549,7 +47549,7 @@
         <v>45092</v>
       </c>
       <c r="C811" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D811" t="inlineStr">
         <is>
@@ -47606,7 +47606,7 @@
         <v>45085</v>
       </c>
       <c r="C812" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D812" t="inlineStr">
         <is>
@@ -47663,7 +47663,7 @@
         <v>44930.78150462963</v>
       </c>
       <c r="C813" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D813" t="inlineStr">
         <is>
@@ -47720,7 +47720,7 @@
         <v>45624.45537037037</v>
       </c>
       <c r="C814" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D814" t="inlineStr">
         <is>
@@ -47777,7 +47777,7 @@
         <v>44461</v>
       </c>
       <c r="C815" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D815" t="inlineStr">
         <is>
@@ -47834,7 +47834,7 @@
         <v>45092</v>
       </c>
       <c r="C816" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D816" t="inlineStr">
         <is>
@@ -47891,7 +47891,7 @@
         <v>45454.72009259259</v>
       </c>
       <c r="C817" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D817" t="inlineStr">
         <is>
@@ -47948,7 +47948,7 @@
         <v>45169.6147337963</v>
       </c>
       <c r="C818" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D818" t="inlineStr">
         <is>
@@ -48005,7 +48005,7 @@
         <v>45573.72731481482</v>
       </c>
       <c r="C819" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D819" t="inlineStr">
         <is>
@@ -48062,7 +48062,7 @@
         <v>45761</v>
       </c>
       <c r="C820" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D820" t="inlineStr">
         <is>
@@ -48119,7 +48119,7 @@
         <v>44517</v>
       </c>
       <c r="C821" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D821" t="inlineStr">
         <is>
@@ -48176,7 +48176,7 @@
         <v>45027</v>
       </c>
       <c r="C822" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D822" t="inlineStr">
         <is>
@@ -48233,7 +48233,7 @@
         <v>45194.60591435185</v>
       </c>
       <c r="C823" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D823" t="inlineStr">
         <is>
@@ -48290,7 +48290,7 @@
         <v>44235</v>
       </c>
       <c r="C824" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D824" t="inlineStr">
         <is>
@@ -48347,7 +48347,7 @@
         <v>45309.69599537037</v>
       </c>
       <c r="C825" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D825" t="inlineStr">
         <is>
@@ -48404,7 +48404,7 @@
         <v>44700</v>
       </c>
       <c r="C826" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D826" t="inlineStr">
         <is>
@@ -48461,7 +48461,7 @@
         <v>45674.37722222223</v>
       </c>
       <c r="C827" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D827" t="inlineStr">
         <is>
@@ -48518,7 +48518,7 @@
         <v>45744</v>
       </c>
       <c r="C828" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D828" t="inlineStr">
         <is>
@@ -48575,7 +48575,7 @@
         <v>45183</v>
       </c>
       <c r="C829" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D829" t="inlineStr">
         <is>
@@ -48632,7 +48632,7 @@
         <v>44603.56049768518</v>
       </c>
       <c r="C830" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D830" t="inlineStr">
         <is>
@@ -48689,7 +48689,7 @@
         <v>45225.8025</v>
       </c>
       <c r="C831" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D831" t="inlineStr">
         <is>
@@ -48746,7 +48746,7 @@
         <v>45393.66436342592</v>
       </c>
       <c r="C832" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D832" t="inlineStr">
         <is>
@@ -48803,7 +48803,7 @@
         <v>44616</v>
       </c>
       <c r="C833" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D833" t="inlineStr">
         <is>
@@ -48860,7 +48860,7 @@
         <v>45174.49248842592</v>
       </c>
       <c r="C834" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D834" t="inlineStr">
         <is>
@@ -48917,7 +48917,7 @@
         <v>45070</v>
       </c>
       <c r="C835" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D835" t="inlineStr">
         <is>
@@ -48974,7 +48974,7 @@
         <v>45037</v>
       </c>
       <c r="C836" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D836" t="inlineStr">
         <is>
@@ -49031,7 +49031,7 @@
         <v>45092</v>
       </c>
       <c r="C837" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D837" t="inlineStr">
         <is>
@@ -49088,7 +49088,7 @@
         <v>44909</v>
       </c>
       <c r="C838" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D838" t="inlineStr">
         <is>
@@ -49145,7 +49145,7 @@
         <v>45076.50148148148</v>
       </c>
       <c r="C839" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D839" t="inlineStr">
         <is>
@@ -49202,7 +49202,7 @@
         <v>44900.59222222222</v>
       </c>
       <c r="C840" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D840" t="inlineStr">
         <is>
@@ -49259,7 +49259,7 @@
         <v>45266</v>
       </c>
       <c r="C841" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D841" t="inlineStr">
         <is>
@@ -49316,7 +49316,7 @@
         <v>45571.82802083333</v>
       </c>
       <c r="C842" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D842" t="inlineStr">
         <is>
@@ -49373,7 +49373,7 @@
         <v>45565.79476851852</v>
       </c>
       <c r="C843" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D843" t="inlineStr">
         <is>
@@ -49430,7 +49430,7 @@
         <v>44722.55038194444</v>
       </c>
       <c r="C844" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D844" t="inlineStr">
         <is>
@@ -49487,7 +49487,7 @@
         <v>44903.44068287037</v>
       </c>
       <c r="C845" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D845" t="inlineStr">
         <is>
@@ -49544,7 +49544,7 @@
         <v>45154.94172453704</v>
       </c>
       <c r="C846" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D846" t="inlineStr">
         <is>
@@ -49601,7 +49601,7 @@
         <v>44711.57103009259</v>
       </c>
       <c r="C847" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D847" t="inlineStr">
         <is>
@@ -49658,7 +49658,7 @@
         <v>44693</v>
       </c>
       <c r="C848" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D848" t="inlineStr">
         <is>
@@ -49715,7 +49715,7 @@
         <v>44581.97131944444</v>
       </c>
       <c r="C849" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D849" t="inlineStr">
         <is>
@@ -49772,7 +49772,7 @@
         <v>45075.43681712963</v>
       </c>
       <c r="C850" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D850" t="inlineStr">
         <is>
@@ -49829,7 +49829,7 @@
         <v>45616.35783564814</v>
       </c>
       <c r="C851" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D851" t="inlineStr">
         <is>
@@ -49886,7 +49886,7 @@
         <v>45062.38267361111</v>
       </c>
       <c r="C852" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D852" t="inlineStr">
         <is>
@@ -49943,7 +49943,7 @@
         <v>45113</v>
       </c>
       <c r="C853" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D853" t="inlineStr">
         <is>
@@ -50000,7 +50000,7 @@
         <v>45672.66238425926</v>
       </c>
       <c r="C854" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D854" t="inlineStr">
         <is>
@@ -50057,7 +50057,7 @@
         <v>45301</v>
       </c>
       <c r="C855" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D855" t="inlineStr">
         <is>
@@ -50114,7 +50114,7 @@
         <v>44281</v>
       </c>
       <c r="C856" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D856" t="inlineStr">
         <is>
@@ -50171,7 +50171,7 @@
         <v>45030</v>
       </c>
       <c r="C857" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D857" t="inlineStr">
         <is>
@@ -50228,7 +50228,7 @@
         <v>45348.55489583333</v>
       </c>
       <c r="C858" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D858" t="inlineStr">
         <is>
@@ -50285,7 +50285,7 @@
         <v>44748</v>
       </c>
       <c r="C859" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D859" t="inlineStr">
         <is>
@@ -50342,7 +50342,7 @@
         <v>45775.59717592593</v>
       </c>
       <c r="C860" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D860" t="inlineStr">
         <is>
@@ -50399,7 +50399,7 @@
         <v>45048</v>
       </c>
       <c r="C861" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D861" t="inlineStr">
         <is>
@@ -50456,7 +50456,7 @@
         <v>45028.56200231481</v>
       </c>
       <c r="C862" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D862" t="inlineStr">
         <is>
@@ -50513,7 +50513,7 @@
         <v>45075</v>
       </c>
       <c r="C863" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D863" t="inlineStr">
         <is>
@@ -50570,7 +50570,7 @@
         <v>45604.45568287037</v>
       </c>
       <c r="C864" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D864" t="inlineStr">
         <is>
@@ -50627,7 +50627,7 @@
         <v>45625</v>
       </c>
       <c r="C865" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D865" t="inlineStr">
         <is>
@@ -50684,7 +50684,7 @@
         <v>45495.64009259259</v>
       </c>
       <c r="C866" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D866" t="inlineStr">
         <is>
@@ -50741,7 +50741,7 @@
         <v>45075.44275462963</v>
       </c>
       <c r="C867" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D867" t="inlineStr">
         <is>
@@ -50798,7 +50798,7 @@
         <v>45538</v>
       </c>
       <c r="C868" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D868" t="inlineStr">
         <is>
@@ -50855,7 +50855,7 @@
         <v>45594</v>
       </c>
       <c r="C869" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D869" t="inlineStr">
         <is>
@@ -50912,7 +50912,7 @@
         <v>45555.36652777778</v>
       </c>
       <c r="C870" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D870" t="inlineStr">
         <is>
@@ -50969,7 +50969,7 @@
         <v>45344.695</v>
       </c>
       <c r="C871" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D871" t="inlineStr">
         <is>
@@ -51031,7 +51031,7 @@
         <v>45499</v>
       </c>
       <c r="C872" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D872" t="inlineStr">
         <is>
@@ -51088,7 +51088,7 @@
         <v>45372.46738425926</v>
       </c>
       <c r="C873" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D873" t="inlineStr">
         <is>
@@ -51145,7 +51145,7 @@
         <v>45573.91842592593</v>
       </c>
       <c r="C874" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D874" t="inlineStr">
         <is>
@@ -51202,7 +51202,7 @@
         <v>45621</v>
       </c>
       <c r="C875" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D875" t="inlineStr">
         <is>
@@ -51259,7 +51259,7 @@
         <v>44398</v>
       </c>
       <c r="C876" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D876" t="inlineStr">
         <is>
@@ -51316,7 +51316,7 @@
         <v>45782</v>
       </c>
       <c r="C877" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D877" t="inlineStr">
         <is>
@@ -51373,7 +51373,7 @@
         <v>45783.29873842592</v>
       </c>
       <c r="C878" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D878" t="inlineStr">
         <is>
@@ -51430,7 +51430,7 @@
         <v>45783.38400462963</v>
       </c>
       <c r="C879" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D879" t="inlineStr">
         <is>
@@ -51487,7 +51487,7 @@
         <v>45783.43942129629</v>
       </c>
       <c r="C880" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D880" t="inlineStr">
         <is>
@@ -51544,7 +51544,7 @@
         <v>45387.90001157407</v>
       </c>
       <c r="C881" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D881" t="inlineStr">
         <is>
@@ -51601,7 +51601,7 @@
         <v>45784.28789351852</v>
       </c>
       <c r="C882" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D882" t="inlineStr">
         <is>
@@ -51658,7 +51658,7 @@
         <v>45784.29160879629</v>
       </c>
       <c r="C883" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D883" t="inlineStr">
         <is>
@@ -51715,7 +51715,7 @@
         <v>45624.8330324074</v>
       </c>
       <c r="C884" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D884" t="inlineStr">
         <is>
@@ -51772,7 +51772,7 @@
         <v>45784.5990625</v>
       </c>
       <c r="C885" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D885" t="inlineStr">
         <is>
@@ -51829,7 +51829,7 @@
         <v>45784.60247685185</v>
       </c>
       <c r="C886" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D886" t="inlineStr">
         <is>
@@ -51886,7 +51886,7 @@
         <v>45784.28640046297</v>
       </c>
       <c r="C887" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D887" t="inlineStr">
         <is>
@@ -51943,7 +51943,7 @@
         <v>45674.37980324074</v>
       </c>
       <c r="C888" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D888" t="inlineStr">
         <is>
@@ -52000,7 +52000,7 @@
         <v>45714.8555324074</v>
       </c>
       <c r="C889" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D889" t="inlineStr">
         <is>
@@ -52057,7 +52057,7 @@
         <v>45631.39092592592</v>
       </c>
       <c r="C890" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D890" t="inlineStr">
         <is>
@@ -52114,7 +52114,7 @@
         <v>45785.77976851852</v>
       </c>
       <c r="C891" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D891" t="inlineStr">
         <is>
@@ -52171,7 +52171,7 @@
         <v>45789.66337962963</v>
       </c>
       <c r="C892" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D892" t="inlineStr">
         <is>
@@ -52228,7 +52228,7 @@
         <v>44496</v>
       </c>
       <c r="C893" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D893" t="inlineStr">
         <is>
@@ -52285,7 +52285,7 @@
         <v>45656.2784375</v>
       </c>
       <c r="C894" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D894" t="inlineStr">
         <is>
@@ -52342,7 +52342,7 @@
         <v>45453</v>
       </c>
       <c r="C895" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D895" t="inlineStr">
         <is>
@@ -52399,7 +52399,7 @@
         <v>45754.36746527778</v>
       </c>
       <c r="C896" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D896" t="inlineStr">
         <is>
@@ -52456,7 +52456,7 @@
         <v>45475</v>
       </c>
       <c r="C897" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D897" t="inlineStr">
         <is>
@@ -52513,7 +52513,7 @@
         <v>45691.70079861111</v>
       </c>
       <c r="C898" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D898" t="inlineStr">
         <is>
@@ -52570,7 +52570,7 @@
         <v>45532.43490740741</v>
       </c>
       <c r="C899" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D899" t="inlineStr">
         <is>
@@ -52627,7 +52627,7 @@
         <v>45384.68908564815</v>
       </c>
       <c r="C900" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D900" t="inlineStr">
         <is>
@@ -52684,7 +52684,7 @@
         <v>45540.63275462963</v>
       </c>
       <c r="C901" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D901" t="inlineStr">
         <is>
@@ -52741,7 +52741,7 @@
         <v>45790.36726851852</v>
       </c>
       <c r="C902" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D902" t="inlineStr">
         <is>
@@ -52798,7 +52798,7 @@
         <v>45358</v>
       </c>
       <c r="C903" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D903" t="inlineStr">
         <is>
@@ -52855,7 +52855,7 @@
         <v>44559</v>
       </c>
       <c r="C904" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D904" t="inlineStr">
         <is>
@@ -52912,7 +52912,7 @@
         <v>45796.37314814814</v>
       </c>
       <c r="C905" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D905" t="inlineStr">
         <is>
@@ -52969,7 +52969,7 @@
         <v>45797.42636574074</v>
       </c>
       <c r="C906" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D906" t="inlineStr">
         <is>
@@ -53026,7 +53026,7 @@
         <v>45797.42967592592</v>
       </c>
       <c r="C907" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D907" t="inlineStr">
         <is>
@@ -53083,7 +53083,7 @@
         <v>45796.47753472222</v>
       </c>
       <c r="C908" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D908" t="inlineStr">
         <is>
@@ -53140,7 +53140,7 @@
         <v>45797.43391203704</v>
       </c>
       <c r="C909" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D909" t="inlineStr">
         <is>

--- a/Översikt KARLSKRONA.xlsx
+++ b/Översikt KARLSKRONA.xlsx
@@ -575,7 +575,7 @@
         <v>45923</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -672,7 +672,7 @@
         <v>45832</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -762,7 +762,7 @@
         <v>45911</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -851,7 +851,7 @@
         <v>45999</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -944,7 +944,7 @@
         <v>45999</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1036,7 +1036,7 @@
         <v>44509</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1123,7 +1123,7 @@
         <v>45918</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1210,7 +1210,7 @@
         <v>45905</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1302,7 +1302,7 @@
         <v>44960</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1389,7 +1389,7 @@
         <v>45826.50638888889</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1475,7 +1475,7 @@
         <v>45924.48732638889</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1561,7 +1561,7 @@
         <v>45901</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1652,7 +1652,7 @@
         <v>45037</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1743,7 +1743,7 @@
         <v>45603.46306712963</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1829,7 +1829,7 @@
         <v>44531</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1914,7 +1914,7 @@
         <v>44467</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1999,7 +1999,7 @@
         <v>45002.64284722223</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2084,7 +2084,7 @@
         <v>45050</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2169,7 +2169,7 @@
         <v>45826.49623842593</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2254,7 +2254,7 @@
         <v>45809</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2339,7 +2339,7 @@
         <v>44445</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2424,7 +2424,7 @@
         <v>45110.59303240741</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2509,7 +2509,7 @@
         <v>45337</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2594,7 +2594,7 @@
         <v>46055</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2683,7 +2683,7 @@
         <v>45579.41793981481</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2768,7 +2768,7 @@
         <v>44279.88631944444</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2825,7 +2825,7 @@
         <v>44249.57096064815</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2882,7 +2882,7 @@
         <v>44356</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2939,7 +2939,7 @@
         <v>44273</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2996,7 +2996,7 @@
         <v>44279</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3053,7 +3053,7 @@
         <v>44574.53206018519</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3110,7 +3110,7 @@
         <v>44368.68505787037</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3167,7 +3167,7 @@
         <v>44572</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3224,7 +3224,7 @@
         <v>44551</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3281,7 +3281,7 @@
         <v>44432.52225694444</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3338,7 +3338,7 @@
         <v>44869.37805555556</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3395,7 +3395,7 @@
         <v>44342</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3452,7 +3452,7 @@
         <v>44342</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3509,7 +3509,7 @@
         <v>44285</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3566,7 +3566,7 @@
         <v>44284</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3623,7 +3623,7 @@
         <v>44585</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3680,7 +3680,7 @@
         <v>44600</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3737,7 +3737,7 @@
         <v>44468</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3794,7 +3794,7 @@
         <v>44585</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3851,7 +3851,7 @@
         <v>44273.4187962963</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3908,7 +3908,7 @@
         <v>44687</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3965,7 +3965,7 @@
         <v>44830.46083333333</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4022,7 +4022,7 @@
         <v>44670</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4079,7 +4079,7 @@
         <v>44875.43988425926</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4136,7 +4136,7 @@
         <v>44875.4530787037</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4193,7 +4193,7 @@
         <v>44458</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4250,7 +4250,7 @@
         <v>44483.831875</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4307,7 +4307,7 @@
         <v>44325</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4364,7 +4364,7 @@
         <v>44350.5575925926</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4421,7 +4421,7 @@
         <v>44501</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4478,7 +4478,7 @@
         <v>44559.5102662037</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4535,7 +4535,7 @@
         <v>44421</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4592,7 +4592,7 @@
         <v>44406</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4649,7 +4649,7 @@
         <v>44406.65106481482</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4706,7 +4706,7 @@
         <v>44691.62895833333</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4763,7 +4763,7 @@
         <v>44449</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4820,7 +4820,7 @@
         <v>44368</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4877,7 +4877,7 @@
         <v>44526.64325231482</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4934,7 +4934,7 @@
         <v>44411.27403935185</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4991,7 +4991,7 @@
         <v>44659.49101851852</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5048,7 +5048,7 @@
         <v>44441</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5105,7 +5105,7 @@
         <v>44462.38528935185</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5162,7 +5162,7 @@
         <v>44314.85686342593</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5219,7 +5219,7 @@
         <v>44384</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5276,7 +5276,7 @@
         <v>44676.45043981481</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5333,7 +5333,7 @@
         <v>44502</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5390,7 +5390,7 @@
         <v>44285.43686342592</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5447,7 +5447,7 @@
         <v>44629.93263888889</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5504,7 +5504,7 @@
         <v>44361.36178240741</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5561,7 +5561,7 @@
         <v>44375</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5618,7 +5618,7 @@
         <v>44435</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5675,7 +5675,7 @@
         <v>44705</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5732,7 +5732,7 @@
         <v>44365</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5789,7 +5789,7 @@
         <v>44399</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5846,7 +5846,7 @@
         <v>44719.61128472222</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5903,7 +5903,7 @@
         <v>44503</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5960,7 +5960,7 @@
         <v>44462</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6017,7 +6017,7 @@
         <v>44447.68054398148</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6074,7 +6074,7 @@
         <v>44498</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6131,7 +6131,7 @@
         <v>44361.59884259259</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6188,7 +6188,7 @@
         <v>44343</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6245,7 +6245,7 @@
         <v>44497.92861111111</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6302,7 +6302,7 @@
         <v>44497</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6359,7 +6359,7 @@
         <v>44806</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6416,7 +6416,7 @@
         <v>44256</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6473,7 +6473,7 @@
         <v>44424</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6530,7 +6530,7 @@
         <v>44624</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6587,7 +6587,7 @@
         <v>44874</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6644,7 +6644,7 @@
         <v>44442</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6701,7 +6701,7 @@
         <v>44742</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6758,7 +6758,7 @@
         <v>44629</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6815,7 +6815,7 @@
         <v>44267</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6872,7 +6872,7 @@
         <v>44364</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6929,7 +6929,7 @@
         <v>44259</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6986,7 +6986,7 @@
         <v>44441.76258101852</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7043,7 +7043,7 @@
         <v>44305.43628472222</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7100,7 +7100,7 @@
         <v>44350</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7157,7 +7157,7 @@
         <v>44441</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7214,7 +7214,7 @@
         <v>44374.73391203704</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7271,7 +7271,7 @@
         <v>44501.61</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7328,7 +7328,7 @@
         <v>44434.60960648148</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7385,7 +7385,7 @@
         <v>44571.43729166667</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7442,7 +7442,7 @@
         <v>44572</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7499,7 +7499,7 @@
         <v>44420</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7556,7 +7556,7 @@
         <v>44446.44287037037</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7613,7 +7613,7 @@
         <v>44599</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7670,7 +7670,7 @@
         <v>44300</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7732,7 +7732,7 @@
         <v>44491</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7789,7 +7789,7 @@
         <v>44266.84585648148</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7846,7 +7846,7 @@
         <v>44270</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7903,7 +7903,7 @@
         <v>44267</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7960,7 +7960,7 @@
         <v>44433.9015162037</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8017,7 +8017,7 @@
         <v>44314.85135416667</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8074,7 +8074,7 @@
         <v>44452</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8131,7 +8131,7 @@
         <v>44588.36425925926</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8188,7 +8188,7 @@
         <v>44476</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8245,7 +8245,7 @@
         <v>44516.53758101852</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8302,7 +8302,7 @@
         <v>44377.74945601852</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8359,7 +8359,7 @@
         <v>44623</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8416,7 +8416,7 @@
         <v>44270.41763888889</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8473,7 +8473,7 @@
         <v>44440</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8535,7 +8535,7 @@
         <v>44302.44891203703</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8592,7 +8592,7 @@
         <v>44322</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8649,7 +8649,7 @@
         <v>44719.63167824074</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8706,7 +8706,7 @@
         <v>44295.57456018519</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8763,7 +8763,7 @@
         <v>44460.67511574074</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8820,7 +8820,7 @@
         <v>44484.50790509259</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8877,7 +8877,7 @@
         <v>44825.96707175926</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8934,7 +8934,7 @@
         <v>44634.57651620371</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8991,7 +8991,7 @@
         <v>44627.93427083334</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9048,7 +9048,7 @@
         <v>44847</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9105,7 +9105,7 @@
         <v>44259</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9162,7 +9162,7 @@
         <v>44540.59521990741</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9219,7 +9219,7 @@
         <v>44475.35071759259</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9276,7 +9276,7 @@
         <v>44524.55496527778</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9333,7 +9333,7 @@
         <v>44809.58320601852</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9395,7 +9395,7 @@
         <v>44302</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9452,7 +9452,7 @@
         <v>44284</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9509,7 +9509,7 @@
         <v>44698</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9566,7 +9566,7 @@
         <v>44543.56502314815</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9623,7 +9623,7 @@
         <v>44621</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9680,7 +9680,7 @@
         <v>44859.4846412037</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9737,7 +9737,7 @@
         <v>44333</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9794,7 +9794,7 @@
         <v>44742</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9851,7 +9851,7 @@
         <v>44743.61866898148</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9908,7 +9908,7 @@
         <v>44285.50226851852</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9965,7 +9965,7 @@
         <v>44480.49596064815</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10022,7 +10022,7 @@
         <v>44425</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10079,7 +10079,7 @@
         <v>44440</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10136,7 +10136,7 @@
         <v>44466</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10193,7 +10193,7 @@
         <v>44837.44972222222</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10250,7 +10250,7 @@
         <v>44706</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10307,7 +10307,7 @@
         <v>44579</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10364,7 +10364,7 @@
         <v>44608</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10421,7 +10421,7 @@
         <v>44365</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10478,7 +10478,7 @@
         <v>44295.56783564815</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10535,7 +10535,7 @@
         <v>44305</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10592,7 +10592,7 @@
         <v>44494.57087962963</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10649,7 +10649,7 @@
         <v>44687</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10706,7 +10706,7 @@
         <v>44466.88909722222</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10763,7 +10763,7 @@
         <v>44320.52675925926</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10820,7 +10820,7 @@
         <v>44300</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10877,7 +10877,7 @@
         <v>44306</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10934,7 +10934,7 @@
         <v>44596</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10991,7 +10991,7 @@
         <v>44286.89717592593</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11048,7 +11048,7 @@
         <v>44439.56229166667</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11105,7 +11105,7 @@
         <v>44399.59900462963</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11162,7 +11162,7 @@
         <v>44356.48402777778</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11219,7 +11219,7 @@
         <v>44467.70932870371</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11276,7 +11276,7 @@
         <v>44592.6608912037</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11338,7 +11338,7 @@
         <v>44608.61462962963</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11395,7 +11395,7 @@
         <v>44286</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11452,7 +11452,7 @@
         <v>44503.58373842593</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11509,7 +11509,7 @@
         <v>44711</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11566,7 +11566,7 @@
         <v>44272.41576388889</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11623,7 +11623,7 @@
         <v>44342</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11680,7 +11680,7 @@
         <v>44614.48950231481</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11737,7 +11737,7 @@
         <v>44804.88839120371</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11794,7 +11794,7 @@
         <v>44657</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11851,7 +11851,7 @@
         <v>44858</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11908,7 +11908,7 @@
         <v>44875.45777777778</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11965,7 +11965,7 @@
         <v>45400.9021412037</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12022,7 +12022,7 @@
         <v>45674.37481481482</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12079,7 +12079,7 @@
         <v>45315.89215277778</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12136,7 +12136,7 @@
         <v>45035</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12193,7 +12193,7 @@
         <v>45456.68532407407</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12250,7 +12250,7 @@
         <v>45257.79081018519</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12307,7 +12307,7 @@
         <v>45615.4612037037</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12364,7 +12364,7 @@
         <v>45079</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12421,7 +12421,7 @@
         <v>45664.61196759259</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12478,7 +12478,7 @@
         <v>45004</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12535,7 +12535,7 @@
         <v>45180.4958449074</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12592,7 +12592,7 @@
         <v>45196.41784722222</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12649,7 +12649,7 @@
         <v>44491.33081018519</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12706,7 +12706,7 @@
         <v>44967</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12763,7 +12763,7 @@
         <v>45393.36715277778</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12820,7 +12820,7 @@
         <v>45108</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12877,7 +12877,7 @@
         <v>44875</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12934,7 +12934,7 @@
         <v>45531.50513888889</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12991,7 +12991,7 @@
         <v>45643</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13048,7 +13048,7 @@
         <v>45387.38211805555</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13105,7 +13105,7 @@
         <v>44998</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13162,7 +13162,7 @@
         <v>44747</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13219,7 +13219,7 @@
         <v>45373.49626157407</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13276,7 +13276,7 @@
         <v>45107</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13333,7 +13333,7 @@
         <v>44860</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13390,7 +13390,7 @@
         <v>44741</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13447,7 +13447,7 @@
         <v>44890</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13504,7 +13504,7 @@
         <v>44946.48041666667</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13561,7 +13561,7 @@
         <v>44939.68818287037</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13618,7 +13618,7 @@
         <v>44672.62571759259</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13675,7 +13675,7 @@
         <v>45458.75857638889</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13732,7 +13732,7 @@
         <v>45215.35577546297</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13789,7 +13789,7 @@
         <v>45051.33702546296</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13846,7 +13846,7 @@
         <v>44937.66680555556</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13903,7 +13903,7 @@
         <v>45019</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13960,7 +13960,7 @@
         <v>44886.58100694444</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14017,7 +14017,7 @@
         <v>45362</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14074,7 +14074,7 @@
         <v>45034</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14131,7 +14131,7 @@
         <v>45166</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14188,7 +14188,7 @@
         <v>45685</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14245,7 +14245,7 @@
         <v>44553</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14302,7 +14302,7 @@
         <v>45159.43704861111</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14359,7 +14359,7 @@
         <v>45578.38111111111</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14416,7 +14416,7 @@
         <v>45142</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14473,7 +14473,7 @@
         <v>44986.33892361111</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14530,7 +14530,7 @@
         <v>45198.56633101852</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14587,7 +14587,7 @@
         <v>44692.459375</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14644,7 +14644,7 @@
         <v>44305</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14701,7 +14701,7 @@
         <v>44847.67832175926</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14758,7 +14758,7 @@
         <v>44847</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14815,7 +14815,7 @@
         <v>45002.62616898148</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14872,7 +14872,7 @@
         <v>45028.55498842592</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14929,7 +14929,7 @@
         <v>45001.50576388889</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14986,7 +14986,7 @@
         <v>44967</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15043,7 +15043,7 @@
         <v>44545.34950231481</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15100,7 +15100,7 @@
         <v>44592.63900462963</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15162,7 +15162,7 @@
         <v>45075.43525462963</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15219,7 +15219,7 @@
         <v>45266.39518518518</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15276,7 +15276,7 @@
         <v>44323</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15333,7 +15333,7 @@
         <v>45020</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15390,7 +15390,7 @@
         <v>45315</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15447,7 +15447,7 @@
         <v>45162</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15504,7 +15504,7 @@
         <v>44879</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15561,7 +15561,7 @@
         <v>45028.55811342593</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15618,7 +15618,7 @@
         <v>45586.77130787037</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15675,7 +15675,7 @@
         <v>44691.63315972222</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15732,7 +15732,7 @@
         <v>45015</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15789,7 +15789,7 @@
         <v>45328</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15846,7 +15846,7 @@
         <v>44706</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15903,7 +15903,7 @@
         <v>45743.55949074074</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15960,7 +15960,7 @@
         <v>45727.46905092592</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16017,7 +16017,7 @@
         <v>45715.38768518518</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16074,7 +16074,7 @@
         <v>45335</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16131,7 +16131,7 @@
         <v>44757</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16188,7 +16188,7 @@
         <v>45324</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16245,7 +16245,7 @@
         <v>45483</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16302,7 +16302,7 @@
         <v>44930.83994212963</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16359,7 +16359,7 @@
         <v>44851.64682870371</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16416,7 +16416,7 @@
         <v>44593.45266203704</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16473,7 +16473,7 @@
         <v>45707</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16530,7 +16530,7 @@
         <v>45328</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16587,7 +16587,7 @@
         <v>45107</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16644,7 +16644,7 @@
         <v>45103</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16701,7 +16701,7 @@
         <v>44350</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16758,7 +16758,7 @@
         <v>45541.33905092593</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16815,7 +16815,7 @@
         <v>45234</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16872,7 +16872,7 @@
         <v>45568</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16929,7 +16929,7 @@
         <v>44636</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16986,7 +16986,7 @@
         <v>45168.8937962963</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17043,7 +17043,7 @@
         <v>45028.54530092593</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17100,7 +17100,7 @@
         <v>45028.55927083334</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17157,7 +17157,7 @@
         <v>44592</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17214,7 +17214,7 @@
         <v>44988</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17271,7 +17271,7 @@
         <v>44584</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17328,7 +17328,7 @@
         <v>45772.43194444444</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17385,7 +17385,7 @@
         <v>45537.49834490741</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17442,7 +17442,7 @@
         <v>45365.30353009259</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17499,7 +17499,7 @@
         <v>45303</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17556,7 +17556,7 @@
         <v>45443</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17613,7 +17613,7 @@
         <v>44512</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17670,7 +17670,7 @@
         <v>45085.57921296296</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17727,7 +17727,7 @@
         <v>45475</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17784,7 +17784,7 @@
         <v>44587.5346412037</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17841,7 +17841,7 @@
         <v>45001.70106481481</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17898,7 +17898,7 @@
         <v>45278.56393518519</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17955,7 +17955,7 @@
         <v>45553.63233796296</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18012,7 +18012,7 @@
         <v>45537.50579861111</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18069,7 +18069,7 @@
         <v>45737.66008101852</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18126,7 +18126,7 @@
         <v>45887.49454861111</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18183,7 +18183,7 @@
         <v>45610.89532407407</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18240,7 +18240,7 @@
         <v>45742</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18297,7 +18297,7 @@
         <v>44619</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18354,7 +18354,7 @@
         <v>45887.44629629629</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18411,7 +18411,7 @@
         <v>45887.44987268518</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18468,7 +18468,7 @@
         <v>45884.3334837963</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18525,7 +18525,7 @@
         <v>45069</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18582,7 +18582,7 @@
         <v>45532.43672453704</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18639,7 +18639,7 @@
         <v>45532.43798611111</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18696,7 +18696,7 @@
         <v>45218.40603009259</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18753,7 +18753,7 @@
         <v>45681.87600694445</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18810,7 +18810,7 @@
         <v>44974.82748842592</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18867,7 +18867,7 @@
         <v>45600</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18924,7 +18924,7 @@
         <v>45245.655</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18981,7 +18981,7 @@
         <v>45821.57865740741</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19038,7 +19038,7 @@
         <v>45204</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19095,7 +19095,7 @@
         <v>45891.58806712963</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19152,7 +19152,7 @@
         <v>45827.41166666667</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19209,7 +19209,7 @@
         <v>45826.44643518519</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19266,7 +19266,7 @@
         <v>45827.41407407408</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19323,7 +19323,7 @@
         <v>45561</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19380,7 +19380,7 @@
         <v>45826.44898148148</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19437,7 +19437,7 @@
         <v>45532</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19494,7 +19494,7 @@
         <v>45827.45453703704</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19551,7 +19551,7 @@
         <v>45890</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19608,7 +19608,7 @@
         <v>45218.4927662037</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19665,7 +19665,7 @@
         <v>45827.41239583334</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19722,7 +19722,7 @@
         <v>45826.49226851852</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19779,7 +19779,7 @@
         <v>45254</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19836,7 +19836,7 @@
         <v>45537.4990625</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19893,7 +19893,7 @@
         <v>45812.6565625</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -19950,7 +19950,7 @@
         <v>45894.39850694445</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20007,7 +20007,7 @@
         <v>45896.55240740741</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20064,7 +20064,7 @@
         <v>45013.65112268519</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20121,7 +20121,7 @@
         <v>45832.43682870371</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20178,7 +20178,7 @@
         <v>45411.41958333334</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20235,7 +20235,7 @@
         <v>45832.87938657407</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20292,7 +20292,7 @@
         <v>45697</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20349,7 +20349,7 @@
         <v>45832.58216435185</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20406,7 +20406,7 @@
         <v>45048</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20463,7 +20463,7 @@
         <v>45897.45144675926</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20520,7 +20520,7 @@
         <v>44609.5427199074</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20582,7 +20582,7 @@
         <v>44609.55334490741</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20644,7 +20644,7 @@
         <v>44825</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20701,7 +20701,7 @@
         <v>45832</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20758,7 +20758,7 @@
         <v>45898.32637731481</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20815,7 +20815,7 @@
         <v>45085</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -20872,7 +20872,7 @@
         <v>45085</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -20929,7 +20929,7 @@
         <v>44586</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -20986,7 +20986,7 @@
         <v>44820</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21043,7 +21043,7 @@
         <v>45835.58707175926</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21100,7 +21100,7 @@
         <v>45733</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21157,7 +21157,7 @@
         <v>45576.86913194445</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21214,7 +21214,7 @@
         <v>45747.84215277778</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21271,7 +21271,7 @@
         <v>45573</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21328,7 +21328,7 @@
         <v>45839.70422453704</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21385,7 +21385,7 @@
         <v>45839.706875</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21442,7 +21442,7 @@
         <v>45839</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21504,7 +21504,7 @@
         <v>45838</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21561,7 +21561,7 @@
         <v>44725</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21618,7 +21618,7 @@
         <v>45225.77278935185</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21675,7 +21675,7 @@
         <v>45905.46513888889</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21732,7 +21732,7 @@
         <v>45309.69809027778</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21789,7 +21789,7 @@
         <v>45711</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -21846,7 +21846,7 @@
         <v>44516</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -21903,7 +21903,7 @@
         <v>45905</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -21960,7 +21960,7 @@
         <v>45256</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22017,7 +22017,7 @@
         <v>45903.83215277778</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22074,7 +22074,7 @@
         <v>45905</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22131,7 +22131,7 @@
         <v>45629.63384259259</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22188,7 +22188,7 @@
         <v>45846</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22245,7 +22245,7 @@
         <v>45714</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22302,7 +22302,7 @@
         <v>45908.49148148148</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22359,7 +22359,7 @@
         <v>45635</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22416,7 +22416,7 @@
         <v>45308.40855324074</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22473,7 +22473,7 @@
         <v>44747</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22530,7 +22530,7 @@
         <v>45908.58891203703</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22587,7 +22587,7 @@
         <v>45174</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22644,7 +22644,7 @@
         <v>45512.47371527777</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22701,7 +22701,7 @@
         <v>45443</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -22758,7 +22758,7 @@
         <v>45911.66232638889</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -22815,7 +22815,7 @@
         <v>45910.43229166666</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -22872,7 +22872,7 @@
         <v>44523</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -22929,7 +22929,7 @@
         <v>44638.56855324074</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -22986,7 +22986,7 @@
         <v>45812.65798611111</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23043,7 +23043,7 @@
         <v>45695.37408564815</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23100,7 +23100,7 @@
         <v>45915.60363425926</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23157,7 +23157,7 @@
         <v>45013.43306712963</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23214,7 +23214,7 @@
         <v>45013.43763888889</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23271,7 +23271,7 @@
         <v>45915.60884259259</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23328,7 +23328,7 @@
         <v>45847.65952546296</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23385,7 +23385,7 @@
         <v>45847.5694212963</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23442,7 +23442,7 @@
         <v>45126</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23499,7 +23499,7 @@
         <v>45917.4018287037</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23556,7 +23556,7 @@
         <v>45361.81741898148</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23613,7 +23613,7 @@
         <v>45917.40012731482</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -23670,7 +23670,7 @@
         <v>45558</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -23727,7 +23727,7 @@
         <v>45917.40362268518</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -23784,7 +23784,7 @@
         <v>45917.40538194445</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -23841,7 +23841,7 @@
         <v>44354</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -23898,7 +23898,7 @@
         <v>45917.45751157407</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -23955,7 +23955,7 @@
         <v>45919.34627314815</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24012,7 +24012,7 @@
         <v>45918</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24069,7 +24069,7 @@
         <v>45162.56537037037</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24126,7 +24126,7 @@
         <v>45919.34983796296</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -24183,7 +24183,7 @@
         <v>44636</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24240,7 +24240,7 @@
         <v>45917.33334490741</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24297,7 +24297,7 @@
         <v>45923.53277777778</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24354,7 +24354,7 @@
         <v>45342</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24411,7 +24411,7 @@
         <v>44309</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24468,7 +24468,7 @@
         <v>45922</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -24525,7 +24525,7 @@
         <v>45922.39582175926</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -24582,7 +24582,7 @@
         <v>45707</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -24639,7 +24639,7 @@
         <v>45922</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -24696,7 +24696,7 @@
         <v>45923.44908564815</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -24753,7 +24753,7 @@
         <v>45923.43107638889</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -24810,7 +24810,7 @@
         <v>45923.37813657407</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -24867,7 +24867,7 @@
         <v>45923.37575231482</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -24924,7 +24924,7 @@
         <v>45923.44246527777</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -24981,7 +24981,7 @@
         <v>45923.52947916667</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25038,7 +25038,7 @@
         <v>45095.39417824074</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25095,7 +25095,7 @@
         <v>45602.58842592593</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -25152,7 +25152,7 @@
         <v>45602.61121527778</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -25209,7 +25209,7 @@
         <v>45735.96366898148</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -25266,7 +25266,7 @@
         <v>45789.45869212963</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25323,7 +25323,7 @@
         <v>45887.44877314815</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -25380,7 +25380,7 @@
         <v>45747.85570601852</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -25437,7 +25437,7 @@
         <v>45526.70548611111</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -25494,7 +25494,7 @@
         <v>45925</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -25551,7 +25551,7 @@
         <v>44860</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -25608,7 +25608,7 @@
         <v>45928</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -25665,7 +25665,7 @@
         <v>45929.38549768519</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -25722,7 +25722,7 @@
         <v>45929.73125</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -25779,7 +25779,7 @@
         <v>45929.73858796297</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -25836,7 +25836,7 @@
         <v>45929.74033564814</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -25893,7 +25893,7 @@
         <v>45929.38221064815</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -25950,7 +25950,7 @@
         <v>45841</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -26007,7 +26007,7 @@
         <v>45929.67434027778</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -26064,7 +26064,7 @@
         <v>45050</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -26121,7 +26121,7 @@
         <v>45104</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -26178,7 +26178,7 @@
         <v>45749</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -26235,7 +26235,7 @@
         <v>45873.57835648148</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -26292,7 +26292,7 @@
         <v>45251.80711805556</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -26349,7 +26349,7 @@
         <v>45251</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -26406,7 +26406,7 @@
         <v>45316</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -26463,7 +26463,7 @@
         <v>45715.39251157407</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -26520,7 +26520,7 @@
         <v>45930</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -26577,7 +26577,7 @@
         <v>45250.37905092593</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -26634,7 +26634,7 @@
         <v>45930</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -26691,7 +26691,7 @@
         <v>45875.60252314815</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -26748,7 +26748,7 @@
         <v>45875.66709490741</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -26805,7 +26805,7 @@
         <v>45931</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -26862,7 +26862,7 @@
         <v>45931</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -26919,7 +26919,7 @@
         <v>45875.61711805555</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -26976,7 +26976,7 @@
         <v>45084</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -27033,7 +27033,7 @@
         <v>44474.8949537037</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -27090,7 +27090,7 @@
         <v>45645.3549537037</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -27147,7 +27147,7 @@
         <v>45875.60789351852</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -27204,7 +27204,7 @@
         <v>44461</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -27261,7 +27261,7 @@
         <v>45335</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -27318,7 +27318,7 @@
         <v>45880</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -27375,7 +27375,7 @@
         <v>45334.6330787037</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -27432,7 +27432,7 @@
         <v>45880</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -27489,7 +27489,7 @@
         <v>45135.61125</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -27546,7 +27546,7 @@
         <v>45880</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -27603,7 +27603,7 @@
         <v>45370.63612268519</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -27660,7 +27660,7 @@
         <v>45883.50537037037</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -27717,7 +27717,7 @@
         <v>45937</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -27774,7 +27774,7 @@
         <v>45169.45913194444</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -27831,7 +27831,7 @@
         <v>45883.50228009259</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -27888,7 +27888,7 @@
         <v>45093.50841435185</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -27945,7 +27945,7 @@
         <v>45772</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -28002,7 +28002,7 @@
         <v>45133</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -28059,7 +28059,7 @@
         <v>45251.80934027778</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -28116,7 +28116,7 @@
         <v>44551.40351851852</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -28173,7 +28173,7 @@
         <v>45937</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -28230,7 +28230,7 @@
         <v>45937</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -28287,7 +28287,7 @@
         <v>45631</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -28344,7 +28344,7 @@
         <v>45334.63445601852</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -28401,7 +28401,7 @@
         <v>45358.64158564815</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -28458,7 +28458,7 @@
         <v>45133</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -28515,7 +28515,7 @@
         <v>45092.64113425926</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -28572,7 +28572,7 @@
         <v>44874</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -28629,7 +28629,7 @@
         <v>45703.81983796296</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -28686,7 +28686,7 @@
         <v>45180.62233796297</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -28743,7 +28743,7 @@
         <v>45945.59504629629</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -28800,7 +28800,7 @@
         <v>45945.61509259259</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -28857,7 +28857,7 @@
         <v>45749.69665509259</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -28914,7 +28914,7 @@
         <v>45945.60642361111</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -28971,7 +28971,7 @@
         <v>45166</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -29028,7 +29028,7 @@
         <v>45166.49883101852</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -29085,7 +29085,7 @@
         <v>45210.40899305556</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -29142,7 +29142,7 @@
         <v>45647.38805555556</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -29199,7 +29199,7 @@
         <v>45415</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -29256,7 +29256,7 @@
         <v>45091</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -29313,7 +29313,7 @@
         <v>45156.6415162037</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -29370,7 +29370,7 @@
         <v>45947.5568287037</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -29427,7 +29427,7 @@
         <v>45012</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -29484,7 +29484,7 @@
         <v>45159</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -29541,7 +29541,7 @@
         <v>45728.69217592593</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -29598,7 +29598,7 @@
         <v>45350.39834490741</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -29655,7 +29655,7 @@
         <v>45035.43935185186</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -29712,7 +29712,7 @@
         <v>45035.44078703703</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -29769,7 +29769,7 @@
         <v>44742</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -29826,7 +29826,7 @@
         <v>45343.56496527778</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -29883,7 +29883,7 @@
         <v>45106.36304398148</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -29940,7 +29940,7 @@
         <v>45957</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -29997,7 +29997,7 @@
         <v>44628</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -30054,7 +30054,7 @@
         <v>45092.68969907407</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -30111,7 +30111,7 @@
         <v>45954.66997685185</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -30168,7 +30168,7 @@
         <v>45089.43696759259</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -30225,7 +30225,7 @@
         <v>45089</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -30282,7 +30282,7 @@
         <v>45957</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -30339,7 +30339,7 @@
         <v>45715.38833333334</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -30396,7 +30396,7 @@
         <v>44636.83194444444</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -30453,7 +30453,7 @@
         <v>45148</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -30510,7 +30510,7 @@
         <v>45958.46466435185</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -30567,7 +30567,7 @@
         <v>45958.481875</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -30624,7 +30624,7 @@
         <v>45958.47736111111</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -30681,7 +30681,7 @@
         <v>45958</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -30738,7 +30738,7 @@
         <v>45958</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -30795,7 +30795,7 @@
         <v>45958.47434027777</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -30852,7 +30852,7 @@
         <v>45958.42738425926</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -30909,7 +30909,7 @@
         <v>45961</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -30966,7 +30966,7 @@
         <v>45245.50461805556</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -31023,7 +31023,7 @@
         <v>45106</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -31080,7 +31080,7 @@
         <v>45961</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -31137,7 +31137,7 @@
         <v>45961</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -31194,7 +31194,7 @@
         <v>45961</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -31251,7 +31251,7 @@
         <v>45645.87954861111</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -31308,7 +31308,7 @@
         <v>45580.72222222222</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -31365,7 +31365,7 @@
         <v>45217</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -31422,7 +31422,7 @@
         <v>45713</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -31479,7 +31479,7 @@
         <v>45212</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -31536,7 +31536,7 @@
         <v>45631</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -31593,7 +31593,7 @@
         <v>45645.35019675926</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -31650,7 +31650,7 @@
         <v>45967.6153587963</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -31707,7 +31707,7 @@
         <v>45938</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -31764,7 +31764,7 @@
         <v>45173.44273148148</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -31821,7 +31821,7 @@
         <v>45579</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -31878,7 +31878,7 @@
         <v>45340</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -31935,7 +31935,7 @@
         <v>44911</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -31992,7 +31992,7 @@
         <v>44285.43282407407</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -32049,7 +32049,7 @@
         <v>45013.44094907407</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -32106,7 +32106,7 @@
         <v>45538</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -32163,7 +32163,7 @@
         <v>45012</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -32220,7 +32220,7 @@
         <v>45727.53451388889</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -32277,7 +32277,7 @@
         <v>45968.38364583333</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -32334,7 +32334,7 @@
         <v>45407.61273148148</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -32391,7 +32391,7 @@
         <v>45735.7075462963</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -32448,7 +32448,7 @@
         <v>45495.63521990741</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -32505,7 +32505,7 @@
         <v>45972.83649305555</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -32562,7 +32562,7 @@
         <v>45971.94402777778</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -32619,7 +32619,7 @@
         <v>44433</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -32676,7 +32676,7 @@
         <v>45971.94936342593</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -32733,7 +32733,7 @@
         <v>45973.66715277778</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -32790,7 +32790,7 @@
         <v>45118</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -32847,7 +32847,7 @@
         <v>45106.36086805556</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -32904,7 +32904,7 @@
         <v>45002.57140046296</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -32961,7 +32961,7 @@
         <v>44302</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -33018,7 +33018,7 @@
         <v>44936</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -33075,7 +33075,7 @@
         <v>45932</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -33132,7 +33132,7 @@
         <v>45932</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -33189,7 +33189,7 @@
         <v>44753</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -33246,7 +33246,7 @@
         <v>45978.37158564815</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -33303,7 +33303,7 @@
         <v>45978.46636574074</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -33360,7 +33360,7 @@
         <v>45978.6052662037</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -33417,7 +33417,7 @@
         <v>45194.39523148148</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -33474,7 +33474,7 @@
         <v>44862</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -33531,7 +33531,7 @@
         <v>45106.43407407407</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -33588,7 +33588,7 @@
         <v>45978</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -33645,7 +33645,7 @@
         <v>45981.5834375</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -33702,7 +33702,7 @@
         <v>45980.62664351852</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -33759,7 +33759,7 @@
         <v>45630.58119212963</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -33816,7 +33816,7 @@
         <v>45981.59913194444</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -33873,7 +33873,7 @@
         <v>45981.47199074074</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -33930,7 +33930,7 @@
         <v>45587</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -33987,7 +33987,7 @@
         <v>45980.59621527778</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -34044,7 +34044,7 @@
         <v>45551.91032407407</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -34101,7 +34101,7 @@
         <v>45980.62510416667</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -34158,7 +34158,7 @@
         <v>45117</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -34215,7 +34215,7 @@
         <v>45168.89541666667</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -34272,7 +34272,7 @@
         <v>45351.67325231482</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -34329,7 +34329,7 @@
         <v>45982.47952546296</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -34386,7 +34386,7 @@
         <v>45985.56918981481</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -34443,7 +34443,7 @@
         <v>45985.56715277778</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -34500,7 +34500,7 @@
         <v>45982.4753125</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -34557,7 +34557,7 @@
         <v>45619.67202546296</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -34614,7 +34614,7 @@
         <v>45154.93615740741</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -34671,7 +34671,7 @@
         <v>44930</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -34728,7 +34728,7 @@
         <v>44530.55888888889</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -34785,7 +34785,7 @@
         <v>45693</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -34842,7 +34842,7 @@
         <v>44473</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -34899,7 +34899,7 @@
         <v>44295.58509259259</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -34956,7 +34956,7 @@
         <v>45988.49774305556</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -35013,7 +35013,7 @@
         <v>45537.91339120371</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -35070,7 +35070,7 @@
         <v>45846</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -35132,7 +35132,7 @@
         <v>45905</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -35194,7 +35194,7 @@
         <v>45012.60288194445</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -35251,7 +35251,7 @@
         <v>45903</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -35313,7 +35313,7 @@
         <v>44809.41969907407</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -35370,7 +35370,7 @@
         <v>44756.55196759259</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -35427,7 +35427,7 @@
         <v>45910</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -35484,7 +35484,7 @@
         <v>45993.32045138889</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -35541,7 +35541,7 @@
         <v>45077</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -35598,7 +35598,7 @@
         <v>44942</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -35655,7 +35655,7 @@
         <v>45846</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -35717,7 +35717,7 @@
         <v>45604.4915625</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -35774,7 +35774,7 @@
         <v>45993.32222222222</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -35831,7 +35831,7 @@
         <v>45107.6715625</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -35888,7 +35888,7 @@
         <v>44728.67653935185</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -35945,7 +35945,7 @@
         <v>45695.37572916667</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -36002,7 +36002,7 @@
         <v>45994.6533912037</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -36059,7 +36059,7 @@
         <v>45469.37361111111</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -36116,7 +36116,7 @@
         <v>45995</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -36173,7 +36173,7 @@
         <v>44323</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -36230,7 +36230,7 @@
         <v>44981</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -36287,7 +36287,7 @@
         <v>45995</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -36344,7 +36344,7 @@
         <v>45610.38868055555</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -36401,7 +36401,7 @@
         <v>44596</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -36463,7 +36463,7 @@
         <v>45554</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -36520,7 +36520,7 @@
         <v>46037.80730324074</v>
       </c>
       <c r="C618" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -36577,7 +36577,7 @@
         <v>45610</v>
       </c>
       <c r="C619" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -36634,7 +36634,7 @@
         <v>44876.36309027778</v>
       </c>
       <c r="C620" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -36691,7 +36691,7 @@
         <v>45551</v>
       </c>
       <c r="C621" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -36748,7 +36748,7 @@
         <v>46042</v>
       </c>
       <c r="C622" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -36805,7 +36805,7 @@
         <v>46042.49659722222</v>
       </c>
       <c r="C623" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -36862,7 +36862,7 @@
         <v>46042</v>
       </c>
       <c r="C624" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -36919,7 +36919,7 @@
         <v>45127</v>
       </c>
       <c r="C625" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -36976,7 +36976,7 @@
         <v>45512</v>
       </c>
       <c r="C626" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -37033,7 +37033,7 @@
         <v>45166.6434375</v>
       </c>
       <c r="C627" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -37090,7 +37090,7 @@
         <v>44543</v>
       </c>
       <c r="C628" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -37147,7 +37147,7 @@
         <v>46000.59715277778</v>
       </c>
       <c r="C629" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -37204,7 +37204,7 @@
         <v>46002.35725694444</v>
       </c>
       <c r="C630" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -37261,7 +37261,7 @@
         <v>45261.4658449074</v>
       </c>
       <c r="C631" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -37318,7 +37318,7 @@
         <v>45366.65268518519</v>
       </c>
       <c r="C632" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -37375,7 +37375,7 @@
         <v>45202.53679398148</v>
       </c>
       <c r="C633" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -37432,7 +37432,7 @@
         <v>46002.36429398148</v>
       </c>
       <c r="C634" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -37489,7 +37489,7 @@
         <v>45075.52633101852</v>
       </c>
       <c r="C635" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D635" t="inlineStr">
         <is>
@@ -37546,7 +37546,7 @@
         <v>44930</v>
       </c>
       <c r="C636" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -37603,7 +37603,7 @@
         <v>46002.36811342592</v>
       </c>
       <c r="C637" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D637" t="inlineStr">
         <is>
@@ -37660,7 +37660,7 @@
         <v>45013.82003472222</v>
       </c>
       <c r="C638" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D638" t="inlineStr">
         <is>
@@ -37717,7 +37717,7 @@
         <v>46042.54811342592</v>
       </c>
       <c r="C639" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D639" t="inlineStr">
         <is>
@@ -37774,7 +37774,7 @@
         <v>45720.43899305556</v>
       </c>
       <c r="C640" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D640" t="inlineStr">
         <is>
@@ -37831,7 +37831,7 @@
         <v>46048.60737268518</v>
       </c>
       <c r="C641" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D641" t="inlineStr">
         <is>
@@ -37888,7 +37888,7 @@
         <v>46048.64427083333</v>
       </c>
       <c r="C642" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D642" t="inlineStr">
         <is>
@@ -37945,7 +37945,7 @@
         <v>46049.59381944445</v>
       </c>
       <c r="C643" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D643" t="inlineStr">
         <is>
@@ -38002,7 +38002,7 @@
         <v>45082</v>
       </c>
       <c r="C644" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D644" t="inlineStr">
         <is>
@@ -38059,7 +38059,7 @@
         <v>46048.64267361111</v>
       </c>
       <c r="C645" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D645" t="inlineStr">
         <is>
@@ -38116,7 +38116,7 @@
         <v>45712.92822916667</v>
       </c>
       <c r="C646" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D646" t="inlineStr">
         <is>
@@ -38173,7 +38173,7 @@
         <v>45014.91954861111</v>
       </c>
       <c r="C647" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D647" t="inlineStr">
         <is>
@@ -38230,7 +38230,7 @@
         <v>45085</v>
       </c>
       <c r="C648" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D648" t="inlineStr">
         <is>
@@ -38287,7 +38287,7 @@
         <v>46048.6109375</v>
       </c>
       <c r="C649" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D649" t="inlineStr">
         <is>
@@ -38344,7 +38344,7 @@
         <v>46007.87877314815</v>
       </c>
       <c r="C650" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D650" t="inlineStr">
         <is>
@@ -38401,7 +38401,7 @@
         <v>45107.66918981481</v>
       </c>
       <c r="C651" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D651" t="inlineStr">
         <is>
@@ -38458,7 +38458,7 @@
         <v>44614</v>
       </c>
       <c r="C652" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D652" t="inlineStr">
         <is>
@@ -38515,7 +38515,7 @@
         <v>46007.89254629629</v>
       </c>
       <c r="C653" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D653" t="inlineStr">
         <is>
@@ -38572,7 +38572,7 @@
         <v>45007.47481481481</v>
       </c>
       <c r="C654" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D654" t="inlineStr">
         <is>
@@ -38629,7 +38629,7 @@
         <v>45007.48090277778</v>
       </c>
       <c r="C655" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D655" t="inlineStr">
         <is>
@@ -38686,7 +38686,7 @@
         <v>46007.88675925926</v>
       </c>
       <c r="C656" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D656" t="inlineStr">
         <is>
@@ -38743,7 +38743,7 @@
         <v>45215.46303240741</v>
       </c>
       <c r="C657" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D657" t="inlineStr">
         <is>
@@ -38800,7 +38800,7 @@
         <v>45551</v>
       </c>
       <c r="C658" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D658" t="inlineStr">
         <is>
@@ -38857,7 +38857,7 @@
         <v>44691.62384259259</v>
       </c>
       <c r="C659" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D659" t="inlineStr">
         <is>
@@ -38914,7 +38914,7 @@
         <v>45085</v>
       </c>
       <c r="C660" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D660" t="inlineStr">
         <is>
@@ -38971,7 +38971,7 @@
         <v>44799</v>
       </c>
       <c r="C661" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D661" t="inlineStr">
         <is>
@@ -39028,7 +39028,7 @@
         <v>44641.60950231482</v>
       </c>
       <c r="C662" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D662" t="inlineStr">
         <is>
@@ -39085,7 +39085,7 @@
         <v>44302</v>
       </c>
       <c r="C663" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D663" t="inlineStr">
         <is>
@@ -39142,7 +39142,7 @@
         <v>45077.43820601852</v>
       </c>
       <c r="C664" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D664" t="inlineStr">
         <is>
@@ -39199,7 +39199,7 @@
         <v>45537.91421296296</v>
       </c>
       <c r="C665" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D665" t="inlineStr">
         <is>
@@ -39256,7 +39256,7 @@
         <v>45538</v>
       </c>
       <c r="C666" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D666" t="inlineStr">
         <is>
@@ -39313,7 +39313,7 @@
         <v>45393.30091435185</v>
       </c>
       <c r="C667" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D667" t="inlineStr">
         <is>
@@ -39370,7 +39370,7 @@
         <v>45170.64689814814</v>
       </c>
       <c r="C668" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D668" t="inlineStr">
         <is>
@@ -39427,7 +39427,7 @@
         <v>46051</v>
       </c>
       <c r="C669" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D669" t="inlineStr">
         <is>
@@ -39484,7 +39484,7 @@
         <v>44349</v>
       </c>
       <c r="C670" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D670" t="inlineStr">
         <is>
@@ -39541,7 +39541,7 @@
         <v>46051</v>
       </c>
       <c r="C671" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D671" t="inlineStr">
         <is>
@@ -39598,7 +39598,7 @@
         <v>45166.65524305555</v>
       </c>
       <c r="C672" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D672" t="inlineStr">
         <is>
@@ -39655,7 +39655,7 @@
         <v>46051</v>
       </c>
       <c r="C673" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D673" t="inlineStr">
         <is>
@@ -39712,7 +39712,7 @@
         <v>45251.55815972222</v>
       </c>
       <c r="C674" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D674" t="inlineStr">
         <is>
@@ -39769,7 +39769,7 @@
         <v>44631.65131944444</v>
       </c>
       <c r="C675" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D675" t="inlineStr">
         <is>
@@ -39826,7 +39826,7 @@
         <v>46052.84638888889</v>
       </c>
       <c r="C676" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D676" t="inlineStr">
         <is>
@@ -39883,7 +39883,7 @@
         <v>45463.42392361111</v>
       </c>
       <c r="C677" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D677" t="inlineStr">
         <is>
@@ -39940,7 +39940,7 @@
         <v>45463.42876157408</v>
       </c>
       <c r="C678" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D678" t="inlineStr">
         <is>
@@ -39997,7 +39997,7 @@
         <v>45766</v>
       </c>
       <c r="C679" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D679" t="inlineStr">
         <is>
@@ -40054,7 +40054,7 @@
         <v>45057</v>
       </c>
       <c r="C680" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D680" t="inlineStr">
         <is>
@@ -40111,7 +40111,7 @@
         <v>44754</v>
       </c>
       <c r="C681" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D681" t="inlineStr">
         <is>
@@ -40168,7 +40168,7 @@
         <v>45092</v>
       </c>
       <c r="C682" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D682" t="inlineStr">
         <is>
@@ -40225,7 +40225,7 @@
         <v>45009.46116898148</v>
       </c>
       <c r="C683" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D683" t="inlineStr">
         <is>
@@ -40282,7 +40282,7 @@
         <v>45455.45792824074</v>
       </c>
       <c r="C684" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D684" t="inlineStr">
         <is>
@@ -40339,7 +40339,7 @@
         <v>46056.46877314815</v>
       </c>
       <c r="C685" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D685" t="inlineStr">
         <is>
@@ -40396,7 +40396,7 @@
         <v>45238</v>
       </c>
       <c r="C686" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D686" t="inlineStr">
         <is>
@@ -40453,7 +40453,7 @@
         <v>44511.57038194445</v>
       </c>
       <c r="C687" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D687" t="inlineStr">
         <is>
@@ -40510,7 +40510,7 @@
         <v>46058.50160879629</v>
       </c>
       <c r="C688" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D688" t="inlineStr">
         <is>
@@ -40567,7 +40567,7 @@
         <v>45775.63248842592</v>
       </c>
       <c r="C689" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D689" t="inlineStr">
         <is>
@@ -40624,7 +40624,7 @@
         <v>44580</v>
       </c>
       <c r="C690" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D690" t="inlineStr">
         <is>
@@ -40681,7 +40681,7 @@
         <v>45315.87924768519</v>
       </c>
       <c r="C691" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D691" t="inlineStr">
         <is>
@@ -40738,7 +40738,7 @@
         <v>46059.78087962963</v>
       </c>
       <c r="C692" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D692" t="inlineStr">
         <is>
@@ -40795,7 +40795,7 @@
         <v>45043.65984953703</v>
       </c>
       <c r="C693" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D693" t="inlineStr">
         <is>
@@ -40852,7 +40852,7 @@
         <v>45050</v>
       </c>
       <c r="C694" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D694" t="inlineStr">
         <is>
@@ -40909,7 +40909,7 @@
         <v>44284</v>
       </c>
       <c r="C695" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D695" t="inlineStr">
         <is>
@@ -40966,7 +40966,7 @@
         <v>45266.39803240741</v>
       </c>
       <c r="C696" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D696" t="inlineStr">
         <is>
@@ -41023,7 +41023,7 @@
         <v>45113.47337962963</v>
       </c>
       <c r="C697" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D697" t="inlineStr">
         <is>
@@ -41080,7 +41080,7 @@
         <v>44881</v>
       </c>
       <c r="C698" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D698" t="inlineStr">
         <is>
@@ -41137,7 +41137,7 @@
         <v>46064.68466435185</v>
       </c>
       <c r="C699" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D699" t="inlineStr">
         <is>
@@ -41194,7 +41194,7 @@
         <v>44920</v>
       </c>
       <c r="C700" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D700" t="inlineStr">
         <is>
@@ -41251,7 +41251,7 @@
         <v>45756.60348379629</v>
       </c>
       <c r="C701" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D701" t="inlineStr">
         <is>
@@ -41308,7 +41308,7 @@
         <v>45756.60971064815</v>
       </c>
       <c r="C702" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D702" t="inlineStr">
         <is>
@@ -41365,7 +41365,7 @@
         <v>45055</v>
       </c>
       <c r="C703" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D703" t="inlineStr">
         <is>
@@ -41422,7 +41422,7 @@
         <v>46056</v>
       </c>
       <c r="C704" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D704" t="inlineStr">
         <is>
@@ -41479,7 +41479,7 @@
         <v>46066</v>
       </c>
       <c r="C705" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D705" t="inlineStr">
         <is>
@@ -41536,7 +41536,7 @@
         <v>46027.61513888889</v>
       </c>
       <c r="C706" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D706" t="inlineStr">
         <is>
@@ -41593,7 +41593,7 @@
         <v>44545.89236111111</v>
       </c>
       <c r="C707" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D707" t="inlineStr">
         <is>
@@ -41650,7 +41650,7 @@
         <v>46062</v>
       </c>
       <c r="C708" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D708" t="inlineStr">
         <is>
@@ -41707,7 +41707,7 @@
         <v>44988</v>
       </c>
       <c r="C709" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D709" t="inlineStr">
         <is>
@@ -41764,7 +41764,7 @@
         <v>46069.51390046296</v>
       </c>
       <c r="C710" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D710" t="inlineStr">
         <is>
@@ -41821,7 +41821,7 @@
         <v>44960.28089120371</v>
       </c>
       <c r="C711" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D711" t="inlineStr">
         <is>
@@ -41878,7 +41878,7 @@
         <v>46069</v>
       </c>
       <c r="C712" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D712" t="inlineStr">
         <is>
@@ -41935,7 +41935,7 @@
         <v>45722</v>
       </c>
       <c r="C713" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D713" t="inlineStr">
         <is>
@@ -41992,7 +41992,7 @@
         <v>44441</v>
       </c>
       <c r="C714" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D714" t="inlineStr">
         <is>
@@ -42049,7 +42049,7 @@
         <v>45279.34813657407</v>
       </c>
       <c r="C715" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D715" t="inlineStr">
         <is>
@@ -42106,7 +42106,7 @@
         <v>45387.88914351852</v>
       </c>
       <c r="C716" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D716" t="inlineStr">
         <is>
@@ -42163,7 +42163,7 @@
         <v>45387.37787037037</v>
       </c>
       <c r="C717" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D717" t="inlineStr">
         <is>
@@ -42220,7 +42220,7 @@
         <v>45080</v>
       </c>
       <c r="C718" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D718" t="inlineStr">
         <is>
@@ -42277,7 +42277,7 @@
         <v>46070</v>
       </c>
       <c r="C719" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D719" t="inlineStr">
         <is>
@@ -42334,7 +42334,7 @@
         <v>45238.3500462963</v>
       </c>
       <c r="C720" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D720" t="inlineStr">
         <is>
@@ -42391,7 +42391,7 @@
         <v>45247</v>
       </c>
       <c r="C721" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D721" t="inlineStr">
         <is>
@@ -42448,7 +42448,7 @@
         <v>45243.34587962963</v>
       </c>
       <c r="C722" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D722" t="inlineStr">
         <is>
@@ -42505,7 +42505,7 @@
         <v>46070</v>
       </c>
       <c r="C723" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D723" t="inlineStr">
         <is>
@@ -42562,7 +42562,7 @@
         <v>44435</v>
       </c>
       <c r="C724" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D724" t="inlineStr">
         <is>
@@ -42619,7 +42619,7 @@
         <v>45105.41936342593</v>
       </c>
       <c r="C725" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D725" t="inlineStr">
         <is>
@@ -42676,7 +42676,7 @@
         <v>46029.3747337963</v>
       </c>
       <c r="C726" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D726" t="inlineStr">
         <is>
@@ -42733,7 +42733,7 @@
         <v>45106.3509837963</v>
       </c>
       <c r="C727" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D727" t="inlineStr">
         <is>
@@ -42790,7 +42790,7 @@
         <v>46070.93134259259</v>
       </c>
       <c r="C728" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D728" t="inlineStr">
         <is>
@@ -42847,7 +42847,7 @@
         <v>46070.93451388889</v>
       </c>
       <c r="C729" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D729" t="inlineStr">
         <is>
@@ -42904,7 +42904,7 @@
         <v>45499</v>
       </c>
       <c r="C730" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D730" t="inlineStr">
         <is>
@@ -42961,7 +42961,7 @@
         <v>45165.53146990741</v>
       </c>
       <c r="C731" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D731" t="inlineStr">
         <is>
@@ -43018,7 +43018,7 @@
         <v>46031.40931712963</v>
       </c>
       <c r="C732" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D732" t="inlineStr">
         <is>
@@ -43075,7 +43075,7 @@
         <v>45524</v>
       </c>
       <c r="C733" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D733" t="inlineStr">
         <is>
@@ -43132,7 +43132,7 @@
         <v>45218.41484953704</v>
       </c>
       <c r="C734" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D734" t="inlineStr">
         <is>
@@ -43189,7 +43189,7 @@
         <v>44866</v>
       </c>
       <c r="C735" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D735" t="inlineStr">
         <is>
@@ -43246,7 +43246,7 @@
         <v>46030</v>
       </c>
       <c r="C736" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D736" t="inlineStr">
         <is>
@@ -43303,7 +43303,7 @@
         <v>44305</v>
       </c>
       <c r="C737" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D737" t="inlineStr">
         <is>
@@ -43360,7 +43360,7 @@
         <v>45264</v>
       </c>
       <c r="C738" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D738" t="inlineStr">
         <is>
@@ -43417,7 +43417,7 @@
         <v>45188.45027777777</v>
       </c>
       <c r="C739" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D739" t="inlineStr">
         <is>
@@ -43474,7 +43474,7 @@
         <v>45093</v>
       </c>
       <c r="C740" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D740" t="inlineStr">
         <is>
@@ -43531,7 +43531,7 @@
         <v>45664.61273148148</v>
       </c>
       <c r="C741" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D741" t="inlineStr">
         <is>
@@ -43588,7 +43588,7 @@
         <v>45113.47484953704</v>
       </c>
       <c r="C742" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D742" t="inlineStr">
         <is>
@@ -43645,7 +43645,7 @@
         <v>44914.59365740741</v>
       </c>
       <c r="C743" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D743" t="inlineStr">
         <is>
@@ -43702,7 +43702,7 @@
         <v>45321.65413194444</v>
       </c>
       <c r="C744" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D744" t="inlineStr">
         <is>
@@ -43759,7 +43759,7 @@
         <v>45127.48940972222</v>
       </c>
       <c r="C745" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D745" t="inlineStr">
         <is>
@@ -43816,7 +43816,7 @@
         <v>45238</v>
       </c>
       <c r="C746" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D746" t="inlineStr">
         <is>
@@ -43873,7 +43873,7 @@
         <v>45334.4565162037</v>
       </c>
       <c r="C747" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D747" t="inlineStr">
         <is>
@@ -43930,7 +43930,7 @@
         <v>45699.59120370371</v>
       </c>
       <c r="C748" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D748" t="inlineStr">
         <is>
@@ -43987,7 +43987,7 @@
         <v>45662</v>
       </c>
       <c r="C749" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D749" t="inlineStr">
         <is>
@@ -44044,7 +44044,7 @@
         <v>45631</v>
       </c>
       <c r="C750" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D750" t="inlineStr">
         <is>
@@ -44101,7 +44101,7 @@
         <v>45531.4630787037</v>
       </c>
       <c r="C751" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D751" t="inlineStr">
         <is>
@@ -44158,7 +44158,7 @@
         <v>44991.60873842592</v>
       </c>
       <c r="C752" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D752" t="inlineStr">
         <is>
@@ -44215,7 +44215,7 @@
         <v>44624</v>
       </c>
       <c r="C753" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D753" t="inlineStr">
         <is>
@@ -44272,7 +44272,7 @@
         <v>44939</v>
       </c>
       <c r="C754" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D754" t="inlineStr">
         <is>
@@ -44329,7 +44329,7 @@
         <v>44939.68549768518</v>
       </c>
       <c r="C755" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D755" t="inlineStr">
         <is>
@@ -44386,7 +44386,7 @@
         <v>45393.86842592592</v>
       </c>
       <c r="C756" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D756" t="inlineStr">
         <is>
@@ -44443,7 +44443,7 @@
         <v>45278.72490740741</v>
       </c>
       <c r="C757" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D757" t="inlineStr">
         <is>
@@ -44500,7 +44500,7 @@
         <v>45204.62678240741</v>
       </c>
       <c r="C758" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D758" t="inlineStr">
         <is>
@@ -44557,7 +44557,7 @@
         <v>45698.47751157408</v>
       </c>
       <c r="C759" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D759" t="inlineStr">
         <is>
@@ -44614,7 +44614,7 @@
         <v>45178</v>
       </c>
       <c r="C760" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D760" t="inlineStr">
         <is>
@@ -44671,7 +44671,7 @@
         <v>44585.33765046296</v>
       </c>
       <c r="C761" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D761" t="inlineStr">
         <is>
@@ -44728,7 +44728,7 @@
         <v>45062.38054398148</v>
       </c>
       <c r="C762" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D762" t="inlineStr">
         <is>
@@ -44785,7 +44785,7 @@
         <v>44893</v>
       </c>
       <c r="C763" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D763" t="inlineStr">
         <is>
@@ -44842,7 +44842,7 @@
         <v>45394.58707175926</v>
       </c>
       <c r="C764" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D764" t="inlineStr">
         <is>
@@ -44899,7 +44899,7 @@
         <v>45344.35084490741</v>
       </c>
       <c r="C765" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D765" t="inlineStr">
         <is>
@@ -44956,7 +44956,7 @@
         <v>44973.29771990741</v>
       </c>
       <c r="C766" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D766" t="inlineStr">
         <is>
@@ -45013,7 +45013,7 @@
         <v>44820</v>
       </c>
       <c r="C767" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D767" t="inlineStr">
         <is>
@@ -45070,7 +45070,7 @@
         <v>45673.28958333333</v>
       </c>
       <c r="C768" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D768" t="inlineStr">
         <is>
@@ -45127,7 +45127,7 @@
         <v>45309.44398148148</v>
       </c>
       <c r="C769" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D769" t="inlineStr">
         <is>
@@ -45184,7 +45184,7 @@
         <v>45142</v>
       </c>
       <c r="C770" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D770" t="inlineStr">
         <is>
@@ -45241,7 +45241,7 @@
         <v>44840.58092592593</v>
       </c>
       <c r="C771" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D771" t="inlineStr">
         <is>
@@ -45298,7 +45298,7 @@
         <v>45577.29355324074</v>
       </c>
       <c r="C772" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D772" t="inlineStr">
         <is>
@@ -45355,7 +45355,7 @@
         <v>45094</v>
       </c>
       <c r="C773" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D773" t="inlineStr">
         <is>
@@ -45412,7 +45412,7 @@
         <v>45208.83212962963</v>
       </c>
       <c r="C774" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D774" t="inlineStr">
         <is>
@@ -45469,7 +45469,7 @@
         <v>45393.30375</v>
       </c>
       <c r="C775" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D775" t="inlineStr">
         <is>
@@ -45526,7 +45526,7 @@
         <v>45161.47722222222</v>
       </c>
       <c r="C776" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D776" t="inlineStr">
         <is>
@@ -45583,7 +45583,7 @@
         <v>45531.94460648148</v>
       </c>
       <c r="C777" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D777" t="inlineStr">
         <is>
@@ -45640,7 +45640,7 @@
         <v>45140</v>
       </c>
       <c r="C778" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D778" t="inlineStr">
         <is>
@@ -45697,7 +45697,7 @@
         <v>45344.29208333333</v>
       </c>
       <c r="C779" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D779" t="inlineStr">
         <is>
@@ -45754,7 +45754,7 @@
         <v>45524.35208333333</v>
       </c>
       <c r="C780" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D780" t="inlineStr">
         <is>
@@ -45811,7 +45811,7 @@
         <v>45218.49332175926</v>
       </c>
       <c r="C781" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D781" t="inlineStr">
         <is>
@@ -45868,7 +45868,7 @@
         <v>44757.34600694444</v>
       </c>
       <c r="C782" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D782" t="inlineStr">
         <is>
@@ -45925,7 +45925,7 @@
         <v>44619</v>
       </c>
       <c r="C783" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D783" t="inlineStr">
         <is>
@@ -45982,7 +45982,7 @@
         <v>45195.77855324074</v>
       </c>
       <c r="C784" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D784" t="inlineStr">
         <is>
@@ -46039,7 +46039,7 @@
         <v>45180</v>
       </c>
       <c r="C785" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D785" t="inlineStr">
         <is>
@@ -46096,7 +46096,7 @@
         <v>45736.44543981482</v>
       </c>
       <c r="C786" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D786" t="inlineStr">
         <is>
@@ -46153,7 +46153,7 @@
         <v>45637.38047453704</v>
       </c>
       <c r="C787" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D787" t="inlineStr">
         <is>
@@ -46210,7 +46210,7 @@
         <v>45181</v>
       </c>
       <c r="C788" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D788" t="inlineStr">
         <is>
@@ -46267,7 +46267,7 @@
         <v>44825.97048611111</v>
       </c>
       <c r="C789" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D789" t="inlineStr">
         <is>
@@ -46324,7 +46324,7 @@
         <v>44445.65237268519</v>
       </c>
       <c r="C790" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D790" t="inlineStr">
         <is>
@@ -46381,7 +46381,7 @@
         <v>45309.69259259259</v>
       </c>
       <c r="C791" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D791" t="inlineStr">
         <is>
@@ -46438,7 +46438,7 @@
         <v>45182.43038194445</v>
       </c>
       <c r="C792" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D792" t="inlineStr">
         <is>
@@ -46495,7 +46495,7 @@
         <v>45747.50460648148</v>
       </c>
       <c r="C793" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D793" t="inlineStr">
         <is>
@@ -46552,7 +46552,7 @@
         <v>45090.87483796296</v>
       </c>
       <c r="C794" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D794" t="inlineStr">
         <is>
@@ -46609,7 +46609,7 @@
         <v>45324</v>
       </c>
       <c r="C795" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D795" t="inlineStr">
         <is>
@@ -46666,7 +46666,7 @@
         <v>45223.50019675926</v>
       </c>
       <c r="C796" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D796" t="inlineStr">
         <is>
@@ -46723,7 +46723,7 @@
         <v>45170</v>
       </c>
       <c r="C797" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D797" t="inlineStr">
         <is>
@@ -46780,7 +46780,7 @@
         <v>45042</v>
       </c>
       <c r="C798" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D798" t="inlineStr">
         <is>
@@ -46837,7 +46837,7 @@
         <v>45406.73519675926</v>
       </c>
       <c r="C799" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D799" t="inlineStr">
         <is>
@@ -46894,7 +46894,7 @@
         <v>45162</v>
       </c>
       <c r="C800" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D800" t="inlineStr">
         <is>
@@ -46951,7 +46951,7 @@
         <v>44893.475</v>
       </c>
       <c r="C801" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D801" t="inlineStr">
         <is>
@@ -47008,7 +47008,7 @@
         <v>45602</v>
       </c>
       <c r="C802" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D802" t="inlineStr">
         <is>
@@ -47065,7 +47065,7 @@
         <v>45092</v>
       </c>
       <c r="C803" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D803" t="inlineStr">
         <is>
@@ -47122,7 +47122,7 @@
         <v>45085</v>
       </c>
       <c r="C804" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D804" t="inlineStr">
         <is>
@@ -47179,7 +47179,7 @@
         <v>44930.78150462963</v>
       </c>
       <c r="C805" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D805" t="inlineStr">
         <is>
@@ -47236,7 +47236,7 @@
         <v>45624.45537037037</v>
       </c>
       <c r="C806" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D806" t="inlineStr">
         <is>
@@ -47293,7 +47293,7 @@
         <v>44461</v>
       </c>
       <c r="C807" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D807" t="inlineStr">
         <is>
@@ -47350,7 +47350,7 @@
         <v>45092</v>
       </c>
       <c r="C808" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D808" t="inlineStr">
         <is>
@@ -47407,7 +47407,7 @@
         <v>45454.72009259259</v>
       </c>
       <c r="C809" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D809" t="inlineStr">
         <is>
@@ -47464,7 +47464,7 @@
         <v>45169.6147337963</v>
       </c>
       <c r="C810" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D810" t="inlineStr">
         <is>
@@ -47521,7 +47521,7 @@
         <v>45573.72731481482</v>
       </c>
       <c r="C811" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D811" t="inlineStr">
         <is>
@@ -47578,7 +47578,7 @@
         <v>45761</v>
       </c>
       <c r="C812" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D812" t="inlineStr">
         <is>
@@ -47635,7 +47635,7 @@
         <v>44517</v>
       </c>
       <c r="C813" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D813" t="inlineStr">
         <is>
@@ -47692,7 +47692,7 @@
         <v>45027</v>
       </c>
       <c r="C814" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D814" t="inlineStr">
         <is>
@@ -47749,7 +47749,7 @@
         <v>45194.60591435185</v>
       </c>
       <c r="C815" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D815" t="inlineStr">
         <is>
@@ -47806,7 +47806,7 @@
         <v>45309.69599537037</v>
       </c>
       <c r="C816" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D816" t="inlineStr">
         <is>
@@ -47863,7 +47863,7 @@
         <v>44700</v>
       </c>
       <c r="C817" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D817" t="inlineStr">
         <is>
@@ -47920,7 +47920,7 @@
         <v>45674.37722222223</v>
       </c>
       <c r="C818" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D818" t="inlineStr">
         <is>
@@ -47977,7 +47977,7 @@
         <v>45744</v>
       </c>
       <c r="C819" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D819" t="inlineStr">
         <is>
@@ -48034,7 +48034,7 @@
         <v>45183</v>
       </c>
       <c r="C820" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D820" t="inlineStr">
         <is>
@@ -48091,7 +48091,7 @@
         <v>44603.56049768518</v>
       </c>
       <c r="C821" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D821" t="inlineStr">
         <is>
@@ -48148,7 +48148,7 @@
         <v>45225.8025</v>
       </c>
       <c r="C822" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D822" t="inlineStr">
         <is>
@@ -48205,7 +48205,7 @@
         <v>45393.66436342592</v>
       </c>
       <c r="C823" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D823" t="inlineStr">
         <is>
@@ -48262,7 +48262,7 @@
         <v>44616</v>
       </c>
       <c r="C824" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D824" t="inlineStr">
         <is>
@@ -48319,7 +48319,7 @@
         <v>45174.49248842592</v>
       </c>
       <c r="C825" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D825" t="inlineStr">
         <is>
@@ -48376,7 +48376,7 @@
         <v>45070</v>
       </c>
       <c r="C826" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D826" t="inlineStr">
         <is>
@@ -48433,7 +48433,7 @@
         <v>45037</v>
       </c>
       <c r="C827" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D827" t="inlineStr">
         <is>
@@ -48490,7 +48490,7 @@
         <v>45092</v>
       </c>
       <c r="C828" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D828" t="inlineStr">
         <is>
@@ -48547,7 +48547,7 @@
         <v>44909</v>
       </c>
       <c r="C829" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D829" t="inlineStr">
         <is>
@@ -48604,7 +48604,7 @@
         <v>45076.50148148148</v>
       </c>
       <c r="C830" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D830" t="inlineStr">
         <is>
@@ -48661,7 +48661,7 @@
         <v>44900.59222222222</v>
       </c>
       <c r="C831" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D831" t="inlineStr">
         <is>
@@ -48718,7 +48718,7 @@
         <v>45266</v>
       </c>
       <c r="C832" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D832" t="inlineStr">
         <is>
@@ -48775,7 +48775,7 @@
         <v>45571.82802083333</v>
       </c>
       <c r="C833" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D833" t="inlineStr">
         <is>
@@ -48832,7 +48832,7 @@
         <v>45565.79476851852</v>
       </c>
       <c r="C834" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D834" t="inlineStr">
         <is>
@@ -48889,7 +48889,7 @@
         <v>44722.55038194444</v>
       </c>
       <c r="C835" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D835" t="inlineStr">
         <is>
@@ -48946,7 +48946,7 @@
         <v>44903.44068287037</v>
       </c>
       <c r="C836" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D836" t="inlineStr">
         <is>
@@ -49003,7 +49003,7 @@
         <v>45154.94172453704</v>
       </c>
       <c r="C837" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D837" t="inlineStr">
         <is>
@@ -49060,7 +49060,7 @@
         <v>44711.57103009259</v>
       </c>
       <c r="C838" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D838" t="inlineStr">
         <is>
@@ -49117,7 +49117,7 @@
         <v>44693</v>
       </c>
       <c r="C839" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D839" t="inlineStr">
         <is>
@@ -49174,7 +49174,7 @@
         <v>44581.97131944444</v>
       </c>
       <c r="C840" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D840" t="inlineStr">
         <is>
@@ -49231,7 +49231,7 @@
         <v>45075.43681712963</v>
       </c>
       <c r="C841" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D841" t="inlineStr">
         <is>
@@ -49288,7 +49288,7 @@
         <v>45616.35783564814</v>
       </c>
       <c r="C842" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D842" t="inlineStr">
         <is>
@@ -49345,7 +49345,7 @@
         <v>45062.38267361111</v>
       </c>
       <c r="C843" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D843" t="inlineStr">
         <is>
@@ -49402,7 +49402,7 @@
         <v>45113</v>
       </c>
       <c r="C844" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D844" t="inlineStr">
         <is>
@@ -49459,7 +49459,7 @@
         <v>45672.66238425926</v>
       </c>
       <c r="C845" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D845" t="inlineStr">
         <is>
@@ -49516,7 +49516,7 @@
         <v>45301</v>
       </c>
       <c r="C846" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D846" t="inlineStr">
         <is>
@@ -49573,7 +49573,7 @@
         <v>44281</v>
       </c>
       <c r="C847" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D847" t="inlineStr">
         <is>
@@ -49630,7 +49630,7 @@
         <v>45030</v>
       </c>
       <c r="C848" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D848" t="inlineStr">
         <is>
@@ -49687,7 +49687,7 @@
         <v>45348.55489583333</v>
       </c>
       <c r="C849" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D849" t="inlineStr">
         <is>
@@ -49744,7 +49744,7 @@
         <v>44748</v>
       </c>
       <c r="C850" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D850" t="inlineStr">
         <is>
@@ -49801,7 +49801,7 @@
         <v>45775.59717592593</v>
       </c>
       <c r="C851" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D851" t="inlineStr">
         <is>
@@ -49858,7 +49858,7 @@
         <v>45048</v>
       </c>
       <c r="C852" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D852" t="inlineStr">
         <is>
@@ -49915,7 +49915,7 @@
         <v>45028.56200231481</v>
       </c>
       <c r="C853" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D853" t="inlineStr">
         <is>
@@ -49972,7 +49972,7 @@
         <v>45075</v>
       </c>
       <c r="C854" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D854" t="inlineStr">
         <is>
@@ -50029,7 +50029,7 @@
         <v>45604.45568287037</v>
       </c>
       <c r="C855" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D855" t="inlineStr">
         <is>
@@ -50086,7 +50086,7 @@
         <v>45625</v>
       </c>
       <c r="C856" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D856" t="inlineStr">
         <is>
@@ -50143,7 +50143,7 @@
         <v>45495.64009259259</v>
       </c>
       <c r="C857" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D857" t="inlineStr">
         <is>
@@ -50200,7 +50200,7 @@
         <v>45075.44275462963</v>
       </c>
       <c r="C858" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D858" t="inlineStr">
         <is>
@@ -50257,7 +50257,7 @@
         <v>45538</v>
       </c>
       <c r="C859" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D859" t="inlineStr">
         <is>
@@ -50314,7 +50314,7 @@
         <v>45594</v>
       </c>
       <c r="C860" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D860" t="inlineStr">
         <is>
@@ -50371,7 +50371,7 @@
         <v>45555.36652777778</v>
       </c>
       <c r="C861" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D861" t="inlineStr">
         <is>
@@ -50428,7 +50428,7 @@
         <v>45344.695</v>
       </c>
       <c r="C862" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D862" t="inlineStr">
         <is>
@@ -50490,7 +50490,7 @@
         <v>45499</v>
       </c>
       <c r="C863" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D863" t="inlineStr">
         <is>
@@ -50547,7 +50547,7 @@
         <v>45372.46738425926</v>
       </c>
       <c r="C864" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D864" t="inlineStr">
         <is>
@@ -50604,7 +50604,7 @@
         <v>45573.91842592593</v>
       </c>
       <c r="C865" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D865" t="inlineStr">
         <is>
@@ -50661,7 +50661,7 @@
         <v>45621</v>
       </c>
       <c r="C866" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D866" t="inlineStr">
         <is>
@@ -50718,7 +50718,7 @@
         <v>44398</v>
       </c>
       <c r="C867" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D867" t="inlineStr">
         <is>
@@ -50775,7 +50775,7 @@
         <v>45782</v>
       </c>
       <c r="C868" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D868" t="inlineStr">
         <is>
@@ -50832,7 +50832,7 @@
         <v>45783.29873842592</v>
       </c>
       <c r="C869" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D869" t="inlineStr">
         <is>
@@ -50889,7 +50889,7 @@
         <v>45783.38400462963</v>
       </c>
       <c r="C870" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D870" t="inlineStr">
         <is>
@@ -50946,7 +50946,7 @@
         <v>45783.43942129629</v>
       </c>
       <c r="C871" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D871" t="inlineStr">
         <is>
@@ -51003,7 +51003,7 @@
         <v>45387.90001157407</v>
       </c>
       <c r="C872" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D872" t="inlineStr">
         <is>
@@ -51060,7 +51060,7 @@
         <v>45784.28789351852</v>
       </c>
       <c r="C873" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D873" t="inlineStr">
         <is>
@@ -51117,7 +51117,7 @@
         <v>45784.29160879629</v>
       </c>
       <c r="C874" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D874" t="inlineStr">
         <is>
@@ -51174,7 +51174,7 @@
         <v>45624.8330324074</v>
       </c>
       <c r="C875" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D875" t="inlineStr">
         <is>
@@ -51231,7 +51231,7 @@
         <v>45784.5990625</v>
       </c>
       <c r="C876" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D876" t="inlineStr">
         <is>
@@ -51288,7 +51288,7 @@
         <v>45784.60247685185</v>
       </c>
       <c r="C877" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D877" t="inlineStr">
         <is>
@@ -51345,7 +51345,7 @@
         <v>45784.28640046297</v>
       </c>
       <c r="C878" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D878" t="inlineStr">
         <is>
@@ -51402,7 +51402,7 @@
         <v>45674.37980324074</v>
       </c>
       <c r="C879" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D879" t="inlineStr">
         <is>
@@ -51459,7 +51459,7 @@
         <v>45714.8555324074</v>
       </c>
       <c r="C880" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D880" t="inlineStr">
         <is>
@@ -51516,7 +51516,7 @@
         <v>45631.39092592592</v>
       </c>
       <c r="C881" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D881" t="inlineStr">
         <is>
@@ -51573,7 +51573,7 @@
         <v>45785.77976851852</v>
       </c>
       <c r="C882" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D882" t="inlineStr">
         <is>
@@ -51630,7 +51630,7 @@
         <v>45789.66337962963</v>
       </c>
       <c r="C883" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D883" t="inlineStr">
         <is>
@@ -51687,7 +51687,7 @@
         <v>44496</v>
       </c>
       <c r="C884" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D884" t="inlineStr">
         <is>
@@ -51744,7 +51744,7 @@
         <v>45656.2784375</v>
       </c>
       <c r="C885" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D885" t="inlineStr">
         <is>
@@ -51801,7 +51801,7 @@
         <v>45453</v>
       </c>
       <c r="C886" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D886" t="inlineStr">
         <is>
@@ -51858,7 +51858,7 @@
         <v>45754.36746527778</v>
       </c>
       <c r="C887" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D887" t="inlineStr">
         <is>
@@ -51915,7 +51915,7 @@
         <v>45475</v>
       </c>
       <c r="C888" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D888" t="inlineStr">
         <is>
@@ -51972,7 +51972,7 @@
         <v>45691.70079861111</v>
       </c>
       <c r="C889" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D889" t="inlineStr">
         <is>
@@ -52029,7 +52029,7 @@
         <v>45532.43490740741</v>
       </c>
       <c r="C890" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D890" t="inlineStr">
         <is>
@@ -52086,7 +52086,7 @@
         <v>45384.68908564815</v>
       </c>
       <c r="C891" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D891" t="inlineStr">
         <is>
@@ -52143,7 +52143,7 @@
         <v>45540.63275462963</v>
       </c>
       <c r="C892" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D892" t="inlineStr">
         <is>
@@ -52200,7 +52200,7 @@
         <v>45790.36726851852</v>
       </c>
       <c r="C893" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D893" t="inlineStr">
         <is>
@@ -52257,7 +52257,7 @@
         <v>45358</v>
       </c>
       <c r="C894" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D894" t="inlineStr">
         <is>
@@ -52314,7 +52314,7 @@
         <v>44559</v>
       </c>
       <c r="C895" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D895" t="inlineStr">
         <is>
@@ -52371,7 +52371,7 @@
         <v>45796.37314814814</v>
       </c>
       <c r="C896" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D896" t="inlineStr">
         <is>
@@ -52428,7 +52428,7 @@
         <v>45797.42636574074</v>
       </c>
       <c r="C897" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D897" t="inlineStr">
         <is>
@@ -52485,7 +52485,7 @@
         <v>45797.42967592592</v>
       </c>
       <c r="C898" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D898" t="inlineStr">
         <is>
@@ -52542,7 +52542,7 @@
         <v>45796.47753472222</v>
       </c>
       <c r="C899" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D899" t="inlineStr">
         <is>
@@ -52599,7 +52599,7 @@
         <v>45797.43391203704</v>
       </c>
       <c r="C900" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D900" t="inlineStr">
         <is>
@@ -52656,7 +52656,7 @@
         <v>45693.46003472222</v>
       </c>
       <c r="C901" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D901" t="inlineStr">
         <is>
@@ -52713,7 +52713,7 @@
         <v>45581.36192129629</v>
       </c>
       <c r="C902" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D902" t="inlineStr">
         <is>
@@ -52770,7 +52770,7 @@
         <v>45770</v>
       </c>
       <c r="C903" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D903" t="inlineStr">
         <is>
@@ -52827,7 +52827,7 @@
         <v>45799.63540509259</v>
       </c>
       <c r="C904" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D904" t="inlineStr">
         <is>
@@ -52884,7 +52884,7 @@
         <v>45632.59701388889</v>
       </c>
       <c r="C905" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D905" t="inlineStr">
         <is>
@@ -52941,7 +52941,7 @@
         <v>44837</v>
       </c>
       <c r="C906" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D906" t="inlineStr">
         <is>
@@ -52998,7 +52998,7 @@
         <v>45012</v>
       </c>
       <c r="C907" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D907" t="inlineStr">
         <is>
@@ -53055,7 +53055,7 @@
         <v>45334</v>
       </c>
       <c r="C908" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D908" t="inlineStr">
         <is>
@@ -53112,7 +53112,7 @@
         <v>45393.93069444445</v>
       </c>
       <c r="C909" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D909" t="inlineStr">
         <is>
@@ -53169,7 +53169,7 @@
         <v>45809.60372685185</v>
       </c>
       <c r="C910" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D910" t="inlineStr">
         <is>
@@ -53226,7 +53226,7 @@
         <v>45783</v>
       </c>
       <c r="C911" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D911" t="inlineStr">
         <is>
@@ -53283,7 +53283,7 @@
         <v>45817.63003472222</v>
       </c>
       <c r="C912" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D912" t="inlineStr">
         <is>

--- a/Översikt KARLSKRONA.xlsx
+++ b/Översikt KARLSKRONA.xlsx
@@ -575,7 +575,7 @@
         <v>45923</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -672,7 +672,7 @@
         <v>45832</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -762,7 +762,7 @@
         <v>45911</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -851,7 +851,7 @@
         <v>45999</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -944,7 +944,7 @@
         <v>45999</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1036,7 +1036,7 @@
         <v>44509</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1123,7 +1123,7 @@
         <v>45918</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1210,7 +1210,7 @@
         <v>45905</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1302,7 +1302,7 @@
         <v>44960</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1389,7 +1389,7 @@
         <v>45826.50638888889</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1475,7 +1475,7 @@
         <v>45924.48732638889</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1561,7 +1561,7 @@
         <v>45901</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1652,7 +1652,7 @@
         <v>45037</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1743,7 +1743,7 @@
         <v>45603.46306712963</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1829,7 +1829,7 @@
         <v>44531</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1914,7 +1914,7 @@
         <v>44467</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1999,7 +1999,7 @@
         <v>45002.64284722223</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2084,7 +2084,7 @@
         <v>45050</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2169,7 +2169,7 @@
         <v>45826.49623842593</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2254,7 +2254,7 @@
         <v>45809</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2339,7 +2339,7 @@
         <v>44445</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2424,7 +2424,7 @@
         <v>45110.59303240741</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2509,7 +2509,7 @@
         <v>45337</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2594,7 +2594,7 @@
         <v>46055</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2683,7 +2683,7 @@
         <v>45579.41793981481</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2768,7 +2768,7 @@
         <v>44279.88631944444</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2825,7 +2825,7 @@
         <v>44249.57096064815</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2882,7 +2882,7 @@
         <v>44356</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2939,7 +2939,7 @@
         <v>44273</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2996,7 +2996,7 @@
         <v>44279</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3053,7 +3053,7 @@
         <v>44574.53206018519</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3110,7 +3110,7 @@
         <v>44368.68505787037</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3167,7 +3167,7 @@
         <v>44572</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3224,7 +3224,7 @@
         <v>44551</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3281,7 +3281,7 @@
         <v>44432.52225694444</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3338,7 +3338,7 @@
         <v>44869.37805555556</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3395,7 +3395,7 @@
         <v>44342</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3452,7 +3452,7 @@
         <v>44342</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3509,7 +3509,7 @@
         <v>44285</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3566,7 +3566,7 @@
         <v>44284</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3623,7 +3623,7 @@
         <v>44585</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3680,7 +3680,7 @@
         <v>44600</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3737,7 +3737,7 @@
         <v>44468</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3794,7 +3794,7 @@
         <v>44585</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3851,7 +3851,7 @@
         <v>44273.4187962963</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3908,7 +3908,7 @@
         <v>44687</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3965,7 +3965,7 @@
         <v>44830.46083333333</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4022,7 +4022,7 @@
         <v>44670</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4079,7 +4079,7 @@
         <v>44875.43988425926</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4136,7 +4136,7 @@
         <v>44875.4530787037</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4193,7 +4193,7 @@
         <v>44458</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4250,7 +4250,7 @@
         <v>44483.831875</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4307,7 +4307,7 @@
         <v>44325</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4364,7 +4364,7 @@
         <v>44350.5575925926</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4421,7 +4421,7 @@
         <v>44501</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4478,7 +4478,7 @@
         <v>44559.5102662037</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4535,7 +4535,7 @@
         <v>44421</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4592,7 +4592,7 @@
         <v>44406</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4649,7 +4649,7 @@
         <v>44406.65106481482</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4706,7 +4706,7 @@
         <v>44691.62895833333</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4763,7 +4763,7 @@
         <v>44449</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4820,7 +4820,7 @@
         <v>44368</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4877,7 +4877,7 @@
         <v>44526.64325231482</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4934,7 +4934,7 @@
         <v>44411.27403935185</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4991,7 +4991,7 @@
         <v>44659.49101851852</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5048,7 +5048,7 @@
         <v>44441</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5105,7 +5105,7 @@
         <v>44462.38528935185</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5162,7 +5162,7 @@
         <v>44314.85686342593</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5219,7 +5219,7 @@
         <v>44384</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5276,7 +5276,7 @@
         <v>44676.45043981481</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5333,7 +5333,7 @@
         <v>44502</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5390,7 +5390,7 @@
         <v>44285.43686342592</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5447,7 +5447,7 @@
         <v>44629.93263888889</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5504,7 +5504,7 @@
         <v>44361.36178240741</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5561,7 +5561,7 @@
         <v>44375</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5618,7 +5618,7 @@
         <v>44435</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5675,7 +5675,7 @@
         <v>44705</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5732,7 +5732,7 @@
         <v>44365</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5789,7 +5789,7 @@
         <v>44399</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5846,7 +5846,7 @@
         <v>44719.61128472222</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5903,7 +5903,7 @@
         <v>44503</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5960,7 +5960,7 @@
         <v>44462</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6017,7 +6017,7 @@
         <v>44447.68054398148</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6074,7 +6074,7 @@
         <v>44498</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6131,7 +6131,7 @@
         <v>44361.59884259259</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6188,7 +6188,7 @@
         <v>44343</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6245,7 +6245,7 @@
         <v>44497.92861111111</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6302,7 +6302,7 @@
         <v>44497</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6359,7 +6359,7 @@
         <v>44806</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6416,7 +6416,7 @@
         <v>44256</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6473,7 +6473,7 @@
         <v>44424</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6530,7 +6530,7 @@
         <v>44624</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6587,7 +6587,7 @@
         <v>44874</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6644,7 +6644,7 @@
         <v>44442</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6701,7 +6701,7 @@
         <v>44742</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6758,7 +6758,7 @@
         <v>44629</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6815,7 +6815,7 @@
         <v>44267</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6872,7 +6872,7 @@
         <v>44364</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6929,7 +6929,7 @@
         <v>44259</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6986,7 +6986,7 @@
         <v>44441.76258101852</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7043,7 +7043,7 @@
         <v>44305.43628472222</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7100,7 +7100,7 @@
         <v>44350</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7157,7 +7157,7 @@
         <v>44441</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7214,7 +7214,7 @@
         <v>44374.73391203704</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7271,7 +7271,7 @@
         <v>44501.61</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7328,7 +7328,7 @@
         <v>44434.60960648148</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7385,7 +7385,7 @@
         <v>44571.43729166667</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7442,7 +7442,7 @@
         <v>44572</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7499,7 +7499,7 @@
         <v>44420</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7556,7 +7556,7 @@
         <v>44446.44287037037</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7613,7 +7613,7 @@
         <v>44599</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7670,7 +7670,7 @@
         <v>44300</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7732,7 +7732,7 @@
         <v>44491</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7789,7 +7789,7 @@
         <v>44266.84585648148</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7846,7 +7846,7 @@
         <v>44270</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7903,7 +7903,7 @@
         <v>44267</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7960,7 +7960,7 @@
         <v>44433.9015162037</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8017,7 +8017,7 @@
         <v>44314.85135416667</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8074,7 +8074,7 @@
         <v>44452</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8131,7 +8131,7 @@
         <v>44588.36425925926</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8188,7 +8188,7 @@
         <v>44476</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8245,7 +8245,7 @@
         <v>44516.53758101852</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8302,7 +8302,7 @@
         <v>44377.74945601852</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8359,7 +8359,7 @@
         <v>44623</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8416,7 +8416,7 @@
         <v>44270.41763888889</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8473,7 +8473,7 @@
         <v>44440</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8535,7 +8535,7 @@
         <v>44302.44891203703</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8592,7 +8592,7 @@
         <v>44322</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8649,7 +8649,7 @@
         <v>44719.63167824074</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8706,7 +8706,7 @@
         <v>44295.57456018519</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8763,7 +8763,7 @@
         <v>44460.67511574074</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8820,7 +8820,7 @@
         <v>44484.50790509259</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8877,7 +8877,7 @@
         <v>44825.96707175926</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8934,7 +8934,7 @@
         <v>44634.57651620371</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8991,7 +8991,7 @@
         <v>44627.93427083334</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9048,7 +9048,7 @@
         <v>44847</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9105,7 +9105,7 @@
         <v>44259</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9162,7 +9162,7 @@
         <v>44540.59521990741</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9219,7 +9219,7 @@
         <v>44475.35071759259</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9276,7 +9276,7 @@
         <v>44524.55496527778</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9333,7 +9333,7 @@
         <v>44809.58320601852</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9395,7 +9395,7 @@
         <v>44302</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9452,7 +9452,7 @@
         <v>44284</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9509,7 +9509,7 @@
         <v>44698</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9566,7 +9566,7 @@
         <v>44543.56502314815</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9623,7 +9623,7 @@
         <v>44621</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9680,7 +9680,7 @@
         <v>44859.4846412037</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9737,7 +9737,7 @@
         <v>44333</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9794,7 +9794,7 @@
         <v>44742</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9851,7 +9851,7 @@
         <v>44743.61866898148</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9908,7 +9908,7 @@
         <v>44285.50226851852</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9965,7 +9965,7 @@
         <v>44480.49596064815</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10022,7 +10022,7 @@
         <v>44425</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10079,7 +10079,7 @@
         <v>44440</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10136,7 +10136,7 @@
         <v>44466</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10193,7 +10193,7 @@
         <v>44837.44972222222</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10250,7 +10250,7 @@
         <v>44706</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10307,7 +10307,7 @@
         <v>44579</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10364,7 +10364,7 @@
         <v>44608</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10421,7 +10421,7 @@
         <v>44365</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10478,7 +10478,7 @@
         <v>44295.56783564815</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10535,7 +10535,7 @@
         <v>44305</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10592,7 +10592,7 @@
         <v>44494.57087962963</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10649,7 +10649,7 @@
         <v>44687</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10706,7 +10706,7 @@
         <v>44466.88909722222</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10763,7 +10763,7 @@
         <v>44320.52675925926</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10820,7 +10820,7 @@
         <v>44300</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10877,7 +10877,7 @@
         <v>44306</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10934,7 +10934,7 @@
         <v>44596</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10991,7 +10991,7 @@
         <v>44286.89717592593</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11048,7 +11048,7 @@
         <v>44439.56229166667</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11105,7 +11105,7 @@
         <v>44399.59900462963</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11162,7 +11162,7 @@
         <v>44356.48402777778</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11219,7 +11219,7 @@
         <v>44467.70932870371</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11276,7 +11276,7 @@
         <v>44592.6608912037</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11338,7 +11338,7 @@
         <v>44608.61462962963</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11395,7 +11395,7 @@
         <v>44286</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11452,7 +11452,7 @@
         <v>44503.58373842593</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11509,7 +11509,7 @@
         <v>44711</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11566,7 +11566,7 @@
         <v>44272.41576388889</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11623,7 +11623,7 @@
         <v>44342</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11680,7 +11680,7 @@
         <v>44614.48950231481</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11737,7 +11737,7 @@
         <v>44804.88839120371</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11794,7 +11794,7 @@
         <v>44657</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11851,7 +11851,7 @@
         <v>44858</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11908,7 +11908,7 @@
         <v>44875.45777777778</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11965,7 +11965,7 @@
         <v>45400.9021412037</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12022,7 +12022,7 @@
         <v>45674.37481481482</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12079,7 +12079,7 @@
         <v>45315.89215277778</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12136,7 +12136,7 @@
         <v>45035</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12193,7 +12193,7 @@
         <v>45456.68532407407</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12250,7 +12250,7 @@
         <v>45257.79081018519</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12307,7 +12307,7 @@
         <v>45615.4612037037</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12364,7 +12364,7 @@
         <v>45079</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12421,7 +12421,7 @@
         <v>45664.61196759259</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12478,7 +12478,7 @@
         <v>45004</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12535,7 +12535,7 @@
         <v>45180.4958449074</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12592,7 +12592,7 @@
         <v>45196.41784722222</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12649,7 +12649,7 @@
         <v>44491.33081018519</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12706,7 +12706,7 @@
         <v>44967</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12763,7 +12763,7 @@
         <v>45393.36715277778</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12820,7 +12820,7 @@
         <v>45108</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12877,7 +12877,7 @@
         <v>44875</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12934,7 +12934,7 @@
         <v>45531.50513888889</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12991,7 +12991,7 @@
         <v>45643</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13048,7 +13048,7 @@
         <v>45387.38211805555</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13105,7 +13105,7 @@
         <v>44998</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13162,7 +13162,7 @@
         <v>44747</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13219,7 +13219,7 @@
         <v>45373.49626157407</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13276,7 +13276,7 @@
         <v>45107</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13333,7 +13333,7 @@
         <v>44860</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13390,7 +13390,7 @@
         <v>44741</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13447,7 +13447,7 @@
         <v>44890</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13504,7 +13504,7 @@
         <v>44946.48041666667</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13561,7 +13561,7 @@
         <v>44939.68818287037</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13618,7 +13618,7 @@
         <v>44672.62571759259</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13675,7 +13675,7 @@
         <v>45458.75857638889</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13732,7 +13732,7 @@
         <v>45215.35577546297</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13789,7 +13789,7 @@
         <v>45051.33702546296</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13846,7 +13846,7 @@
         <v>44937.66680555556</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13903,7 +13903,7 @@
         <v>45019</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13960,7 +13960,7 @@
         <v>44886.58100694444</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14017,7 +14017,7 @@
         <v>45362</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14074,7 +14074,7 @@
         <v>45034</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14131,7 +14131,7 @@
         <v>45166</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14188,7 +14188,7 @@
         <v>45685</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14245,7 +14245,7 @@
         <v>44553</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14302,7 +14302,7 @@
         <v>45159.43704861111</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14359,7 +14359,7 @@
         <v>45578.38111111111</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14416,7 +14416,7 @@
         <v>45142</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14473,7 +14473,7 @@
         <v>44986.33892361111</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14530,7 +14530,7 @@
         <v>45198.56633101852</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14587,7 +14587,7 @@
         <v>44692.459375</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14644,7 +14644,7 @@
         <v>44305</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14701,7 +14701,7 @@
         <v>44847.67832175926</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14758,7 +14758,7 @@
         <v>44847</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14815,7 +14815,7 @@
         <v>45002.62616898148</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14872,7 +14872,7 @@
         <v>45028.55498842592</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14929,7 +14929,7 @@
         <v>45001.50576388889</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14986,7 +14986,7 @@
         <v>44967</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15043,7 +15043,7 @@
         <v>44545.34950231481</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15100,7 +15100,7 @@
         <v>44592.63900462963</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15162,7 +15162,7 @@
         <v>45075.43525462963</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15219,7 +15219,7 @@
         <v>45266.39518518518</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15276,7 +15276,7 @@
         <v>44323</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15333,7 +15333,7 @@
         <v>45020</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15390,7 +15390,7 @@
         <v>45315</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15447,7 +15447,7 @@
         <v>45162</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15504,7 +15504,7 @@
         <v>44879</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15561,7 +15561,7 @@
         <v>45028.55811342593</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15618,7 +15618,7 @@
         <v>45586.77130787037</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15675,7 +15675,7 @@
         <v>44691.63315972222</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15732,7 +15732,7 @@
         <v>45015</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15789,7 +15789,7 @@
         <v>45328</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15846,7 +15846,7 @@
         <v>44706</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15903,7 +15903,7 @@
         <v>45743.55949074074</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15960,7 +15960,7 @@
         <v>45727.46905092592</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16017,7 +16017,7 @@
         <v>45715.38768518518</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16074,7 +16074,7 @@
         <v>45335</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16131,7 +16131,7 @@
         <v>44757</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16188,7 +16188,7 @@
         <v>45324</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16245,7 +16245,7 @@
         <v>45483</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16302,7 +16302,7 @@
         <v>44930.83994212963</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16359,7 +16359,7 @@
         <v>44851.64682870371</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16416,7 +16416,7 @@
         <v>44593.45266203704</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16473,7 +16473,7 @@
         <v>45707</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16530,7 +16530,7 @@
         <v>45328</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16587,7 +16587,7 @@
         <v>45107</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16644,7 +16644,7 @@
         <v>45103</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16701,7 +16701,7 @@
         <v>44350</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16758,7 +16758,7 @@
         <v>45541.33905092593</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16815,7 +16815,7 @@
         <v>45234</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16872,7 +16872,7 @@
         <v>45568</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16929,7 +16929,7 @@
         <v>44636</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16986,7 +16986,7 @@
         <v>45168.8937962963</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17043,7 +17043,7 @@
         <v>45028.54530092593</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17100,7 +17100,7 @@
         <v>45028.55927083334</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17157,7 +17157,7 @@
         <v>44592</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17214,7 +17214,7 @@
         <v>44988</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17271,7 +17271,7 @@
         <v>44584</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17328,7 +17328,7 @@
         <v>45772.43194444444</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17385,7 +17385,7 @@
         <v>45537.49834490741</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17442,7 +17442,7 @@
         <v>45365.30353009259</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17499,7 +17499,7 @@
         <v>45303</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17556,7 +17556,7 @@
         <v>45443</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17613,7 +17613,7 @@
         <v>44512</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17670,7 +17670,7 @@
         <v>45085.57921296296</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17727,7 +17727,7 @@
         <v>45475</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17784,7 +17784,7 @@
         <v>44587.5346412037</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17841,7 +17841,7 @@
         <v>45001.70106481481</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17898,7 +17898,7 @@
         <v>45278.56393518519</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17955,7 +17955,7 @@
         <v>45553.63233796296</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18012,7 +18012,7 @@
         <v>45537.50579861111</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18069,7 +18069,7 @@
         <v>45737.66008101852</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18126,7 +18126,7 @@
         <v>45887.49454861111</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18183,7 +18183,7 @@
         <v>45610.89532407407</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18240,7 +18240,7 @@
         <v>45742</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18297,7 +18297,7 @@
         <v>44619</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18354,7 +18354,7 @@
         <v>45887.44629629629</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18411,7 +18411,7 @@
         <v>45887.44987268518</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18468,7 +18468,7 @@
         <v>45884.3334837963</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18525,7 +18525,7 @@
         <v>45069</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18582,7 +18582,7 @@
         <v>45532.43672453704</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18639,7 +18639,7 @@
         <v>45532.43798611111</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18696,7 +18696,7 @@
         <v>45218.40603009259</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18753,7 +18753,7 @@
         <v>45681.87600694445</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18810,7 +18810,7 @@
         <v>44974.82748842592</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18867,7 +18867,7 @@
         <v>45600</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18924,7 +18924,7 @@
         <v>45245.655</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18981,7 +18981,7 @@
         <v>45821.57865740741</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19038,7 +19038,7 @@
         <v>45204</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19095,7 +19095,7 @@
         <v>45891.58806712963</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19152,7 +19152,7 @@
         <v>45827.41166666667</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19209,7 +19209,7 @@
         <v>45826.44643518519</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19266,7 +19266,7 @@
         <v>45827.41407407408</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19323,7 +19323,7 @@
         <v>45561</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19380,7 +19380,7 @@
         <v>45826.44898148148</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19437,7 +19437,7 @@
         <v>45532</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19494,7 +19494,7 @@
         <v>45827.45453703704</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19551,7 +19551,7 @@
         <v>45890</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19608,7 +19608,7 @@
         <v>45218.4927662037</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19665,7 +19665,7 @@
         <v>45827.41239583334</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19722,7 +19722,7 @@
         <v>45826.49226851852</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19779,7 +19779,7 @@
         <v>45254</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19836,7 +19836,7 @@
         <v>45537.4990625</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19893,7 +19893,7 @@
         <v>45812.6565625</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -19950,7 +19950,7 @@
         <v>45894.39850694445</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20007,7 +20007,7 @@
         <v>45896.55240740741</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20064,7 +20064,7 @@
         <v>45013.65112268519</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20121,7 +20121,7 @@
         <v>45832.43682870371</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20178,7 +20178,7 @@
         <v>45411.41958333334</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20235,7 +20235,7 @@
         <v>45832.87938657407</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20292,7 +20292,7 @@
         <v>45697</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20349,7 +20349,7 @@
         <v>45832.58216435185</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20406,7 +20406,7 @@
         <v>45048</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20463,7 +20463,7 @@
         <v>45897.45144675926</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20520,7 +20520,7 @@
         <v>44609.5427199074</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20582,7 +20582,7 @@
         <v>44609.55334490741</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20644,7 +20644,7 @@
         <v>44825</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20701,7 +20701,7 @@
         <v>45832</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20758,7 +20758,7 @@
         <v>45898.32637731481</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20815,7 +20815,7 @@
         <v>45085</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -20872,7 +20872,7 @@
         <v>45085</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -20929,7 +20929,7 @@
         <v>44586</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -20986,7 +20986,7 @@
         <v>44820</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21043,7 +21043,7 @@
         <v>45835.58707175926</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21100,7 +21100,7 @@
         <v>45733</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21157,7 +21157,7 @@
         <v>45576.86913194445</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21214,7 +21214,7 @@
         <v>45747.84215277778</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21271,7 +21271,7 @@
         <v>45573</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21328,7 +21328,7 @@
         <v>45839.70422453704</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21385,7 +21385,7 @@
         <v>45839.706875</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21442,7 +21442,7 @@
         <v>45839</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21504,7 +21504,7 @@
         <v>45838</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21561,7 +21561,7 @@
         <v>44725</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21618,7 +21618,7 @@
         <v>45225.77278935185</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21675,7 +21675,7 @@
         <v>45905.46513888889</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21732,7 +21732,7 @@
         <v>45309.69809027778</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21789,7 +21789,7 @@
         <v>45711</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -21846,7 +21846,7 @@
         <v>44516</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -21903,7 +21903,7 @@
         <v>45905</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -21960,7 +21960,7 @@
         <v>45256</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22017,7 +22017,7 @@
         <v>45903.83215277778</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22074,7 +22074,7 @@
         <v>45905</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22131,7 +22131,7 @@
         <v>45629.63384259259</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22188,7 +22188,7 @@
         <v>45846</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22245,7 +22245,7 @@
         <v>45714</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22302,7 +22302,7 @@
         <v>45908.49148148148</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22359,7 +22359,7 @@
         <v>45635</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22416,7 +22416,7 @@
         <v>45308.40855324074</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22473,7 +22473,7 @@
         <v>44747</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22530,7 +22530,7 @@
         <v>45908.58891203703</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22587,7 +22587,7 @@
         <v>45174</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22644,7 +22644,7 @@
         <v>45512.47371527777</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22701,7 +22701,7 @@
         <v>45443</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -22758,7 +22758,7 @@
         <v>45911.66232638889</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -22815,7 +22815,7 @@
         <v>45910.43229166666</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -22872,7 +22872,7 @@
         <v>44523</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -22929,7 +22929,7 @@
         <v>44638.56855324074</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -22986,7 +22986,7 @@
         <v>45812.65798611111</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23043,7 +23043,7 @@
         <v>45695.37408564815</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23100,7 +23100,7 @@
         <v>45915.60363425926</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23157,7 +23157,7 @@
         <v>45013.43306712963</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23214,7 +23214,7 @@
         <v>45013.43763888889</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23271,7 +23271,7 @@
         <v>45915.60884259259</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23328,7 +23328,7 @@
         <v>45847.65952546296</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23385,7 +23385,7 @@
         <v>45847.5694212963</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23442,7 +23442,7 @@
         <v>45126</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23499,7 +23499,7 @@
         <v>45917.4018287037</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23556,7 +23556,7 @@
         <v>45361.81741898148</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23613,7 +23613,7 @@
         <v>45917.40012731482</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -23670,7 +23670,7 @@
         <v>45558</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -23727,7 +23727,7 @@
         <v>45917.40362268518</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -23784,7 +23784,7 @@
         <v>45917.40538194445</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -23841,7 +23841,7 @@
         <v>44354</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -23898,7 +23898,7 @@
         <v>45917.45751157407</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -23955,7 +23955,7 @@
         <v>45919.34627314815</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24012,7 +24012,7 @@
         <v>45918</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24069,7 +24069,7 @@
         <v>45162.56537037037</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24126,7 +24126,7 @@
         <v>45919.34983796296</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -24183,7 +24183,7 @@
         <v>44636</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24240,7 +24240,7 @@
         <v>45917.33334490741</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24297,7 +24297,7 @@
         <v>45923.53277777778</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24354,7 +24354,7 @@
         <v>45342</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24411,7 +24411,7 @@
         <v>44309</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24468,7 +24468,7 @@
         <v>45922</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -24525,7 +24525,7 @@
         <v>45922.39582175926</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -24582,7 +24582,7 @@
         <v>45707</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -24639,7 +24639,7 @@
         <v>45922</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -24696,7 +24696,7 @@
         <v>45923.44908564815</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -24753,7 +24753,7 @@
         <v>45923.43107638889</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -24810,7 +24810,7 @@
         <v>45923.37813657407</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -24867,7 +24867,7 @@
         <v>45923.37575231482</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -24924,7 +24924,7 @@
         <v>45923.44246527777</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -24981,7 +24981,7 @@
         <v>45923.52947916667</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25038,7 +25038,7 @@
         <v>45095.39417824074</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25095,7 +25095,7 @@
         <v>45602.58842592593</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -25152,7 +25152,7 @@
         <v>45602.61121527778</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -25209,7 +25209,7 @@
         <v>45735.96366898148</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -25266,7 +25266,7 @@
         <v>45789.45869212963</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25323,7 +25323,7 @@
         <v>45887.44877314815</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -25380,7 +25380,7 @@
         <v>45747.85570601852</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -25437,7 +25437,7 @@
         <v>45526.70548611111</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -25494,7 +25494,7 @@
         <v>45925</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -25551,7 +25551,7 @@
         <v>44860</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -25608,7 +25608,7 @@
         <v>45928</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -25665,7 +25665,7 @@
         <v>45929.38549768519</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -25722,7 +25722,7 @@
         <v>45929.73125</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -25779,7 +25779,7 @@
         <v>45929.73858796297</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -25836,7 +25836,7 @@
         <v>45929.74033564814</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -25893,7 +25893,7 @@
         <v>45929.38221064815</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -25950,7 +25950,7 @@
         <v>45841</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -26007,7 +26007,7 @@
         <v>45929.67434027778</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -26064,7 +26064,7 @@
         <v>45050</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -26121,7 +26121,7 @@
         <v>45104</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -26178,7 +26178,7 @@
         <v>45749</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -26235,7 +26235,7 @@
         <v>45873.57835648148</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -26292,7 +26292,7 @@
         <v>45251.80711805556</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -26349,7 +26349,7 @@
         <v>45251</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -26406,7 +26406,7 @@
         <v>45316</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -26463,7 +26463,7 @@
         <v>45715.39251157407</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -26520,7 +26520,7 @@
         <v>45930</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -26577,7 +26577,7 @@
         <v>45250.37905092593</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -26634,7 +26634,7 @@
         <v>45930</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -26691,7 +26691,7 @@
         <v>45875.60252314815</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -26748,7 +26748,7 @@
         <v>45875.66709490741</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -26805,7 +26805,7 @@
         <v>45931</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -26862,7 +26862,7 @@
         <v>45931</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -26919,7 +26919,7 @@
         <v>45875.61711805555</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -26976,7 +26976,7 @@
         <v>45084</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -27033,7 +27033,7 @@
         <v>44474.8949537037</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -27090,7 +27090,7 @@
         <v>45645.3549537037</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -27147,7 +27147,7 @@
         <v>45875.60789351852</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -27204,7 +27204,7 @@
         <v>44461</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -27261,7 +27261,7 @@
         <v>45335</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -27318,7 +27318,7 @@
         <v>45880</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -27375,7 +27375,7 @@
         <v>45334.6330787037</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -27432,7 +27432,7 @@
         <v>45880</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -27489,7 +27489,7 @@
         <v>45135.61125</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -27546,7 +27546,7 @@
         <v>45880</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -27603,7 +27603,7 @@
         <v>45370.63612268519</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -27660,7 +27660,7 @@
         <v>45883.50537037037</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -27717,7 +27717,7 @@
         <v>45937</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -27774,7 +27774,7 @@
         <v>45169.45913194444</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -27831,7 +27831,7 @@
         <v>45883.50228009259</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -27888,7 +27888,7 @@
         <v>45093.50841435185</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -27945,7 +27945,7 @@
         <v>45772</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -28002,7 +28002,7 @@
         <v>45133</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -28059,7 +28059,7 @@
         <v>45251.80934027778</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -28116,7 +28116,7 @@
         <v>44551.40351851852</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -28173,7 +28173,7 @@
         <v>45937</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -28230,7 +28230,7 @@
         <v>45937</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -28287,7 +28287,7 @@
         <v>45631</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -28344,7 +28344,7 @@
         <v>45334.63445601852</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -28401,7 +28401,7 @@
         <v>45358.64158564815</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -28458,7 +28458,7 @@
         <v>45133</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -28515,7 +28515,7 @@
         <v>45092.64113425926</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -28572,7 +28572,7 @@
         <v>44874</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -28629,7 +28629,7 @@
         <v>45703.81983796296</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -28686,7 +28686,7 @@
         <v>45180.62233796297</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -28743,7 +28743,7 @@
         <v>45945.59504629629</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -28800,7 +28800,7 @@
         <v>45945.61509259259</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -28857,7 +28857,7 @@
         <v>45749.69665509259</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -28914,7 +28914,7 @@
         <v>45945.60642361111</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -28971,7 +28971,7 @@
         <v>45166</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -29028,7 +29028,7 @@
         <v>45166.49883101852</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -29085,7 +29085,7 @@
         <v>45210.40899305556</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -29142,7 +29142,7 @@
         <v>45647.38805555556</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -29199,7 +29199,7 @@
         <v>45415</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -29256,7 +29256,7 @@
         <v>45091</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -29313,7 +29313,7 @@
         <v>45156.6415162037</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -29370,7 +29370,7 @@
         <v>45947.5568287037</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -29427,7 +29427,7 @@
         <v>45012</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -29484,7 +29484,7 @@
         <v>45159</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -29541,7 +29541,7 @@
         <v>45728.69217592593</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -29598,7 +29598,7 @@
         <v>45350.39834490741</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -29655,7 +29655,7 @@
         <v>45035.43935185186</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -29712,7 +29712,7 @@
         <v>45035.44078703703</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -29769,7 +29769,7 @@
         <v>44742</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -29826,7 +29826,7 @@
         <v>45343.56496527778</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -29883,7 +29883,7 @@
         <v>45106.36304398148</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -29940,7 +29940,7 @@
         <v>45957</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -29997,7 +29997,7 @@
         <v>44628</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -30054,7 +30054,7 @@
         <v>45092.68969907407</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -30111,7 +30111,7 @@
         <v>45954.66997685185</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -30168,7 +30168,7 @@
         <v>45089.43696759259</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -30225,7 +30225,7 @@
         <v>45089</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -30282,7 +30282,7 @@
         <v>45957</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -30339,7 +30339,7 @@
         <v>45715.38833333334</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -30396,7 +30396,7 @@
         <v>44636.83194444444</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -30453,7 +30453,7 @@
         <v>45148</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -30510,7 +30510,7 @@
         <v>45958.46466435185</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -30567,7 +30567,7 @@
         <v>45958.481875</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -30624,7 +30624,7 @@
         <v>45958.47736111111</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -30681,7 +30681,7 @@
         <v>45958</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -30738,7 +30738,7 @@
         <v>45958</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -30795,7 +30795,7 @@
         <v>45958.47434027777</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -30852,7 +30852,7 @@
         <v>45958.42738425926</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -30909,7 +30909,7 @@
         <v>45961</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -30966,7 +30966,7 @@
         <v>45245.50461805556</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -31023,7 +31023,7 @@
         <v>45106</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -31080,7 +31080,7 @@
         <v>45961</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -31137,7 +31137,7 @@
         <v>45961</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -31194,7 +31194,7 @@
         <v>45961</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -31251,7 +31251,7 @@
         <v>45645.87954861111</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -31308,7 +31308,7 @@
         <v>45580.72222222222</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -31365,7 +31365,7 @@
         <v>45217</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -31422,7 +31422,7 @@
         <v>45713</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -31479,7 +31479,7 @@
         <v>45212</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -31536,7 +31536,7 @@
         <v>45631</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -31593,7 +31593,7 @@
         <v>45645.35019675926</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -31650,7 +31650,7 @@
         <v>45967.6153587963</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -31707,7 +31707,7 @@
         <v>45938</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -31764,7 +31764,7 @@
         <v>45173.44273148148</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -31821,7 +31821,7 @@
         <v>45579</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -31878,7 +31878,7 @@
         <v>45340</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -31935,7 +31935,7 @@
         <v>44911</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -31992,7 +31992,7 @@
         <v>44285.43282407407</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -32049,7 +32049,7 @@
         <v>45013.44094907407</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -32106,7 +32106,7 @@
         <v>45538</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -32163,7 +32163,7 @@
         <v>45012</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -32220,7 +32220,7 @@
         <v>45727.53451388889</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -32277,7 +32277,7 @@
         <v>45968.38364583333</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -32334,7 +32334,7 @@
         <v>45407.61273148148</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -32391,7 +32391,7 @@
         <v>45735.7075462963</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -32448,7 +32448,7 @@
         <v>45495.63521990741</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -32505,7 +32505,7 @@
         <v>45972.83649305555</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -32562,7 +32562,7 @@
         <v>45971.94402777778</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -32619,7 +32619,7 @@
         <v>44433</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -32676,7 +32676,7 @@
         <v>45971.94936342593</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -32733,7 +32733,7 @@
         <v>45973.66715277778</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -32790,7 +32790,7 @@
         <v>45118</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -32847,7 +32847,7 @@
         <v>45106.36086805556</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -32904,7 +32904,7 @@
         <v>45002.57140046296</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -32961,7 +32961,7 @@
         <v>44302</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -33018,7 +33018,7 @@
         <v>44936</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -33075,7 +33075,7 @@
         <v>45932</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -33132,7 +33132,7 @@
         <v>45932</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -33189,7 +33189,7 @@
         <v>44753</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -33246,7 +33246,7 @@
         <v>45978.37158564815</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -33303,7 +33303,7 @@
         <v>45978.46636574074</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -33360,7 +33360,7 @@
         <v>45978.6052662037</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -33417,7 +33417,7 @@
         <v>45194.39523148148</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -33474,7 +33474,7 @@
         <v>44862</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -33531,7 +33531,7 @@
         <v>45106.43407407407</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -33588,7 +33588,7 @@
         <v>45978</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -33645,7 +33645,7 @@
         <v>45981.5834375</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -33702,7 +33702,7 @@
         <v>45980.62664351852</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -33759,7 +33759,7 @@
         <v>45630.58119212963</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -33816,7 +33816,7 @@
         <v>45981.59913194444</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -33873,7 +33873,7 @@
         <v>45981.47199074074</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -33930,7 +33930,7 @@
         <v>45587</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -33987,7 +33987,7 @@
         <v>45980.59621527778</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -34044,7 +34044,7 @@
         <v>45551.91032407407</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -34101,7 +34101,7 @@
         <v>45980.62510416667</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -34158,7 +34158,7 @@
         <v>45117</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -34215,7 +34215,7 @@
         <v>45168.89541666667</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -34272,7 +34272,7 @@
         <v>45351.67325231482</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -34329,7 +34329,7 @@
         <v>45982.47952546296</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -34386,7 +34386,7 @@
         <v>45985.56918981481</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -34443,7 +34443,7 @@
         <v>45985.56715277778</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -34500,7 +34500,7 @@
         <v>45982.4753125</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -34557,7 +34557,7 @@
         <v>45619.67202546296</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -34614,7 +34614,7 @@
         <v>45154.93615740741</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -34671,7 +34671,7 @@
         <v>44930</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -34728,7 +34728,7 @@
         <v>44530.55888888889</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -34785,7 +34785,7 @@
         <v>45693</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -34842,7 +34842,7 @@
         <v>44473</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -34899,7 +34899,7 @@
         <v>44295.58509259259</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -34956,7 +34956,7 @@
         <v>45988.49774305556</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -35013,7 +35013,7 @@
         <v>45537.91339120371</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -35070,7 +35070,7 @@
         <v>45846</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -35132,7 +35132,7 @@
         <v>45905</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -35194,7 +35194,7 @@
         <v>45012.60288194445</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -35251,7 +35251,7 @@
         <v>45903</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -35313,7 +35313,7 @@
         <v>44809.41969907407</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -35370,7 +35370,7 @@
         <v>44756.55196759259</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -35427,7 +35427,7 @@
         <v>45910</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -35484,7 +35484,7 @@
         <v>45993.32045138889</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -35541,7 +35541,7 @@
         <v>45077</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -35598,7 +35598,7 @@
         <v>44942</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -35655,7 +35655,7 @@
         <v>45846</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -35717,7 +35717,7 @@
         <v>45604.4915625</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -35774,7 +35774,7 @@
         <v>45993.32222222222</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -35831,7 +35831,7 @@
         <v>45107.6715625</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -35888,7 +35888,7 @@
         <v>44728.67653935185</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -35945,7 +35945,7 @@
         <v>45695.37572916667</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -36002,7 +36002,7 @@
         <v>45994.6533912037</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -36059,7 +36059,7 @@
         <v>45469.37361111111</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -36116,7 +36116,7 @@
         <v>45995</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -36173,7 +36173,7 @@
         <v>44323</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -36230,7 +36230,7 @@
         <v>44981</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -36287,7 +36287,7 @@
         <v>45995</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -36344,7 +36344,7 @@
         <v>45610.38868055555</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -36401,7 +36401,7 @@
         <v>44596</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -36463,7 +36463,7 @@
         <v>45554</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -36520,7 +36520,7 @@
         <v>46037.80730324074</v>
       </c>
       <c r="C618" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -36577,7 +36577,7 @@
         <v>45610</v>
       </c>
       <c r="C619" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -36634,7 +36634,7 @@
         <v>44876.36309027778</v>
       </c>
       <c r="C620" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -36691,7 +36691,7 @@
         <v>45551</v>
       </c>
       <c r="C621" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -36748,7 +36748,7 @@
         <v>46042</v>
       </c>
       <c r="C622" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -36805,7 +36805,7 @@
         <v>46042.49659722222</v>
       </c>
       <c r="C623" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -36862,7 +36862,7 @@
         <v>46042</v>
       </c>
       <c r="C624" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -36919,7 +36919,7 @@
         <v>45127</v>
       </c>
       <c r="C625" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -36976,7 +36976,7 @@
         <v>45512</v>
       </c>
       <c r="C626" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -37033,7 +37033,7 @@
         <v>45166.6434375</v>
       </c>
       <c r="C627" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -37090,7 +37090,7 @@
         <v>44543</v>
       </c>
       <c r="C628" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -37147,7 +37147,7 @@
         <v>46000.59715277778</v>
       </c>
       <c r="C629" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -37204,7 +37204,7 @@
         <v>46002.35725694444</v>
       </c>
       <c r="C630" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -37261,7 +37261,7 @@
         <v>45261.4658449074</v>
       </c>
       <c r="C631" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -37318,7 +37318,7 @@
         <v>45366.65268518519</v>
       </c>
       <c r="C632" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -37375,7 +37375,7 @@
         <v>45202.53679398148</v>
       </c>
       <c r="C633" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -37432,7 +37432,7 @@
         <v>46002.36429398148</v>
       </c>
       <c r="C634" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -37489,7 +37489,7 @@
         <v>45075.52633101852</v>
       </c>
       <c r="C635" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D635" t="inlineStr">
         <is>
@@ -37546,7 +37546,7 @@
         <v>44930</v>
       </c>
       <c r="C636" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -37603,7 +37603,7 @@
         <v>46002.36811342592</v>
       </c>
       <c r="C637" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D637" t="inlineStr">
         <is>
@@ -37660,7 +37660,7 @@
         <v>45013.82003472222</v>
       </c>
       <c r="C638" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D638" t="inlineStr">
         <is>
@@ -37717,7 +37717,7 @@
         <v>46042.54811342592</v>
       </c>
       <c r="C639" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D639" t="inlineStr">
         <is>
@@ -37774,7 +37774,7 @@
         <v>45720.43899305556</v>
       </c>
       <c r="C640" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D640" t="inlineStr">
         <is>
@@ -37831,7 +37831,7 @@
         <v>46048.60737268518</v>
       </c>
       <c r="C641" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D641" t="inlineStr">
         <is>
@@ -37888,7 +37888,7 @@
         <v>46048.64427083333</v>
       </c>
       <c r="C642" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D642" t="inlineStr">
         <is>
@@ -37945,7 +37945,7 @@
         <v>46049.59381944445</v>
       </c>
       <c r="C643" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D643" t="inlineStr">
         <is>
@@ -38002,7 +38002,7 @@
         <v>45082</v>
       </c>
       <c r="C644" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D644" t="inlineStr">
         <is>
@@ -38059,7 +38059,7 @@
         <v>46048.64267361111</v>
       </c>
       <c r="C645" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D645" t="inlineStr">
         <is>
@@ -38116,7 +38116,7 @@
         <v>45712.92822916667</v>
       </c>
       <c r="C646" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D646" t="inlineStr">
         <is>
@@ -38173,7 +38173,7 @@
         <v>45014.91954861111</v>
       </c>
       <c r="C647" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D647" t="inlineStr">
         <is>
@@ -38230,7 +38230,7 @@
         <v>45085</v>
       </c>
       <c r="C648" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D648" t="inlineStr">
         <is>
@@ -38287,7 +38287,7 @@
         <v>46048.6109375</v>
       </c>
       <c r="C649" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D649" t="inlineStr">
         <is>
@@ -38344,7 +38344,7 @@
         <v>46007.87877314815</v>
       </c>
       <c r="C650" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D650" t="inlineStr">
         <is>
@@ -38401,7 +38401,7 @@
         <v>45107.66918981481</v>
       </c>
       <c r="C651" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D651" t="inlineStr">
         <is>
@@ -38458,7 +38458,7 @@
         <v>44614</v>
       </c>
       <c r="C652" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D652" t="inlineStr">
         <is>
@@ -38515,7 +38515,7 @@
         <v>46007.89254629629</v>
       </c>
       <c r="C653" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D653" t="inlineStr">
         <is>
@@ -38572,7 +38572,7 @@
         <v>45007.47481481481</v>
       </c>
       <c r="C654" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D654" t="inlineStr">
         <is>
@@ -38629,7 +38629,7 @@
         <v>45007.48090277778</v>
       </c>
       <c r="C655" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D655" t="inlineStr">
         <is>
@@ -38686,7 +38686,7 @@
         <v>46007.88675925926</v>
       </c>
       <c r="C656" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D656" t="inlineStr">
         <is>
@@ -38743,7 +38743,7 @@
         <v>45215.46303240741</v>
       </c>
       <c r="C657" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D657" t="inlineStr">
         <is>
@@ -38800,7 +38800,7 @@
         <v>45551</v>
       </c>
       <c r="C658" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D658" t="inlineStr">
         <is>
@@ -38857,7 +38857,7 @@
         <v>44691.62384259259</v>
       </c>
       <c r="C659" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D659" t="inlineStr">
         <is>
@@ -38914,7 +38914,7 @@
         <v>45085</v>
       </c>
       <c r="C660" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D660" t="inlineStr">
         <is>
@@ -38971,7 +38971,7 @@
         <v>44799</v>
       </c>
       <c r="C661" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D661" t="inlineStr">
         <is>
@@ -39028,7 +39028,7 @@
         <v>44641.60950231482</v>
       </c>
       <c r="C662" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D662" t="inlineStr">
         <is>
@@ -39085,7 +39085,7 @@
         <v>44302</v>
       </c>
       <c r="C663" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D663" t="inlineStr">
         <is>
@@ -39142,7 +39142,7 @@
         <v>45077.43820601852</v>
       </c>
       <c r="C664" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D664" t="inlineStr">
         <is>
@@ -39199,7 +39199,7 @@
         <v>45537.91421296296</v>
       </c>
       <c r="C665" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D665" t="inlineStr">
         <is>
@@ -39256,7 +39256,7 @@
         <v>45538</v>
       </c>
       <c r="C666" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D666" t="inlineStr">
         <is>
@@ -39313,7 +39313,7 @@
         <v>45393.30091435185</v>
       </c>
       <c r="C667" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D667" t="inlineStr">
         <is>
@@ -39370,7 +39370,7 @@
         <v>45170.64689814814</v>
       </c>
       <c r="C668" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D668" t="inlineStr">
         <is>
@@ -39427,7 +39427,7 @@
         <v>46051</v>
       </c>
       <c r="C669" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D669" t="inlineStr">
         <is>
@@ -39484,7 +39484,7 @@
         <v>44349</v>
       </c>
       <c r="C670" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D670" t="inlineStr">
         <is>
@@ -39541,7 +39541,7 @@
         <v>46051</v>
       </c>
       <c r="C671" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D671" t="inlineStr">
         <is>
@@ -39598,7 +39598,7 @@
         <v>45166.65524305555</v>
       </c>
       <c r="C672" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D672" t="inlineStr">
         <is>
@@ -39655,7 +39655,7 @@
         <v>46051</v>
       </c>
       <c r="C673" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D673" t="inlineStr">
         <is>
@@ -39712,7 +39712,7 @@
         <v>45251.55815972222</v>
       </c>
       <c r="C674" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D674" t="inlineStr">
         <is>
@@ -39769,7 +39769,7 @@
         <v>44631.65131944444</v>
       </c>
       <c r="C675" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D675" t="inlineStr">
         <is>
@@ -39826,7 +39826,7 @@
         <v>46052.84638888889</v>
       </c>
       <c r="C676" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D676" t="inlineStr">
         <is>
@@ -39883,7 +39883,7 @@
         <v>45463.42392361111</v>
       </c>
       <c r="C677" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D677" t="inlineStr">
         <is>
@@ -39940,7 +39940,7 @@
         <v>45463.42876157408</v>
       </c>
       <c r="C678" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D678" t="inlineStr">
         <is>
@@ -39997,7 +39997,7 @@
         <v>45766</v>
       </c>
       <c r="C679" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D679" t="inlineStr">
         <is>
@@ -40054,7 +40054,7 @@
         <v>45057</v>
       </c>
       <c r="C680" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D680" t="inlineStr">
         <is>
@@ -40111,7 +40111,7 @@
         <v>44754</v>
       </c>
       <c r="C681" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D681" t="inlineStr">
         <is>
@@ -40168,7 +40168,7 @@
         <v>45092</v>
       </c>
       <c r="C682" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D682" t="inlineStr">
         <is>
@@ -40225,7 +40225,7 @@
         <v>45009.46116898148</v>
       </c>
       <c r="C683" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D683" t="inlineStr">
         <is>
@@ -40282,7 +40282,7 @@
         <v>45455.45792824074</v>
       </c>
       <c r="C684" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D684" t="inlineStr">
         <is>
@@ -40339,7 +40339,7 @@
         <v>46056.46877314815</v>
       </c>
       <c r="C685" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D685" t="inlineStr">
         <is>
@@ -40396,7 +40396,7 @@
         <v>45238</v>
       </c>
       <c r="C686" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D686" t="inlineStr">
         <is>
@@ -40453,7 +40453,7 @@
         <v>44511.57038194445</v>
       </c>
       <c r="C687" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D687" t="inlineStr">
         <is>
@@ -40510,7 +40510,7 @@
         <v>46058.50160879629</v>
       </c>
       <c r="C688" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D688" t="inlineStr">
         <is>
@@ -40567,7 +40567,7 @@
         <v>45775.63248842592</v>
       </c>
       <c r="C689" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D689" t="inlineStr">
         <is>
@@ -40624,7 +40624,7 @@
         <v>44580</v>
       </c>
       <c r="C690" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D690" t="inlineStr">
         <is>
@@ -40681,7 +40681,7 @@
         <v>45315.87924768519</v>
       </c>
       <c r="C691" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D691" t="inlineStr">
         <is>
@@ -40738,7 +40738,7 @@
         <v>46059.78087962963</v>
       </c>
       <c r="C692" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D692" t="inlineStr">
         <is>
@@ -40795,7 +40795,7 @@
         <v>45043.65984953703</v>
       </c>
       <c r="C693" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D693" t="inlineStr">
         <is>
@@ -40852,7 +40852,7 @@
         <v>45050</v>
       </c>
       <c r="C694" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D694" t="inlineStr">
         <is>
@@ -40909,7 +40909,7 @@
         <v>44284</v>
       </c>
       <c r="C695" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D695" t="inlineStr">
         <is>
@@ -40966,7 +40966,7 @@
         <v>45266.39803240741</v>
       </c>
       <c r="C696" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D696" t="inlineStr">
         <is>
@@ -41023,7 +41023,7 @@
         <v>45113.47337962963</v>
       </c>
       <c r="C697" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D697" t="inlineStr">
         <is>
@@ -41080,7 +41080,7 @@
         <v>44881</v>
       </c>
       <c r="C698" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D698" t="inlineStr">
         <is>
@@ -41137,7 +41137,7 @@
         <v>46064.68466435185</v>
       </c>
       <c r="C699" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D699" t="inlineStr">
         <is>
@@ -41194,7 +41194,7 @@
         <v>44920</v>
       </c>
       <c r="C700" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D700" t="inlineStr">
         <is>
@@ -41251,7 +41251,7 @@
         <v>45756.60348379629</v>
       </c>
       <c r="C701" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D701" t="inlineStr">
         <is>
@@ -41308,7 +41308,7 @@
         <v>45756.60971064815</v>
       </c>
       <c r="C702" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D702" t="inlineStr">
         <is>
@@ -41365,7 +41365,7 @@
         <v>45055</v>
       </c>
       <c r="C703" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D703" t="inlineStr">
         <is>
@@ -41422,7 +41422,7 @@
         <v>46056</v>
       </c>
       <c r="C704" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D704" t="inlineStr">
         <is>
@@ -41479,7 +41479,7 @@
         <v>46066</v>
       </c>
       <c r="C705" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D705" t="inlineStr">
         <is>
@@ -41536,7 +41536,7 @@
         <v>46027.61513888889</v>
       </c>
       <c r="C706" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D706" t="inlineStr">
         <is>
@@ -41593,7 +41593,7 @@
         <v>44545.89236111111</v>
       </c>
       <c r="C707" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D707" t="inlineStr">
         <is>
@@ -41650,7 +41650,7 @@
         <v>46062</v>
       </c>
       <c r="C708" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D708" t="inlineStr">
         <is>
@@ -41707,7 +41707,7 @@
         <v>44988</v>
       </c>
       <c r="C709" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D709" t="inlineStr">
         <is>
@@ -41764,7 +41764,7 @@
         <v>46069.51390046296</v>
       </c>
       <c r="C710" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D710" t="inlineStr">
         <is>
@@ -41821,7 +41821,7 @@
         <v>44960.28089120371</v>
       </c>
       <c r="C711" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D711" t="inlineStr">
         <is>
@@ -41878,7 +41878,7 @@
         <v>46069</v>
       </c>
       <c r="C712" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D712" t="inlineStr">
         <is>
@@ -41935,7 +41935,7 @@
         <v>45722</v>
       </c>
       <c r="C713" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D713" t="inlineStr">
         <is>
@@ -41992,7 +41992,7 @@
         <v>44441</v>
       </c>
       <c r="C714" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D714" t="inlineStr">
         <is>
@@ -42049,7 +42049,7 @@
         <v>45279.34813657407</v>
       </c>
       <c r="C715" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D715" t="inlineStr">
         <is>
@@ -42106,7 +42106,7 @@
         <v>45387.88914351852</v>
       </c>
       <c r="C716" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D716" t="inlineStr">
         <is>
@@ -42163,7 +42163,7 @@
         <v>45387.37787037037</v>
       </c>
       <c r="C717" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D717" t="inlineStr">
         <is>
@@ -42220,7 +42220,7 @@
         <v>45080</v>
       </c>
       <c r="C718" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D718" t="inlineStr">
         <is>
@@ -42277,7 +42277,7 @@
         <v>46070</v>
       </c>
       <c r="C719" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D719" t="inlineStr">
         <is>
@@ -42334,7 +42334,7 @@
         <v>45238.3500462963</v>
       </c>
       <c r="C720" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D720" t="inlineStr">
         <is>
@@ -42391,7 +42391,7 @@
         <v>45247</v>
       </c>
       <c r="C721" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D721" t="inlineStr">
         <is>
@@ -42448,7 +42448,7 @@
         <v>45243.34587962963</v>
       </c>
       <c r="C722" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D722" t="inlineStr">
         <is>
@@ -42505,7 +42505,7 @@
         <v>46070</v>
       </c>
       <c r="C723" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D723" t="inlineStr">
         <is>
@@ -42562,7 +42562,7 @@
         <v>44435</v>
       </c>
       <c r="C724" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D724" t="inlineStr">
         <is>
@@ -42619,7 +42619,7 @@
         <v>45105.41936342593</v>
       </c>
       <c r="C725" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D725" t="inlineStr">
         <is>
@@ -42676,7 +42676,7 @@
         <v>46029.3747337963</v>
       </c>
       <c r="C726" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D726" t="inlineStr">
         <is>
@@ -42733,7 +42733,7 @@
         <v>45106.3509837963</v>
       </c>
       <c r="C727" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D727" t="inlineStr">
         <is>
@@ -42790,7 +42790,7 @@
         <v>46070.93134259259</v>
       </c>
       <c r="C728" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D728" t="inlineStr">
         <is>
@@ -42847,7 +42847,7 @@
         <v>46070.93451388889</v>
       </c>
       <c r="C729" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D729" t="inlineStr">
         <is>
@@ -42904,7 +42904,7 @@
         <v>45499</v>
       </c>
       <c r="C730" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D730" t="inlineStr">
         <is>
@@ -42961,7 +42961,7 @@
         <v>45165.53146990741</v>
       </c>
       <c r="C731" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D731" t="inlineStr">
         <is>
@@ -43018,7 +43018,7 @@
         <v>46031.40931712963</v>
       </c>
       <c r="C732" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D732" t="inlineStr">
         <is>
@@ -43075,7 +43075,7 @@
         <v>45524</v>
       </c>
       <c r="C733" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D733" t="inlineStr">
         <is>
@@ -43132,7 +43132,7 @@
         <v>45218.41484953704</v>
       </c>
       <c r="C734" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D734" t="inlineStr">
         <is>
@@ -43189,7 +43189,7 @@
         <v>44866</v>
       </c>
       <c r="C735" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D735" t="inlineStr">
         <is>
@@ -43246,7 +43246,7 @@
         <v>46030</v>
       </c>
       <c r="C736" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D736" t="inlineStr">
         <is>
@@ -43303,7 +43303,7 @@
         <v>44305</v>
       </c>
       <c r="C737" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D737" t="inlineStr">
         <is>
@@ -43360,7 +43360,7 @@
         <v>45264</v>
       </c>
       <c r="C738" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D738" t="inlineStr">
         <is>
@@ -43417,7 +43417,7 @@
         <v>45188.45027777777</v>
       </c>
       <c r="C739" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D739" t="inlineStr">
         <is>
@@ -43474,7 +43474,7 @@
         <v>45093</v>
       </c>
       <c r="C740" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D740" t="inlineStr">
         <is>
@@ -43531,7 +43531,7 @@
         <v>45664.61273148148</v>
       </c>
       <c r="C741" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D741" t="inlineStr">
         <is>
@@ -43588,7 +43588,7 @@
         <v>45113.47484953704</v>
       </c>
       <c r="C742" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D742" t="inlineStr">
         <is>
@@ -43645,7 +43645,7 @@
         <v>44914.59365740741</v>
       </c>
       <c r="C743" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D743" t="inlineStr">
         <is>
@@ -43702,7 +43702,7 @@
         <v>45321.65413194444</v>
       </c>
       <c r="C744" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D744" t="inlineStr">
         <is>
@@ -43759,7 +43759,7 @@
         <v>45127.48940972222</v>
       </c>
       <c r="C745" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D745" t="inlineStr">
         <is>
@@ -43816,7 +43816,7 @@
         <v>45238</v>
       </c>
       <c r="C746" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D746" t="inlineStr">
         <is>
@@ -43873,7 +43873,7 @@
         <v>45334.4565162037</v>
       </c>
       <c r="C747" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D747" t="inlineStr">
         <is>
@@ -43930,7 +43930,7 @@
         <v>45699.59120370371</v>
       </c>
       <c r="C748" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D748" t="inlineStr">
         <is>
@@ -43987,7 +43987,7 @@
         <v>45662</v>
       </c>
       <c r="C749" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D749" t="inlineStr">
         <is>
@@ -44044,7 +44044,7 @@
         <v>45631</v>
       </c>
       <c r="C750" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D750" t="inlineStr">
         <is>
@@ -44101,7 +44101,7 @@
         <v>45531.4630787037</v>
       </c>
       <c r="C751" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D751" t="inlineStr">
         <is>
@@ -44158,7 +44158,7 @@
         <v>44991.60873842592</v>
       </c>
       <c r="C752" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D752" t="inlineStr">
         <is>
@@ -44215,7 +44215,7 @@
         <v>44624</v>
       </c>
       <c r="C753" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D753" t="inlineStr">
         <is>
@@ -44272,7 +44272,7 @@
         <v>44939</v>
       </c>
       <c r="C754" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D754" t="inlineStr">
         <is>
@@ -44329,7 +44329,7 @@
         <v>44939.68549768518</v>
       </c>
       <c r="C755" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D755" t="inlineStr">
         <is>
@@ -44386,7 +44386,7 @@
         <v>45393.86842592592</v>
       </c>
       <c r="C756" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D756" t="inlineStr">
         <is>
@@ -44443,7 +44443,7 @@
         <v>45278.72490740741</v>
       </c>
       <c r="C757" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D757" t="inlineStr">
         <is>
@@ -44500,7 +44500,7 @@
         <v>45204.62678240741</v>
       </c>
       <c r="C758" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D758" t="inlineStr">
         <is>
@@ -44557,7 +44557,7 @@
         <v>45698.47751157408</v>
       </c>
       <c r="C759" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D759" t="inlineStr">
         <is>
@@ -44614,7 +44614,7 @@
         <v>45178</v>
       </c>
       <c r="C760" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D760" t="inlineStr">
         <is>
@@ -44671,7 +44671,7 @@
         <v>44585.33765046296</v>
       </c>
       <c r="C761" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D761" t="inlineStr">
         <is>
@@ -44728,7 +44728,7 @@
         <v>45062.38054398148</v>
       </c>
       <c r="C762" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D762" t="inlineStr">
         <is>
@@ -44785,7 +44785,7 @@
         <v>44893</v>
       </c>
       <c r="C763" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D763" t="inlineStr">
         <is>
@@ -44842,7 +44842,7 @@
         <v>45394.58707175926</v>
       </c>
       <c r="C764" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D764" t="inlineStr">
         <is>
@@ -44899,7 +44899,7 @@
         <v>45344.35084490741</v>
       </c>
       <c r="C765" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D765" t="inlineStr">
         <is>
@@ -44956,7 +44956,7 @@
         <v>44973.29771990741</v>
       </c>
       <c r="C766" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D766" t="inlineStr">
         <is>
@@ -45013,7 +45013,7 @@
         <v>44820</v>
       </c>
       <c r="C767" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D767" t="inlineStr">
         <is>
@@ -45070,7 +45070,7 @@
         <v>45673.28958333333</v>
       </c>
       <c r="C768" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D768" t="inlineStr">
         <is>
@@ -45127,7 +45127,7 @@
         <v>45309.44398148148</v>
       </c>
       <c r="C769" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D769" t="inlineStr">
         <is>
@@ -45184,7 +45184,7 @@
         <v>45142</v>
       </c>
       <c r="C770" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D770" t="inlineStr">
         <is>
@@ -45241,7 +45241,7 @@
         <v>44840.58092592593</v>
       </c>
       <c r="C771" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D771" t="inlineStr">
         <is>
@@ -45298,7 +45298,7 @@
         <v>45577.29355324074</v>
       </c>
       <c r="C772" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D772" t="inlineStr">
         <is>
@@ -45355,7 +45355,7 @@
         <v>45094</v>
       </c>
       <c r="C773" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D773" t="inlineStr">
         <is>
@@ -45412,7 +45412,7 @@
         <v>45208.83212962963</v>
       </c>
       <c r="C774" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D774" t="inlineStr">
         <is>
@@ -45469,7 +45469,7 @@
         <v>45393.30375</v>
       </c>
       <c r="C775" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D775" t="inlineStr">
         <is>
@@ -45526,7 +45526,7 @@
         <v>45161.47722222222</v>
       </c>
       <c r="C776" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D776" t="inlineStr">
         <is>
@@ -45583,7 +45583,7 @@
         <v>45531.94460648148</v>
       </c>
       <c r="C777" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D777" t="inlineStr">
         <is>
@@ -45640,7 +45640,7 @@
         <v>45140</v>
       </c>
       <c r="C778" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D778" t="inlineStr">
         <is>
@@ -45697,7 +45697,7 @@
         <v>45344.29208333333</v>
       </c>
       <c r="C779" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D779" t="inlineStr">
         <is>
@@ -45754,7 +45754,7 @@
         <v>45524.35208333333</v>
       </c>
       <c r="C780" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D780" t="inlineStr">
         <is>
@@ -45811,7 +45811,7 @@
         <v>45218.49332175926</v>
       </c>
       <c r="C781" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D781" t="inlineStr">
         <is>
@@ -45868,7 +45868,7 @@
         <v>44757.34600694444</v>
       </c>
       <c r="C782" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D782" t="inlineStr">
         <is>
@@ -45925,7 +45925,7 @@
         <v>44619</v>
       </c>
       <c r="C783" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D783" t="inlineStr">
         <is>
@@ -45982,7 +45982,7 @@
         <v>45195.77855324074</v>
       </c>
       <c r="C784" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D784" t="inlineStr">
         <is>
@@ -46039,7 +46039,7 @@
         <v>45180</v>
       </c>
       <c r="C785" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D785" t="inlineStr">
         <is>
@@ -46096,7 +46096,7 @@
         <v>45736.44543981482</v>
       </c>
       <c r="C786" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D786" t="inlineStr">
         <is>
@@ -46153,7 +46153,7 @@
         <v>45637.38047453704</v>
       </c>
       <c r="C787" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D787" t="inlineStr">
         <is>
@@ -46210,7 +46210,7 @@
         <v>45181</v>
       </c>
       <c r="C788" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D788" t="inlineStr">
         <is>
@@ -46267,7 +46267,7 @@
         <v>44825.97048611111</v>
       </c>
       <c r="C789" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D789" t="inlineStr">
         <is>
@@ -46324,7 +46324,7 @@
         <v>44445.65237268519</v>
       </c>
       <c r="C790" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D790" t="inlineStr">
         <is>
@@ -46381,7 +46381,7 @@
         <v>45309.69259259259</v>
       </c>
       <c r="C791" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D791" t="inlineStr">
         <is>
@@ -46438,7 +46438,7 @@
         <v>45182.43038194445</v>
       </c>
       <c r="C792" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D792" t="inlineStr">
         <is>
@@ -46495,7 +46495,7 @@
         <v>45747.50460648148</v>
       </c>
       <c r="C793" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D793" t="inlineStr">
         <is>
@@ -46552,7 +46552,7 @@
         <v>45090.87483796296</v>
       </c>
       <c r="C794" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D794" t="inlineStr">
         <is>
@@ -46609,7 +46609,7 @@
         <v>45324</v>
       </c>
       <c r="C795" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D795" t="inlineStr">
         <is>
@@ -46666,7 +46666,7 @@
         <v>45223.50019675926</v>
       </c>
       <c r="C796" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D796" t="inlineStr">
         <is>
@@ -46723,7 +46723,7 @@
         <v>45170</v>
       </c>
       <c r="C797" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D797" t="inlineStr">
         <is>
@@ -46780,7 +46780,7 @@
         <v>45042</v>
       </c>
       <c r="C798" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D798" t="inlineStr">
         <is>
@@ -46837,7 +46837,7 @@
         <v>45406.73519675926</v>
       </c>
       <c r="C799" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D799" t="inlineStr">
         <is>
@@ -46894,7 +46894,7 @@
         <v>45162</v>
       </c>
       <c r="C800" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D800" t="inlineStr">
         <is>
@@ -46951,7 +46951,7 @@
         <v>44893.475</v>
       </c>
       <c r="C801" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D801" t="inlineStr">
         <is>
@@ -47008,7 +47008,7 @@
         <v>45602</v>
       </c>
       <c r="C802" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D802" t="inlineStr">
         <is>
@@ -47065,7 +47065,7 @@
         <v>45092</v>
       </c>
       <c r="C803" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D803" t="inlineStr">
         <is>
@@ -47122,7 +47122,7 @@
         <v>45085</v>
       </c>
       <c r="C804" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D804" t="inlineStr">
         <is>
@@ -47179,7 +47179,7 @@
         <v>44930.78150462963</v>
       </c>
       <c r="C805" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D805" t="inlineStr">
         <is>
@@ -47236,7 +47236,7 @@
         <v>45624.45537037037</v>
       </c>
       <c r="C806" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D806" t="inlineStr">
         <is>
@@ -47293,7 +47293,7 @@
         <v>44461</v>
       </c>
       <c r="C807" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D807" t="inlineStr">
         <is>
@@ -47350,7 +47350,7 @@
         <v>45092</v>
       </c>
       <c r="C808" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D808" t="inlineStr">
         <is>
@@ -47407,7 +47407,7 @@
         <v>45454.72009259259</v>
       </c>
       <c r="C809" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D809" t="inlineStr">
         <is>
@@ -47464,7 +47464,7 @@
         <v>45169.6147337963</v>
       </c>
       <c r="C810" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D810" t="inlineStr">
         <is>
@@ -47521,7 +47521,7 @@
         <v>45573.72731481482</v>
       </c>
       <c r="C811" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D811" t="inlineStr">
         <is>
@@ -47578,7 +47578,7 @@
         <v>45761</v>
       </c>
       <c r="C812" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D812" t="inlineStr">
         <is>
@@ -47635,7 +47635,7 @@
         <v>44517</v>
       </c>
       <c r="C813" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D813" t="inlineStr">
         <is>
@@ -47692,7 +47692,7 @@
         <v>45027</v>
       </c>
       <c r="C814" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D814" t="inlineStr">
         <is>
@@ -47749,7 +47749,7 @@
         <v>45194.60591435185</v>
       </c>
       <c r="C815" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D815" t="inlineStr">
         <is>
@@ -47806,7 +47806,7 @@
         <v>45309.69599537037</v>
       </c>
       <c r="C816" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D816" t="inlineStr">
         <is>
@@ -47863,7 +47863,7 @@
         <v>44700</v>
       </c>
       <c r="C817" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D817" t="inlineStr">
         <is>
@@ -47920,7 +47920,7 @@
         <v>45674.37722222223</v>
       </c>
       <c r="C818" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D818" t="inlineStr">
         <is>
@@ -47977,7 +47977,7 @@
         <v>45744</v>
       </c>
       <c r="C819" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D819" t="inlineStr">
         <is>
@@ -48034,7 +48034,7 @@
         <v>45183</v>
       </c>
       <c r="C820" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D820" t="inlineStr">
         <is>
@@ -48091,7 +48091,7 @@
         <v>44603.56049768518</v>
       </c>
       <c r="C821" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D821" t="inlineStr">
         <is>
@@ -48148,7 +48148,7 @@
         <v>45225.8025</v>
       </c>
       <c r="C822" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D822" t="inlineStr">
         <is>
@@ -48205,7 +48205,7 @@
         <v>45393.66436342592</v>
       </c>
       <c r="C823" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D823" t="inlineStr">
         <is>
@@ -48262,7 +48262,7 @@
         <v>44616</v>
       </c>
       <c r="C824" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D824" t="inlineStr">
         <is>
@@ -48319,7 +48319,7 @@
         <v>45174.49248842592</v>
       </c>
       <c r="C825" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D825" t="inlineStr">
         <is>
@@ -48376,7 +48376,7 @@
         <v>45070</v>
       </c>
       <c r="C826" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D826" t="inlineStr">
         <is>
@@ -48433,7 +48433,7 @@
         <v>45037</v>
       </c>
       <c r="C827" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D827" t="inlineStr">
         <is>
@@ -48490,7 +48490,7 @@
         <v>45092</v>
       </c>
       <c r="C828" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D828" t="inlineStr">
         <is>
@@ -48547,7 +48547,7 @@
         <v>44909</v>
       </c>
       <c r="C829" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D829" t="inlineStr">
         <is>
@@ -48604,7 +48604,7 @@
         <v>45076.50148148148</v>
       </c>
       <c r="C830" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D830" t="inlineStr">
         <is>
@@ -48661,7 +48661,7 @@
         <v>44900.59222222222</v>
       </c>
       <c r="C831" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D831" t="inlineStr">
         <is>
@@ -48718,7 +48718,7 @@
         <v>45266</v>
       </c>
       <c r="C832" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D832" t="inlineStr">
         <is>
@@ -48775,7 +48775,7 @@
         <v>45571.82802083333</v>
       </c>
       <c r="C833" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D833" t="inlineStr">
         <is>
@@ -48832,7 +48832,7 @@
         <v>45565.79476851852</v>
       </c>
       <c r="C834" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D834" t="inlineStr">
         <is>
@@ -48889,7 +48889,7 @@
         <v>44722.55038194444</v>
       </c>
       <c r="C835" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D835" t="inlineStr">
         <is>
@@ -48946,7 +48946,7 @@
         <v>44903.44068287037</v>
       </c>
       <c r="C836" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D836" t="inlineStr">
         <is>
@@ -49003,7 +49003,7 @@
         <v>45154.94172453704</v>
       </c>
       <c r="C837" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D837" t="inlineStr">
         <is>
@@ -49060,7 +49060,7 @@
         <v>44711.57103009259</v>
       </c>
       <c r="C838" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D838" t="inlineStr">
         <is>
@@ -49117,7 +49117,7 @@
         <v>44693</v>
       </c>
       <c r="C839" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D839" t="inlineStr">
         <is>
@@ -49174,7 +49174,7 @@
         <v>44581.97131944444</v>
       </c>
       <c r="C840" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D840" t="inlineStr">
         <is>
@@ -49231,7 +49231,7 @@
         <v>45075.43681712963</v>
       </c>
       <c r="C841" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D841" t="inlineStr">
         <is>
@@ -49288,7 +49288,7 @@
         <v>45616.35783564814</v>
       </c>
       <c r="C842" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D842" t="inlineStr">
         <is>
@@ -49345,7 +49345,7 @@
         <v>45062.38267361111</v>
       </c>
       <c r="C843" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D843" t="inlineStr">
         <is>
@@ -49402,7 +49402,7 @@
         <v>45113</v>
       </c>
       <c r="C844" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D844" t="inlineStr">
         <is>
@@ -49459,7 +49459,7 @@
         <v>45672.66238425926</v>
       </c>
       <c r="C845" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D845" t="inlineStr">
         <is>
@@ -49516,7 +49516,7 @@
         <v>45301</v>
       </c>
       <c r="C846" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D846" t="inlineStr">
         <is>
@@ -49573,7 +49573,7 @@
         <v>44281</v>
       </c>
       <c r="C847" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D847" t="inlineStr">
         <is>
@@ -49630,7 +49630,7 @@
         <v>45030</v>
       </c>
       <c r="C848" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D848" t="inlineStr">
         <is>
@@ -49687,7 +49687,7 @@
         <v>45348.55489583333</v>
       </c>
       <c r="C849" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D849" t="inlineStr">
         <is>
@@ -49744,7 +49744,7 @@
         <v>44748</v>
       </c>
       <c r="C850" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D850" t="inlineStr">
         <is>
@@ -49801,7 +49801,7 @@
         <v>45775.59717592593</v>
       </c>
       <c r="C851" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D851" t="inlineStr">
         <is>
@@ -49858,7 +49858,7 @@
         <v>45048</v>
       </c>
       <c r="C852" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D852" t="inlineStr">
         <is>
@@ -49915,7 +49915,7 @@
         <v>45028.56200231481</v>
       </c>
       <c r="C853" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D853" t="inlineStr">
         <is>
@@ -49972,7 +49972,7 @@
         <v>45075</v>
       </c>
       <c r="C854" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D854" t="inlineStr">
         <is>
@@ -50029,7 +50029,7 @@
         <v>45604.45568287037</v>
       </c>
       <c r="C855" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D855" t="inlineStr">
         <is>
@@ -50086,7 +50086,7 @@
         <v>45625</v>
       </c>
       <c r="C856" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D856" t="inlineStr">
         <is>
@@ -50143,7 +50143,7 @@
         <v>45495.64009259259</v>
       </c>
       <c r="C857" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D857" t="inlineStr">
         <is>
@@ -50200,7 +50200,7 @@
         <v>45075.44275462963</v>
       </c>
       <c r="C858" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D858" t="inlineStr">
         <is>
@@ -50257,7 +50257,7 @@
         <v>45538</v>
       </c>
       <c r="C859" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D859" t="inlineStr">
         <is>
@@ -50314,7 +50314,7 @@
         <v>45594</v>
       </c>
       <c r="C860" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D860" t="inlineStr">
         <is>
@@ -50371,7 +50371,7 @@
         <v>45555.36652777778</v>
       </c>
       <c r="C861" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D861" t="inlineStr">
         <is>
@@ -50428,7 +50428,7 @@
         <v>45344.695</v>
       </c>
       <c r="C862" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D862" t="inlineStr">
         <is>
@@ -50490,7 +50490,7 @@
         <v>45499</v>
       </c>
       <c r="C863" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D863" t="inlineStr">
         <is>
@@ -50547,7 +50547,7 @@
         <v>45372.46738425926</v>
       </c>
       <c r="C864" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D864" t="inlineStr">
         <is>
@@ -50604,7 +50604,7 @@
         <v>45573.91842592593</v>
       </c>
       <c r="C865" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D865" t="inlineStr">
         <is>
@@ -50661,7 +50661,7 @@
         <v>45621</v>
       </c>
       <c r="C866" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D866" t="inlineStr">
         <is>
@@ -50718,7 +50718,7 @@
         <v>44398</v>
       </c>
       <c r="C867" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D867" t="inlineStr">
         <is>
@@ -50775,7 +50775,7 @@
         <v>45782</v>
       </c>
       <c r="C868" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D868" t="inlineStr">
         <is>
@@ -50832,7 +50832,7 @@
         <v>45783.29873842592</v>
       </c>
       <c r="C869" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D869" t="inlineStr">
         <is>
@@ -50889,7 +50889,7 @@
         <v>45783.38400462963</v>
       </c>
       <c r="C870" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D870" t="inlineStr">
         <is>
@@ -50946,7 +50946,7 @@
         <v>45783.43942129629</v>
       </c>
       <c r="C871" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D871" t="inlineStr">
         <is>
@@ -51003,7 +51003,7 @@
         <v>45387.90001157407</v>
       </c>
       <c r="C872" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D872" t="inlineStr">
         <is>
@@ -51060,7 +51060,7 @@
         <v>45784.28789351852</v>
       </c>
       <c r="C873" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D873" t="inlineStr">
         <is>
@@ -51117,7 +51117,7 @@
         <v>45784.29160879629</v>
       </c>
       <c r="C874" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D874" t="inlineStr">
         <is>
@@ -51174,7 +51174,7 @@
         <v>45624.8330324074</v>
       </c>
       <c r="C875" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D875" t="inlineStr">
         <is>
@@ -51231,7 +51231,7 @@
         <v>45784.5990625</v>
       </c>
       <c r="C876" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D876" t="inlineStr">
         <is>
@@ -51288,7 +51288,7 @@
         <v>45784.60247685185</v>
       </c>
       <c r="C877" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D877" t="inlineStr">
         <is>
@@ -51345,7 +51345,7 @@
         <v>45784.28640046297</v>
       </c>
       <c r="C878" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D878" t="inlineStr">
         <is>
@@ -51402,7 +51402,7 @@
         <v>45674.37980324074</v>
       </c>
       <c r="C879" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D879" t="inlineStr">
         <is>
@@ -51459,7 +51459,7 @@
         <v>45714.8555324074</v>
       </c>
       <c r="C880" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D880" t="inlineStr">
         <is>
@@ -51516,7 +51516,7 @@
         <v>45631.39092592592</v>
       </c>
       <c r="C881" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D881" t="inlineStr">
         <is>
@@ -51573,7 +51573,7 @@
         <v>45785.77976851852</v>
       </c>
       <c r="C882" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D882" t="inlineStr">
         <is>
@@ -51630,7 +51630,7 @@
         <v>45789.66337962963</v>
       </c>
       <c r="C883" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D883" t="inlineStr">
         <is>
@@ -51687,7 +51687,7 @@
         <v>44496</v>
       </c>
       <c r="C884" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D884" t="inlineStr">
         <is>
@@ -51744,7 +51744,7 @@
         <v>45656.2784375</v>
       </c>
       <c r="C885" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D885" t="inlineStr">
         <is>
@@ -51801,7 +51801,7 @@
         <v>45453</v>
       </c>
       <c r="C886" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D886" t="inlineStr">
         <is>
@@ -51858,7 +51858,7 @@
         <v>45754.36746527778</v>
       </c>
       <c r="C887" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D887" t="inlineStr">
         <is>
@@ -51915,7 +51915,7 @@
         <v>45475</v>
       </c>
       <c r="C888" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D888" t="inlineStr">
         <is>
@@ -51972,7 +51972,7 @@
         <v>45691.70079861111</v>
       </c>
       <c r="C889" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D889" t="inlineStr">
         <is>
@@ -52029,7 +52029,7 @@
         <v>45532.43490740741</v>
       </c>
       <c r="C890" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D890" t="inlineStr">
         <is>
@@ -52086,7 +52086,7 @@
         <v>45384.68908564815</v>
       </c>
       <c r="C891" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D891" t="inlineStr">
         <is>
@@ -52143,7 +52143,7 @@
         <v>45540.63275462963</v>
       </c>
       <c r="C892" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D892" t="inlineStr">
         <is>
@@ -52200,7 +52200,7 @@
         <v>45790.36726851852</v>
       </c>
       <c r="C893" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D893" t="inlineStr">
         <is>
@@ -52257,7 +52257,7 @@
         <v>45358</v>
       </c>
       <c r="C894" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D894" t="inlineStr">
         <is>
@@ -52314,7 +52314,7 @@
         <v>44559</v>
       </c>
       <c r="C895" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D895" t="inlineStr">
         <is>
@@ -52371,7 +52371,7 @@
         <v>45796.37314814814</v>
       </c>
       <c r="C896" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D896" t="inlineStr">
         <is>
@@ -52428,7 +52428,7 @@
         <v>45797.42636574074</v>
       </c>
       <c r="C897" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D897" t="inlineStr">
         <is>
@@ -52485,7 +52485,7 @@
         <v>45797.42967592592</v>
       </c>
       <c r="C898" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D898" t="inlineStr">
         <is>
@@ -52542,7 +52542,7 @@
         <v>45796.47753472222</v>
       </c>
       <c r="C899" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D899" t="inlineStr">
         <is>
@@ -52599,7 +52599,7 @@
         <v>45797.43391203704</v>
       </c>
       <c r="C900" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D900" t="inlineStr">
         <is>
@@ -52656,7 +52656,7 @@
         <v>45693.46003472222</v>
       </c>
       <c r="C901" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D901" t="inlineStr">
         <is>
@@ -52713,7 +52713,7 @@
         <v>45581.36192129629</v>
       </c>
       <c r="C902" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D902" t="inlineStr">
         <is>
@@ -52770,7 +52770,7 @@
         <v>45770</v>
       </c>
       <c r="C903" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D903" t="inlineStr">
         <is>
@@ -52827,7 +52827,7 @@
         <v>45799.63540509259</v>
       </c>
       <c r="C904" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D904" t="inlineStr">
         <is>
@@ -52884,7 +52884,7 @@
         <v>45632.59701388889</v>
       </c>
       <c r="C905" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D905" t="inlineStr">
         <is>
@@ -52941,7 +52941,7 @@
         <v>44837</v>
       </c>
       <c r="C906" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D906" t="inlineStr">
         <is>
@@ -52998,7 +52998,7 @@
         <v>45012</v>
       </c>
       <c r="C907" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D907" t="inlineStr">
         <is>
@@ -53055,7 +53055,7 @@
         <v>45334</v>
       </c>
       <c r="C908" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D908" t="inlineStr">
         <is>
@@ -53112,7 +53112,7 @@
         <v>45393.93069444445</v>
       </c>
       <c r="C909" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D909" t="inlineStr">
         <is>
@@ -53169,7 +53169,7 @@
         <v>45809.60372685185</v>
       </c>
       <c r="C910" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D910" t="inlineStr">
         <is>
@@ -53226,7 +53226,7 @@
         <v>45783</v>
       </c>
       <c r="C911" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D911" t="inlineStr">
         <is>
@@ -53283,7 +53283,7 @@
         <v>45817.63003472222</v>
       </c>
       <c r="C912" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D912" t="inlineStr">
         <is>
